--- a/Lightning Bank.xlsx
+++ b/Lightning Bank.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/20eb409204932c1c/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="595" documentId="13_ncr:1_{AE93A452-22DF-478B-8AAE-1A3A6016AB56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1FB227A-32BE-4B5A-96ED-AB521F3032C1}"/>
+  <xr:revisionPtr revIDLastSave="597" documentId="13_ncr:1_{AE93A452-22DF-478B-8AAE-1A3A6016AB56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4568BE3-D6FD-47E9-9DCB-852CE202CFD2}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{10396A79-A4B2-467C-A467-ECE59C587EB2}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="4" xr2:uid="{10396A79-A4B2-467C-A467-ECE59C587EB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="8" r:id="rId1"/>
@@ -1129,60 +1129,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1236,6 +1182,60 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2279,7 +2279,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2630A19-5F68-4D0D-97A2-00E38378C396}">
   <dimension ref="A1:AN34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:V4"/>
     </sheetView>
   </sheetViews>
@@ -2332,81 +2332,81 @@
     </row>
     <row r="2" spans="1:40" ht="15.85" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A2" s="4"/>
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="90" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
-      <c r="U2" s="109"/>
-      <c r="V2" s="110"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="91"/>
+      <c r="S2" s="91"/>
+      <c r="T2" s="91"/>
+      <c r="U2" s="91"/>
+      <c r="V2" s="92"/>
       <c r="W2" s="12"/>
       <c r="X2" s="13"/>
     </row>
     <row r="3" spans="1:40" ht="15.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="4"/>
-      <c r="B3" s="111"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="112"/>
-      <c r="L3" s="112"/>
-      <c r="M3" s="112"/>
-      <c r="N3" s="112"/>
-      <c r="O3" s="112"/>
-      <c r="P3" s="112"/>
-      <c r="Q3" s="112"/>
-      <c r="R3" s="112"/>
-      <c r="S3" s="112"/>
-      <c r="T3" s="112"/>
-      <c r="U3" s="112"/>
-      <c r="V3" s="113"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="94"/>
+      <c r="Q3" s="94"/>
+      <c r="R3" s="94"/>
+      <c r="S3" s="94"/>
+      <c r="T3" s="94"/>
+      <c r="U3" s="94"/>
+      <c r="V3" s="95"/>
       <c r="W3" s="12"/>
       <c r="X3" s="15"/>
     </row>
     <row r="4" spans="1:40" ht="15.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="4"/>
-      <c r="B4" s="114"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="115"/>
-      <c r="J4" s="115"/>
-      <c r="K4" s="115"/>
-      <c r="L4" s="115"/>
-      <c r="M4" s="115"/>
-      <c r="N4" s="115"/>
-      <c r="O4" s="115"/>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="115"/>
-      <c r="R4" s="115"/>
-      <c r="S4" s="115"/>
-      <c r="T4" s="115"/>
-      <c r="U4" s="115"/>
-      <c r="V4" s="116"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="97"/>
+      <c r="N4" s="97"/>
+      <c r="O4" s="97"/>
+      <c r="P4" s="97"/>
+      <c r="Q4" s="97"/>
+      <c r="R4" s="97"/>
+      <c r="S4" s="97"/>
+      <c r="T4" s="97"/>
+      <c r="U4" s="97"/>
+      <c r="V4" s="98"/>
       <c r="W4" s="12"/>
       <c r="X4" s="15"/>
     </row>
@@ -2451,28 +2451,28 @@
       <c r="F6" s="67">
         <v>100000</v>
       </c>
-      <c r="G6" s="118" t="s">
+      <c r="G6" s="100" t="s">
         <v>51</v>
       </c>
-      <c r="H6" s="118"/>
-      <c r="I6" s="118"/>
-      <c r="J6" s="118"/>
-      <c r="K6" s="118"/>
-      <c r="L6" s="118"/>
-      <c r="M6" s="118"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="100"/>
       <c r="N6" s="62"/>
       <c r="O6" s="67">
         <v>1300000</v>
       </c>
-      <c r="P6" s="118" t="s">
+      <c r="P6" s="100" t="s">
         <v>52</v>
       </c>
-      <c r="Q6" s="118"/>
-      <c r="R6" s="118"/>
-      <c r="S6" s="118"/>
-      <c r="T6" s="118"/>
-      <c r="U6" s="118"/>
-      <c r="V6" s="118"/>
+      <c r="Q6" s="100"/>
+      <c r="R6" s="100"/>
+      <c r="S6" s="100"/>
+      <c r="T6" s="100"/>
+      <c r="U6" s="100"/>
+      <c r="V6" s="100"/>
       <c r="W6" s="63"/>
       <c r="X6" s="64"/>
       <c r="Y6" s="64"/>
@@ -2499,77 +2499,77 @@
       <c r="C7" s="40"/>
       <c r="D7" s="44"/>
       <c r="E7" s="36"/>
-      <c r="F7" s="117" t="s">
+      <c r="F7" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="117"/>
-      <c r="H7" s="117"/>
-      <c r="I7" s="117"/>
-      <c r="J7" s="117"/>
-      <c r="K7" s="117"/>
-      <c r="L7" s="117"/>
-      <c r="M7" s="117"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="99"/>
+      <c r="M7" s="99"/>
       <c r="N7" s="51"/>
-      <c r="O7" s="117" t="s">
+      <c r="O7" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="P7" s="117"/>
-      <c r="Q7" s="117"/>
-      <c r="R7" s="117"/>
-      <c r="S7" s="117"/>
-      <c r="T7" s="117"/>
-      <c r="U7" s="117"/>
-      <c r="V7" s="117"/>
+      <c r="P7" s="99"/>
+      <c r="Q7" s="99"/>
+      <c r="R7" s="99"/>
+      <c r="S7" s="99"/>
+      <c r="T7" s="99"/>
+      <c r="U7" s="99"/>
+      <c r="V7" s="99"/>
       <c r="W7" s="2"/>
     </row>
     <row r="8" spans="1:40" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B8" s="104" t="s">
+      <c r="B8" s="86" t="s">
         <v>57</v>
       </c>
       <c r="C8" s="43"/>
-      <c r="D8" s="106" t="s">
+      <c r="D8" s="88" t="s">
         <v>22</v>
       </c>
       <c r="E8" s="37"/>
-      <c r="F8" s="107" t="s">
+      <c r="F8" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="107"/>
-      <c r="H8" s="107" t="s">
+      <c r="G8" s="89"/>
+      <c r="H8" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="107"/>
-      <c r="J8" s="107" t="s">
+      <c r="I8" s="89"/>
+      <c r="J8" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="K8" s="107"/>
-      <c r="L8" s="107" t="s">
+      <c r="K8" s="89"/>
+      <c r="L8" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="M8" s="107"/>
+      <c r="M8" s="89"/>
       <c r="N8" s="52"/>
-      <c r="O8" s="107" t="s">
+      <c r="O8" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="P8" s="107"/>
-      <c r="Q8" s="107" t="s">
+      <c r="P8" s="89"/>
+      <c r="Q8" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="R8" s="107"/>
-      <c r="S8" s="107" t="s">
+      <c r="R8" s="89"/>
+      <c r="S8" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="T8" s="107"/>
-      <c r="U8" s="107" t="s">
+      <c r="T8" s="89"/>
+      <c r="U8" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="V8" s="107"/>
+      <c r="V8" s="89"/>
       <c r="W8" s="2"/>
     </row>
     <row r="9" spans="1:40" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="105"/>
+      <c r="B9" s="87"/>
       <c r="C9" s="43"/>
-      <c r="D9" s="106"/>
+      <c r="D9" s="88"/>
       <c r="E9" s="37"/>
       <c r="F9" s="26" t="s">
         <v>32</v>
@@ -2881,77 +2881,77 @@
         <v>20000</v>
       </c>
       <c r="E14" s="39"/>
-      <c r="F14" s="101" t="s">
+      <c r="F14" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="102"/>
-      <c r="H14" s="102"/>
-      <c r="I14" s="102"/>
-      <c r="J14" s="102"/>
-      <c r="K14" s="102"/>
-      <c r="L14" s="102"/>
-      <c r="M14" s="103"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="84"/>
+      <c r="L14" s="84"/>
+      <c r="M14" s="85"/>
       <c r="N14" s="51"/>
-      <c r="O14" s="101" t="s">
+      <c r="O14" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="P14" s="102"/>
-      <c r="Q14" s="102"/>
-      <c r="R14" s="102"/>
-      <c r="S14" s="102"/>
-      <c r="T14" s="102"/>
-      <c r="U14" s="102"/>
-      <c r="V14" s="103"/>
+      <c r="P14" s="84"/>
+      <c r="Q14" s="84"/>
+      <c r="R14" s="84"/>
+      <c r="S14" s="84"/>
+      <c r="T14" s="84"/>
+      <c r="U14" s="84"/>
+      <c r="V14" s="85"/>
       <c r="W14" s="2"/>
     </row>
     <row r="15" spans="1:40" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B15" s="104" t="s">
+      <c r="B15" s="86" t="s">
         <v>46</v>
       </c>
       <c r="C15" s="43"/>
-      <c r="D15" s="106" t="s">
+      <c r="D15" s="88" t="s">
         <v>22</v>
       </c>
       <c r="E15" s="37"/>
-      <c r="F15" s="107" t="s">
+      <c r="F15" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="G15" s="107"/>
-      <c r="H15" s="107" t="s">
+      <c r="G15" s="89"/>
+      <c r="H15" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="I15" s="107"/>
-      <c r="J15" s="107" t="s">
+      <c r="I15" s="89"/>
+      <c r="J15" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="K15" s="107"/>
-      <c r="L15" s="107" t="s">
+      <c r="K15" s="89"/>
+      <c r="L15" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="M15" s="107"/>
+      <c r="M15" s="89"/>
       <c r="N15" s="52"/>
-      <c r="O15" s="107" t="s">
+      <c r="O15" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="P15" s="107"/>
-      <c r="Q15" s="107" t="s">
+      <c r="P15" s="89"/>
+      <c r="Q15" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="R15" s="107"/>
-      <c r="S15" s="107" t="s">
+      <c r="R15" s="89"/>
+      <c r="S15" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="T15" s="107"/>
-      <c r="U15" s="107" t="s">
+      <c r="T15" s="89"/>
+      <c r="U15" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="V15" s="107"/>
+      <c r="V15" s="89"/>
       <c r="W15" s="2"/>
     </row>
     <row r="16" spans="1:40" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="105"/>
+      <c r="B16" s="87"/>
       <c r="C16" s="43"/>
-      <c r="D16" s="106"/>
+      <c r="D16" s="88"/>
       <c r="E16" s="37"/>
       <c r="F16" s="26" t="s">
         <v>32</v>
@@ -3261,77 +3261,77 @@
         <v>400000</v>
       </c>
       <c r="E21" s="39"/>
-      <c r="F21" s="101" t="s">
+      <c r="F21" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="102"/>
-      <c r="H21" s="102"/>
-      <c r="I21" s="102"/>
-      <c r="J21" s="102"/>
-      <c r="K21" s="102"/>
-      <c r="L21" s="102"/>
-      <c r="M21" s="103"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="84"/>
+      <c r="I21" s="84"/>
+      <c r="J21" s="84"/>
+      <c r="K21" s="84"/>
+      <c r="L21" s="84"/>
+      <c r="M21" s="85"/>
       <c r="N21" s="51"/>
-      <c r="O21" s="101" t="s">
+      <c r="O21" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="P21" s="102"/>
-      <c r="Q21" s="102"/>
-      <c r="R21" s="102"/>
-      <c r="S21" s="102"/>
-      <c r="T21" s="102"/>
-      <c r="U21" s="102"/>
-      <c r="V21" s="103"/>
+      <c r="P21" s="84"/>
+      <c r="Q21" s="84"/>
+      <c r="R21" s="84"/>
+      <c r="S21" s="84"/>
+      <c r="T21" s="84"/>
+      <c r="U21" s="84"/>
+      <c r="V21" s="85"/>
       <c r="W21" s="2"/>
     </row>
     <row r="22" spans="2:23" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B22" s="104" t="s">
+      <c r="B22" s="86" t="s">
         <v>46</v>
       </c>
       <c r="C22" s="43"/>
-      <c r="D22" s="106" t="s">
+      <c r="D22" s="88" t="s">
         <v>22</v>
       </c>
       <c r="E22" s="37"/>
-      <c r="F22" s="107" t="s">
+      <c r="F22" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="G22" s="107"/>
-      <c r="H22" s="107" t="s">
+      <c r="G22" s="89"/>
+      <c r="H22" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="I22" s="107"/>
-      <c r="J22" s="107" t="s">
+      <c r="I22" s="89"/>
+      <c r="J22" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="K22" s="107"/>
-      <c r="L22" s="107" t="s">
+      <c r="K22" s="89"/>
+      <c r="L22" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="M22" s="107"/>
+      <c r="M22" s="89"/>
       <c r="N22" s="52"/>
-      <c r="O22" s="107" t="s">
+      <c r="O22" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="P22" s="107"/>
-      <c r="Q22" s="107" t="s">
+      <c r="P22" s="89"/>
+      <c r="Q22" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="R22" s="107"/>
-      <c r="S22" s="107" t="s">
+      <c r="R22" s="89"/>
+      <c r="S22" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="T22" s="107"/>
-      <c r="U22" s="107" t="s">
+      <c r="T22" s="89"/>
+      <c r="U22" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="V22" s="107"/>
+      <c r="V22" s="89"/>
       <c r="W22" s="2"/>
     </row>
     <row r="23" spans="2:23" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B23" s="105"/>
+      <c r="B23" s="87"/>
       <c r="C23" s="43"/>
-      <c r="D23" s="106"/>
+      <c r="D23" s="88"/>
       <c r="E23" s="37"/>
       <c r="F23" s="26" t="s">
         <v>32</v>
@@ -3641,77 +3641,77 @@
         <v>1000000</v>
       </c>
       <c r="E28" s="39"/>
-      <c r="F28" s="101" t="s">
+      <c r="F28" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="G28" s="102"/>
-      <c r="H28" s="102"/>
-      <c r="I28" s="102"/>
-      <c r="J28" s="102"/>
-      <c r="K28" s="102"/>
-      <c r="L28" s="102"/>
-      <c r="M28" s="103"/>
+      <c r="G28" s="84"/>
+      <c r="H28" s="84"/>
+      <c r="I28" s="84"/>
+      <c r="J28" s="84"/>
+      <c r="K28" s="84"/>
+      <c r="L28" s="84"/>
+      <c r="M28" s="85"/>
       <c r="N28" s="51"/>
-      <c r="O28" s="101" t="s">
+      <c r="O28" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="P28" s="102"/>
-      <c r="Q28" s="102"/>
-      <c r="R28" s="102"/>
-      <c r="S28" s="102"/>
-      <c r="T28" s="102"/>
-      <c r="U28" s="102"/>
-      <c r="V28" s="103"/>
+      <c r="P28" s="84"/>
+      <c r="Q28" s="84"/>
+      <c r="R28" s="84"/>
+      <c r="S28" s="84"/>
+      <c r="T28" s="84"/>
+      <c r="U28" s="84"/>
+      <c r="V28" s="85"/>
       <c r="W28" s="2"/>
     </row>
     <row r="29" spans="2:23" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B29" s="104" t="s">
+      <c r="B29" s="86" t="s">
         <v>46</v>
       </c>
       <c r="C29" s="43"/>
-      <c r="D29" s="106" t="s">
+      <c r="D29" s="88" t="s">
         <v>22</v>
       </c>
       <c r="E29" s="37"/>
-      <c r="F29" s="107" t="s">
+      <c r="F29" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="G29" s="107"/>
-      <c r="H29" s="107" t="s">
+      <c r="G29" s="89"/>
+      <c r="H29" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="I29" s="107"/>
-      <c r="J29" s="107" t="s">
+      <c r="I29" s="89"/>
+      <c r="J29" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="K29" s="107"/>
-      <c r="L29" s="107" t="s">
+      <c r="K29" s="89"/>
+      <c r="L29" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="M29" s="107"/>
+      <c r="M29" s="89"/>
       <c r="N29" s="52"/>
-      <c r="O29" s="107" t="s">
+      <c r="O29" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="P29" s="107"/>
-      <c r="Q29" s="107" t="s">
+      <c r="P29" s="89"/>
+      <c r="Q29" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="R29" s="107"/>
-      <c r="S29" s="107" t="s">
+      <c r="R29" s="89"/>
+      <c r="S29" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="T29" s="107"/>
-      <c r="U29" s="107" t="s">
+      <c r="T29" s="89"/>
+      <c r="U29" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="V29" s="107"/>
+      <c r="V29" s="89"/>
       <c r="W29" s="2"/>
     </row>
     <row r="30" spans="2:23" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B30" s="105"/>
+      <c r="B30" s="87"/>
       <c r="C30" s="43"/>
-      <c r="D30" s="106"/>
+      <c r="D30" s="88"/>
       <c r="E30" s="37"/>
       <c r="F30" s="26" t="s">
         <v>32</v>
@@ -4107,28 +4107,28 @@
       <c r="C2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="87" t="s">
+      <c r="D2" s="101" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
-      <c r="N2" s="87"/>
-      <c r="O2" s="87"/>
-      <c r="P2" s="87"/>
-      <c r="Q2" s="87"/>
-      <c r="R2" s="87"/>
-      <c r="S2" s="87"/>
-      <c r="T2" s="87"/>
-      <c r="U2" s="87"/>
-      <c r="V2" s="87"/>
-      <c r="W2" s="87"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="101"/>
+      <c r="O2" s="101"/>
+      <c r="P2" s="101"/>
+      <c r="Q2" s="101"/>
+      <c r="R2" s="101"/>
+      <c r="S2" s="101"/>
+      <c r="T2" s="101"/>
+      <c r="U2" s="101"/>
+      <c r="V2" s="101"/>
+      <c r="W2" s="101"/>
       <c r="X2" s="12"/>
       <c r="Y2" s="13">
         <v>45891</v>
@@ -4143,26 +4143,26 @@
       <c r="C3" s="14">
         <v>21000000</v>
       </c>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="87"/>
-      <c r="Q3" s="87"/>
-      <c r="R3" s="87"/>
-      <c r="S3" s="87"/>
-      <c r="T3" s="87"/>
-      <c r="U3" s="87"/>
-      <c r="V3" s="87"/>
-      <c r="W3" s="87"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
+      <c r="N3" s="101"/>
+      <c r="O3" s="101"/>
+      <c r="P3" s="101"/>
+      <c r="Q3" s="101"/>
+      <c r="R3" s="101"/>
+      <c r="S3" s="101"/>
+      <c r="T3" s="101"/>
+      <c r="U3" s="101"/>
+      <c r="V3" s="101"/>
+      <c r="W3" s="101"/>
       <c r="X3" s="12"/>
       <c r="Y3" s="15" t="s">
         <v>25</v>
@@ -4176,26 +4176,26 @@
       <c r="C4" s="11">
         <v>10</v>
       </c>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
-      <c r="N4" s="87"/>
-      <c r="O4" s="87"/>
-      <c r="P4" s="87"/>
-      <c r="Q4" s="87"/>
-      <c r="R4" s="87"/>
-      <c r="S4" s="87"/>
-      <c r="T4" s="87"/>
-      <c r="U4" s="87"/>
-      <c r="V4" s="87"/>
-      <c r="W4" s="87"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
+      <c r="N4" s="101"/>
+      <c r="O4" s="101"/>
+      <c r="P4" s="101"/>
+      <c r="Q4" s="101"/>
+      <c r="R4" s="101"/>
+      <c r="S4" s="101"/>
+      <c r="T4" s="101"/>
+      <c r="U4" s="101"/>
+      <c r="V4" s="101"/>
+      <c r="W4" s="101"/>
       <c r="X4" s="12"/>
       <c r="Y4" s="15"/>
     </row>
@@ -4232,29 +4232,29 @@
         <f>$C$4*C8</f>
         <v>1000000</v>
       </c>
-      <c r="D6" s="86" t="str">
+      <c r="D6" s="102" t="str">
         <f>"2025 - 2035 : "&amp;$C7*100&amp;"% " &amp; B7</f>
         <v>2025 - 2035 : 25% BTC 10Y CAGR</v>
       </c>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="86"/>
-      <c r="N6" s="86"/>
-      <c r="O6" s="86"/>
-      <c r="P6" s="86"/>
-      <c r="Q6" s="86"/>
-      <c r="R6" s="86"/>
-      <c r="S6" s="86"/>
-      <c r="T6" s="86"/>
-      <c r="U6" s="86"/>
-      <c r="V6" s="86"/>
-      <c r="W6" s="86"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102"/>
+      <c r="N6" s="102"/>
+      <c r="O6" s="102"/>
+      <c r="P6" s="102"/>
+      <c r="Q6" s="102"/>
+      <c r="R6" s="102"/>
+      <c r="S6" s="102"/>
+      <c r="T6" s="102"/>
+      <c r="U6" s="102"/>
+      <c r="V6" s="102"/>
+      <c r="W6" s="102"/>
       <c r="X6" s="2"/>
       <c r="Y6" s="23"/>
     </row>
@@ -4267,46 +4267,46 @@
       <c r="C7" s="16">
         <v>0.25</v>
       </c>
-      <c r="D7" s="83" t="s">
+      <c r="D7" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83" t="s">
+      <c r="E7" s="103"/>
+      <c r="F7" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83" t="s">
+      <c r="G7" s="103"/>
+      <c r="H7" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="83"/>
-      <c r="J7" s="83" t="s">
+      <c r="I7" s="103"/>
+      <c r="J7" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="83"/>
-      <c r="L7" s="83" t="s">
+      <c r="K7" s="103"/>
+      <c r="L7" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="83"/>
-      <c r="N7" s="83" t="s">
+      <c r="M7" s="103"/>
+      <c r="N7" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="O7" s="83"/>
-      <c r="P7" s="83" t="s">
+      <c r="O7" s="103"/>
+      <c r="P7" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="Q7" s="83"/>
-      <c r="R7" s="83" t="s">
+      <c r="Q7" s="103"/>
+      <c r="R7" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="S7" s="83"/>
-      <c r="T7" s="83" t="s">
+      <c r="S7" s="103"/>
+      <c r="T7" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="U7" s="83"/>
-      <c r="V7" s="83" t="s">
+      <c r="U7" s="103"/>
+      <c r="V7" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="W7" s="83"/>
+      <c r="W7" s="103"/>
       <c r="X7" s="2"/>
       <c r="Y7" s="17"/>
     </row>
@@ -4319,56 +4319,56 @@
       <c r="C8" s="7">
         <v>100000</v>
       </c>
-      <c r="D8" s="93">
+      <c r="D8" s="104">
         <f>C8*C7+C8</f>
         <v>125000</v>
       </c>
-      <c r="E8" s="93"/>
-      <c r="F8" s="93">
+      <c r="E8" s="104"/>
+      <c r="F8" s="104">
         <f>D8*C7+D8</f>
         <v>156250</v>
       </c>
-      <c r="G8" s="93"/>
-      <c r="H8" s="93">
+      <c r="G8" s="104"/>
+      <c r="H8" s="104">
         <f>F8*C7+F8</f>
         <v>195312.5</v>
       </c>
-      <c r="I8" s="93"/>
-      <c r="J8" s="93">
+      <c r="I8" s="104"/>
+      <c r="J8" s="104">
         <f>H8*C7+H8</f>
         <v>244140.625</v>
       </c>
-      <c r="K8" s="93"/>
-      <c r="L8" s="93">
+      <c r="K8" s="104"/>
+      <c r="L8" s="104">
         <f>J8*C7+J8</f>
         <v>305175.78125</v>
       </c>
-      <c r="M8" s="93"/>
-      <c r="N8" s="93">
+      <c r="M8" s="104"/>
+      <c r="N8" s="104">
         <f>L8*C7+L8</f>
         <v>381469.7265625</v>
       </c>
-      <c r="O8" s="93"/>
-      <c r="P8" s="93">
+      <c r="O8" s="104"/>
+      <c r="P8" s="104">
         <f>N8*C7+N8</f>
         <v>476837.158203125</v>
       </c>
-      <c r="Q8" s="93"/>
-      <c r="R8" s="93">
+      <c r="Q8" s="104"/>
+      <c r="R8" s="104">
         <f>P8*C7+P8</f>
         <v>596046.44775390625</v>
       </c>
-      <c r="S8" s="93"/>
-      <c r="T8" s="93">
+      <c r="S8" s="104"/>
+      <c r="T8" s="104">
         <f>R8*C7+R8</f>
         <v>745058.05969238281</v>
       </c>
-      <c r="U8" s="93"/>
-      <c r="V8" s="93">
+      <c r="U8" s="104"/>
+      <c r="V8" s="104">
         <f>T8*C7+T8</f>
         <v>931322.57461547852</v>
       </c>
-      <c r="W8" s="93"/>
+      <c r="W8" s="104"/>
       <c r="X8" s="2"/>
     </row>
     <row r="9" spans="1:25" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -4381,152 +4381,152 @@
         <f>C8*$C$3</f>
         <v>2100000000000</v>
       </c>
-      <c r="D9" s="94">
+      <c r="D9" s="105">
         <f>D8*$C$3</f>
         <v>2625000000000</v>
       </c>
-      <c r="E9" s="94"/>
-      <c r="F9" s="94">
+      <c r="E9" s="105"/>
+      <c r="F9" s="105">
         <f>F8*$C$3</f>
         <v>3281250000000</v>
       </c>
-      <c r="G9" s="94"/>
-      <c r="H9" s="94">
+      <c r="G9" s="105"/>
+      <c r="H9" s="105">
         <f>H8*$C$3</f>
         <v>4101562500000</v>
       </c>
-      <c r="I9" s="94"/>
-      <c r="J9" s="94">
+      <c r="I9" s="105"/>
+      <c r="J9" s="105">
         <f>J8*$C$3</f>
         <v>5126953125000</v>
       </c>
-      <c r="K9" s="94"/>
-      <c r="L9" s="94">
+      <c r="K9" s="105"/>
+      <c r="L9" s="105">
         <f>L8*$C$3</f>
         <v>6408691406250</v>
       </c>
-      <c r="M9" s="94"/>
-      <c r="N9" s="94">
+      <c r="M9" s="105"/>
+      <c r="N9" s="105">
         <f>N8*$C$3</f>
         <v>8010864257812.5</v>
       </c>
-      <c r="O9" s="94"/>
-      <c r="P9" s="94">
+      <c r="O9" s="105"/>
+      <c r="P9" s="105">
         <f>P8*$C$3</f>
         <v>10013580322265.625</v>
       </c>
-      <c r="Q9" s="94"/>
-      <c r="R9" s="94">
+      <c r="Q9" s="105"/>
+      <c r="R9" s="105">
         <f>R8*$C$3</f>
         <v>12516975402832.031</v>
       </c>
-      <c r="S9" s="94"/>
-      <c r="T9" s="94">
+      <c r="S9" s="105"/>
+      <c r="T9" s="105">
         <f>T8*$C$3</f>
         <v>15646219253540.039</v>
       </c>
-      <c r="U9" s="94"/>
-      <c r="V9" s="94">
+      <c r="U9" s="105"/>
+      <c r="V9" s="105">
         <f>V8*$C$3</f>
         <v>19557774066925.047</v>
       </c>
-      <c r="W9" s="94"/>
+      <c r="W9" s="105"/>
       <c r="X9" s="2"/>
     </row>
     <row r="10" spans="1:25" ht="15.85" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A10" s="4"/>
-      <c r="B10" s="97" t="s">
+      <c r="B10" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="99" t="s">
+      <c r="C10" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="95" t="s">
+      <c r="D10" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="95" t="s">
+      <c r="E10" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="95" t="s">
+      <c r="F10" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="95" t="s">
+      <c r="G10" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="95" t="s">
+      <c r="H10" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="95" t="s">
+      <c r="I10" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="95" t="s">
+      <c r="J10" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="95" t="s">
+      <c r="K10" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="L10" s="95" t="s">
+      <c r="L10" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="M10" s="95" t="s">
+      <c r="M10" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="N10" s="95" t="s">
+      <c r="N10" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="O10" s="95" t="s">
+      <c r="O10" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="P10" s="95" t="s">
+      <c r="P10" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="Q10" s="95" t="s">
+      <c r="Q10" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="R10" s="95" t="s">
+      <c r="R10" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="S10" s="95" t="s">
+      <c r="S10" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="T10" s="95" t="s">
+      <c r="T10" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="U10" s="95" t="s">
+      <c r="U10" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="V10" s="95" t="s">
+      <c r="V10" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="W10" s="95" t="s">
+      <c r="W10" s="106" t="s">
         <v>15</v>
       </c>
       <c r="X10" s="2"/>
     </row>
     <row r="11" spans="1:25" ht="15.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="4"/>
-      <c r="B11" s="98"/>
-      <c r="C11" s="100"/>
-      <c r="D11" s="96"/>
-      <c r="E11" s="96"/>
-      <c r="F11" s="96"/>
-      <c r="G11" s="96"/>
-      <c r="H11" s="96"/>
-      <c r="I11" s="96"/>
-      <c r="J11" s="96"/>
-      <c r="K11" s="96"/>
-      <c r="L11" s="96"/>
-      <c r="M11" s="96"/>
-      <c r="N11" s="96"/>
-      <c r="O11" s="96"/>
-      <c r="P11" s="96"/>
-      <c r="Q11" s="96"/>
-      <c r="R11" s="96"/>
-      <c r="S11" s="96"/>
-      <c r="T11" s="96"/>
-      <c r="U11" s="96"/>
-      <c r="V11" s="96"/>
-      <c r="W11" s="96"/>
+      <c r="B11" s="109"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="107"/>
+      <c r="F11" s="107"/>
+      <c r="G11" s="107"/>
+      <c r="H11" s="107"/>
+      <c r="I11" s="107"/>
+      <c r="J11" s="107"/>
+      <c r="K11" s="107"/>
+      <c r="L11" s="107"/>
+      <c r="M11" s="107"/>
+      <c r="N11" s="107"/>
+      <c r="O11" s="107"/>
+      <c r="P11" s="107"/>
+      <c r="Q11" s="107"/>
+      <c r="R11" s="107"/>
+      <c r="S11" s="107"/>
+      <c r="T11" s="107"/>
+      <c r="U11" s="107"/>
+      <c r="V11" s="107"/>
+      <c r="W11" s="107"/>
       <c r="X11" s="2"/>
     </row>
     <row r="12" spans="1:25" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -4893,34 +4893,34 @@
     </row>
     <row r="16" spans="1:25" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="4"/>
-      <c r="B16" s="84" t="s">
+      <c r="B16" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="84"/>
-      <c r="D16" s="89" t="s">
+      <c r="C16" s="113"/>
+      <c r="D16" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="89"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="89"/>
-      <c r="I16" s="89"/>
-      <c r="J16" s="89"/>
-      <c r="K16" s="89"/>
-      <c r="L16" s="89"/>
-      <c r="M16" s="89"/>
-      <c r="N16" s="89" t="s">
+      <c r="E16" s="114"/>
+      <c r="F16" s="114"/>
+      <c r="G16" s="114"/>
+      <c r="H16" s="114"/>
+      <c r="I16" s="114"/>
+      <c r="J16" s="114"/>
+      <c r="K16" s="114"/>
+      <c r="L16" s="114"/>
+      <c r="M16" s="114"/>
+      <c r="N16" s="114" t="s">
         <v>42</v>
       </c>
-      <c r="O16" s="89"/>
-      <c r="P16" s="89"/>
-      <c r="Q16" s="89"/>
-      <c r="R16" s="89"/>
-      <c r="S16" s="89"/>
-      <c r="T16" s="89"/>
-      <c r="U16" s="89"/>
-      <c r="V16" s="89"/>
-      <c r="W16" s="89"/>
+      <c r="O16" s="114"/>
+      <c r="P16" s="114"/>
+      <c r="Q16" s="114"/>
+      <c r="R16" s="114"/>
+      <c r="S16" s="114"/>
+      <c r="T16" s="114"/>
+      <c r="U16" s="114"/>
+      <c r="V16" s="114"/>
+      <c r="W16" s="114"/>
       <c r="X16" s="12"/>
       <c r="Y16" s="8" t="s">
         <v>27</v>
@@ -4928,57 +4928,57 @@
     </row>
     <row r="17" spans="1:25" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="4"/>
-      <c r="B17" s="84"/>
-      <c r="C17" s="84"/>
-      <c r="D17" s="83" t="s">
+      <c r="B17" s="113"/>
+      <c r="C17" s="113"/>
+      <c r="D17" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="83"/>
-      <c r="F17" s="83" t="s">
+      <c r="E17" s="103"/>
+      <c r="F17" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="83"/>
-      <c r="H17" s="83" t="s">
+      <c r="G17" s="103"/>
+      <c r="H17" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="I17" s="83"/>
-      <c r="J17" s="83" t="s">
+      <c r="I17" s="103"/>
+      <c r="J17" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="K17" s="83"/>
-      <c r="L17" s="83" t="s">
+      <c r="K17" s="103"/>
+      <c r="L17" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="M17" s="83"/>
-      <c r="N17" s="83" t="s">
+      <c r="M17" s="103"/>
+      <c r="N17" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="O17" s="83"/>
-      <c r="P17" s="83" t="s">
+      <c r="O17" s="103"/>
+      <c r="P17" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="Q17" s="83"/>
-      <c r="R17" s="83" t="s">
+      <c r="Q17" s="103"/>
+      <c r="R17" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="S17" s="83"/>
-      <c r="T17" s="83" t="s">
+      <c r="S17" s="103"/>
+      <c r="T17" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="U17" s="83"/>
-      <c r="V17" s="83" t="s">
+      <c r="U17" s="103"/>
+      <c r="V17" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="W17" s="83"/>
+      <c r="W17" s="103"/>
       <c r="X17" s="12"/>
-      <c r="Y17" s="85" t="s">
+      <c r="Y17" s="112" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="4"/>
-      <c r="B18" s="84"/>
-      <c r="C18" s="84"/>
+      <c r="B18" s="113"/>
+      <c r="C18" s="113"/>
       <c r="D18" s="5" t="s">
         <v>14</v>
       </c>
@@ -5040,14 +5040,14 @@
         <v>15</v>
       </c>
       <c r="X18" s="12"/>
-      <c r="Y18" s="85"/>
+      <c r="Y18" s="112"/>
     </row>
     <row r="19" spans="1:25" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="4"/>
-      <c r="B19" s="88" t="s">
+      <c r="B19" s="115" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="88"/>
+      <c r="C19" s="115"/>
       <c r="D19" s="69" t="str">
         <f>TEXT(ROUND(L12/$C$4/5*100, 2), "0.00") &amp; "%"</f>
         <v>2.68%</v>
@@ -5136,10 +5136,10 @@
     </row>
     <row r="20" spans="1:25" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" s="4"/>
-      <c r="B20" s="88" t="s">
+      <c r="B20" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="88"/>
+      <c r="C20" s="115"/>
       <c r="D20" s="69" t="str">
         <f>TEXT(ROUND(L13/$C$4/5*100, 2), "0.00") &amp; "%"</f>
         <v>4.04%</v>
@@ -5228,10 +5228,10 @@
     </row>
     <row r="21" spans="1:25" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="4"/>
-      <c r="B21" s="88" t="s">
+      <c r="B21" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="88"/>
+      <c r="C21" s="115"/>
       <c r="D21" s="69" t="str">
         <f>TEXT(ROUND(L14/$C$4/5*100, 2), "0.00") &amp; "%"</f>
         <v>6.72%</v>
@@ -5320,10 +5320,10 @@
     </row>
     <row r="22" spans="1:25" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="4"/>
-      <c r="B22" s="88" t="s">
+      <c r="B22" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="88"/>
+      <c r="C22" s="115"/>
       <c r="D22" s="69" t="str">
         <f>TEXT(ROUND(L15/$C$4/5*100, 2), "0.00") &amp; "%"</f>
         <v>13.44%</v>
@@ -5438,29 +5438,29 @@
         <f>$C$4*C26</f>
         <v>9313225.7461547852</v>
       </c>
-      <c r="D24" s="86" t="str">
+      <c r="D24" s="102" t="str">
         <f>"2035 - 2045 : "&amp;$C25*100&amp;"% " &amp; B25</f>
         <v>2035 - 2045 : 15% BTC 10Y CAGR</v>
       </c>
-      <c r="E24" s="86"/>
-      <c r="F24" s="86"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="86"/>
-      <c r="I24" s="86"/>
-      <c r="J24" s="86"/>
-      <c r="K24" s="86"/>
-      <c r="L24" s="86"/>
-      <c r="M24" s="86"/>
-      <c r="N24" s="86"/>
-      <c r="O24" s="86"/>
-      <c r="P24" s="86"/>
-      <c r="Q24" s="86"/>
-      <c r="R24" s="86"/>
-      <c r="S24" s="86"/>
-      <c r="T24" s="86"/>
-      <c r="U24" s="86"/>
-      <c r="V24" s="86"/>
-      <c r="W24" s="86"/>
+      <c r="E24" s="102"/>
+      <c r="F24" s="102"/>
+      <c r="G24" s="102"/>
+      <c r="H24" s="102"/>
+      <c r="I24" s="102"/>
+      <c r="J24" s="102"/>
+      <c r="K24" s="102"/>
+      <c r="L24" s="102"/>
+      <c r="M24" s="102"/>
+      <c r="N24" s="102"/>
+      <c r="O24" s="102"/>
+      <c r="P24" s="102"/>
+      <c r="Q24" s="102"/>
+      <c r="R24" s="102"/>
+      <c r="S24" s="102"/>
+      <c r="T24" s="102"/>
+      <c r="U24" s="102"/>
+      <c r="V24" s="102"/>
+      <c r="W24" s="102"/>
       <c r="X24" s="2"/>
     </row>
     <row r="25" spans="1:25" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -5472,46 +5472,46 @@
       <c r="C25" s="16">
         <v>0.15</v>
       </c>
-      <c r="D25" s="83" t="s">
+      <c r="D25" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="83"/>
-      <c r="F25" s="83" t="s">
+      <c r="E25" s="103"/>
+      <c r="F25" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="G25" s="83"/>
-      <c r="H25" s="83" t="s">
+      <c r="G25" s="103"/>
+      <c r="H25" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="I25" s="83"/>
-      <c r="J25" s="83" t="s">
+      <c r="I25" s="103"/>
+      <c r="J25" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="K25" s="83"/>
-      <c r="L25" s="83" t="s">
+      <c r="K25" s="103"/>
+      <c r="L25" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="M25" s="83"/>
-      <c r="N25" s="83" t="s">
+      <c r="M25" s="103"/>
+      <c r="N25" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="O25" s="83"/>
-      <c r="P25" s="83" t="s">
+      <c r="O25" s="103"/>
+      <c r="P25" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="Q25" s="83"/>
-      <c r="R25" s="83" t="s">
+      <c r="Q25" s="103"/>
+      <c r="R25" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="S25" s="83"/>
-      <c r="T25" s="83" t="s">
+      <c r="S25" s="103"/>
+      <c r="T25" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="U25" s="83"/>
-      <c r="V25" s="83" t="s">
+      <c r="U25" s="103"/>
+      <c r="V25" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="W25" s="83"/>
+      <c r="W25" s="103"/>
       <c r="X25" s="2"/>
     </row>
     <row r="26" spans="1:25" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -5524,56 +5524,56 @@
         <f>V8</f>
         <v>931322.57461547852</v>
       </c>
-      <c r="D26" s="93">
+      <c r="D26" s="104">
         <f>C26*C25+C26</f>
         <v>1071020.9608078003</v>
       </c>
-      <c r="E26" s="93"/>
-      <c r="F26" s="93">
+      <c r="E26" s="104"/>
+      <c r="F26" s="104">
         <f>D26*C25+D26</f>
         <v>1231674.1049289703</v>
       </c>
-      <c r="G26" s="93"/>
-      <c r="H26" s="93">
+      <c r="G26" s="104"/>
+      <c r="H26" s="104">
         <f>F26*$C25+F26</f>
         <v>1416425.2206683159</v>
       </c>
-      <c r="I26" s="93"/>
-      <c r="J26" s="93">
+      <c r="I26" s="104"/>
+      <c r="J26" s="104">
         <f>H26*$C25+H26</f>
         <v>1628889.0037685633</v>
       </c>
-      <c r="K26" s="93"/>
-      <c r="L26" s="93">
+      <c r="K26" s="104"/>
+      <c r="L26" s="104">
         <f>J26*$C25+J26</f>
         <v>1873222.3543338478</v>
       </c>
-      <c r="M26" s="93"/>
-      <c r="N26" s="93">
+      <c r="M26" s="104"/>
+      <c r="N26" s="104">
         <f>L26*$C25+L26</f>
         <v>2154205.7074839249</v>
       </c>
-      <c r="O26" s="93"/>
-      <c r="P26" s="93">
+      <c r="O26" s="104"/>
+      <c r="P26" s="104">
         <f>N26*$C25+N26</f>
         <v>2477336.5636065137</v>
       </c>
-      <c r="Q26" s="93"/>
-      <c r="R26" s="93">
+      <c r="Q26" s="104"/>
+      <c r="R26" s="104">
         <f>P26*$C25+P26</f>
         <v>2848937.0481474907</v>
       </c>
-      <c r="S26" s="93"/>
-      <c r="T26" s="93">
+      <c r="S26" s="104"/>
+      <c r="T26" s="104">
         <f>R26*$C25+R26</f>
         <v>3276277.6053696144</v>
       </c>
-      <c r="U26" s="93"/>
-      <c r="V26" s="93">
+      <c r="U26" s="104"/>
+      <c r="V26" s="104">
         <f>T26*$C25+T26</f>
         <v>3767719.2461750563</v>
       </c>
-      <c r="W26" s="93"/>
+      <c r="W26" s="104"/>
       <c r="X26" s="2"/>
     </row>
     <row r="27" spans="1:25" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -5586,152 +5586,152 @@
         <f>C26*21000000</f>
         <v>19557774066925.047</v>
       </c>
-      <c r="D27" s="94">
+      <c r="D27" s="105">
         <f>D26*21000000</f>
         <v>22491440176963.805</v>
       </c>
-      <c r="E27" s="94"/>
-      <c r="F27" s="94">
+      <c r="E27" s="105"/>
+      <c r="F27" s="105">
         <f>F26*21000000</f>
         <v>25865156203508.379</v>
       </c>
-      <c r="G27" s="94"/>
-      <c r="H27" s="94">
+      <c r="G27" s="105"/>
+      <c r="H27" s="105">
         <f>H26*21000000</f>
         <v>29744929634034.633</v>
       </c>
-      <c r="I27" s="94"/>
-      <c r="J27" s="94">
+      <c r="I27" s="105"/>
+      <c r="J27" s="105">
         <f>J26*21000000</f>
         <v>34206669079139.828</v>
       </c>
-      <c r="K27" s="94"/>
-      <c r="L27" s="94">
+      <c r="K27" s="105"/>
+      <c r="L27" s="105">
         <f>L26*21000000</f>
         <v>39337669441010.805</v>
       </c>
-      <c r="M27" s="94"/>
-      <c r="N27" s="94">
+      <c r="M27" s="105"/>
+      <c r="N27" s="105">
         <f>N26*21000000</f>
         <v>45238319857162.422</v>
       </c>
-      <c r="O27" s="94"/>
-      <c r="P27" s="94">
+      <c r="O27" s="105"/>
+      <c r="P27" s="105">
         <f>P26*21000000</f>
         <v>52024067835736.789</v>
       </c>
-      <c r="Q27" s="94"/>
-      <c r="R27" s="94">
+      <c r="Q27" s="105"/>
+      <c r="R27" s="105">
         <f>R26*21000000</f>
         <v>59827678011097.305</v>
       </c>
-      <c r="S27" s="94"/>
-      <c r="T27" s="94">
+      <c r="S27" s="105"/>
+      <c r="T27" s="105">
         <f>T26*21000000</f>
         <v>68801829712761.906</v>
       </c>
-      <c r="U27" s="94"/>
-      <c r="V27" s="94">
+      <c r="U27" s="105"/>
+      <c r="V27" s="105">
         <f>V26*21000000</f>
         <v>79122104169676.188</v>
       </c>
-      <c r="W27" s="94"/>
+      <c r="W27" s="105"/>
       <c r="X27" s="2"/>
     </row>
     <row r="28" spans="1:25" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A28" s="4"/>
-      <c r="B28" s="97" t="s">
+      <c r="B28" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="99" t="s">
+      <c r="C28" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="95" t="s">
+      <c r="D28" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="95" t="s">
+      <c r="E28" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="95" t="s">
+      <c r="F28" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="G28" s="95" t="s">
+      <c r="G28" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="H28" s="95" t="s">
+      <c r="H28" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="I28" s="95" t="s">
+      <c r="I28" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="J28" s="95" t="s">
+      <c r="J28" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="K28" s="95" t="s">
+      <c r="K28" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="L28" s="95" t="s">
+      <c r="L28" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="M28" s="95" t="s">
+      <c r="M28" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="N28" s="95" t="s">
+      <c r="N28" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="O28" s="95" t="s">
+      <c r="O28" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="P28" s="95" t="s">
+      <c r="P28" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="Q28" s="95" t="s">
+      <c r="Q28" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="R28" s="95" t="s">
+      <c r="R28" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="S28" s="95" t="s">
+      <c r="S28" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="T28" s="95" t="s">
+      <c r="T28" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="U28" s="95" t="s">
+      <c r="U28" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="V28" s="95" t="s">
+      <c r="V28" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="W28" s="95" t="s">
+      <c r="W28" s="106" t="s">
         <v>15</v>
       </c>
       <c r="X28" s="2"/>
     </row>
     <row r="29" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="4"/>
-      <c r="B29" s="98"/>
-      <c r="C29" s="100"/>
-      <c r="D29" s="96"/>
-      <c r="E29" s="96"/>
-      <c r="F29" s="96"/>
-      <c r="G29" s="96"/>
-      <c r="H29" s="96"/>
-      <c r="I29" s="96"/>
-      <c r="J29" s="96"/>
-      <c r="K29" s="96"/>
-      <c r="L29" s="96"/>
-      <c r="M29" s="96"/>
-      <c r="N29" s="96"/>
-      <c r="O29" s="96"/>
-      <c r="P29" s="96"/>
-      <c r="Q29" s="96"/>
-      <c r="R29" s="96"/>
-      <c r="S29" s="96"/>
-      <c r="T29" s="96"/>
-      <c r="U29" s="96"/>
-      <c r="V29" s="96"/>
-      <c r="W29" s="96"/>
+      <c r="B29" s="109"/>
+      <c r="C29" s="111"/>
+      <c r="D29" s="107"/>
+      <c r="E29" s="107"/>
+      <c r="F29" s="107"/>
+      <c r="G29" s="107"/>
+      <c r="H29" s="107"/>
+      <c r="I29" s="107"/>
+      <c r="J29" s="107"/>
+      <c r="K29" s="107"/>
+      <c r="L29" s="107"/>
+      <c r="M29" s="107"/>
+      <c r="N29" s="107"/>
+      <c r="O29" s="107"/>
+      <c r="P29" s="107"/>
+      <c r="Q29" s="107"/>
+      <c r="R29" s="107"/>
+      <c r="S29" s="107"/>
+      <c r="T29" s="107"/>
+      <c r="U29" s="107"/>
+      <c r="V29" s="107"/>
+      <c r="W29" s="107"/>
       <c r="X29" s="2"/>
     </row>
     <row r="30" spans="1:25" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -6097,34 +6097,34 @@
     </row>
     <row r="34" spans="1:25" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="4"/>
-      <c r="B34" s="84" t="s">
+      <c r="B34" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="84"/>
-      <c r="D34" s="89" t="s">
+      <c r="C34" s="113"/>
+      <c r="D34" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="E34" s="89"/>
-      <c r="F34" s="89"/>
-      <c r="G34" s="89"/>
-      <c r="H34" s="89"/>
-      <c r="I34" s="89"/>
-      <c r="J34" s="89"/>
-      <c r="K34" s="89"/>
-      <c r="L34" s="89"/>
-      <c r="M34" s="89"/>
-      <c r="N34" s="89" t="s">
+      <c r="E34" s="114"/>
+      <c r="F34" s="114"/>
+      <c r="G34" s="114"/>
+      <c r="H34" s="114"/>
+      <c r="I34" s="114"/>
+      <c r="J34" s="114"/>
+      <c r="K34" s="114"/>
+      <c r="L34" s="114"/>
+      <c r="M34" s="114"/>
+      <c r="N34" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="O34" s="89"/>
-      <c r="P34" s="89"/>
-      <c r="Q34" s="89"/>
-      <c r="R34" s="89"/>
-      <c r="S34" s="89"/>
-      <c r="T34" s="89"/>
-      <c r="U34" s="89"/>
-      <c r="V34" s="89"/>
-      <c r="W34" s="89"/>
+      <c r="O34" s="114"/>
+      <c r="P34" s="114"/>
+      <c r="Q34" s="114"/>
+      <c r="R34" s="114"/>
+      <c r="S34" s="114"/>
+      <c r="T34" s="114"/>
+      <c r="U34" s="114"/>
+      <c r="V34" s="114"/>
+      <c r="W34" s="114"/>
       <c r="X34" s="2"/>
       <c r="Y34" s="8" t="s">
         <v>28</v>
@@ -6132,57 +6132,57 @@
     </row>
     <row r="35" spans="1:25" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A35" s="4"/>
-      <c r="B35" s="84"/>
-      <c r="C35" s="84"/>
-      <c r="D35" s="83" t="s">
+      <c r="B35" s="113"/>
+      <c r="C35" s="113"/>
+      <c r="D35" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="E35" s="83"/>
-      <c r="F35" s="83" t="s">
+      <c r="E35" s="103"/>
+      <c r="F35" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="G35" s="83"/>
-      <c r="H35" s="83" t="s">
+      <c r="G35" s="103"/>
+      <c r="H35" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="I35" s="83"/>
-      <c r="J35" s="83" t="s">
+      <c r="I35" s="103"/>
+      <c r="J35" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="K35" s="83"/>
-      <c r="L35" s="83" t="s">
+      <c r="K35" s="103"/>
+      <c r="L35" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="M35" s="83"/>
-      <c r="N35" s="83" t="s">
+      <c r="M35" s="103"/>
+      <c r="N35" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="O35" s="83"/>
-      <c r="P35" s="83" t="s">
+      <c r="O35" s="103"/>
+      <c r="P35" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="Q35" s="83"/>
-      <c r="R35" s="83" t="s">
+      <c r="Q35" s="103"/>
+      <c r="R35" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="S35" s="83"/>
-      <c r="T35" s="83" t="s">
+      <c r="S35" s="103"/>
+      <c r="T35" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="U35" s="83"/>
-      <c r="V35" s="83" t="s">
+      <c r="U35" s="103"/>
+      <c r="V35" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="W35" s="83"/>
+      <c r="W35" s="103"/>
       <c r="X35" s="2"/>
-      <c r="Y35" s="85" t="s">
+      <c r="Y35" s="112" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:25" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A36" s="4"/>
-      <c r="B36" s="84"/>
-      <c r="C36" s="84"/>
+      <c r="B36" s="113"/>
+      <c r="C36" s="113"/>
       <c r="D36" s="5" t="s">
         <v>14</v>
       </c>
@@ -6244,14 +6244,14 @@
         <v>15</v>
       </c>
       <c r="X36" s="2"/>
-      <c r="Y36" s="85"/>
+      <c r="Y36" s="112"/>
     </row>
     <row r="37" spans="1:25" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A37" s="4"/>
-      <c r="B37" s="88" t="s">
+      <c r="B37" s="115" t="s">
         <v>56</v>
       </c>
-      <c r="C37" s="88"/>
+      <c r="C37" s="115"/>
       <c r="D37" s="69" t="str">
         <f>TEXT(ROUND(L30/$C$4/5*100, 2), "0.00") &amp; "%"</f>
         <v>2.02%</v>
@@ -6340,10 +6340,10 @@
     </row>
     <row r="38" spans="1:25" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A38" s="4"/>
-      <c r="B38" s="88" t="s">
+      <c r="B38" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="88"/>
+      <c r="C38" s="115"/>
       <c r="D38" s="69" t="str">
         <f>TEXT(ROUND(L31/$C$4/5*100, 2), "0.00") &amp; "%"</f>
         <v>3.02%</v>
@@ -6431,10 +6431,10 @@
       </c>
     </row>
     <row r="39" spans="1:25" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B39" s="88" t="s">
+      <c r="B39" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="88"/>
+      <c r="C39" s="115"/>
       <c r="D39" s="69" t="str">
         <f>TEXT(ROUND(L32/$C$4/5*100, 2), "0.00") &amp; "%"</f>
         <v>5.02%</v>
@@ -6522,10 +6522,10 @@
     </row>
     <row r="40" spans="1:25" s="3" customFormat="1" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A40" s="1"/>
-      <c r="B40" s="88" t="s">
+      <c r="B40" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="C40" s="88"/>
+      <c r="C40" s="115"/>
       <c r="D40" s="69" t="str">
         <f>TEXT(ROUND(L33/$C$4/5*100, 2), "0.00") &amp; "%"</f>
         <v>10.06%</v>
@@ -6764,7 +6764,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E148D9CB-7303-482B-97C9-03378B75117D}">
   <dimension ref="A1:Y41"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:W4"/>
     </sheetView>
   </sheetViews>
@@ -6812,28 +6812,28 @@
       <c r="C2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="87" t="s">
+      <c r="D2" s="101" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
-      <c r="N2" s="87"/>
-      <c r="O2" s="87"/>
-      <c r="P2" s="87"/>
-      <c r="Q2" s="87"/>
-      <c r="R2" s="87"/>
-      <c r="S2" s="87"/>
-      <c r="T2" s="87"/>
-      <c r="U2" s="87"/>
-      <c r="V2" s="87"/>
-      <c r="W2" s="87"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="101"/>
+      <c r="O2" s="101"/>
+      <c r="P2" s="101"/>
+      <c r="Q2" s="101"/>
+      <c r="R2" s="101"/>
+      <c r="S2" s="101"/>
+      <c r="T2" s="101"/>
+      <c r="U2" s="101"/>
+      <c r="V2" s="101"/>
+      <c r="W2" s="101"/>
       <c r="X2" s="12"/>
       <c r="Y2" s="13">
         <v>45891</v>
@@ -6848,26 +6848,26 @@
       <c r="C3" s="14">
         <v>21000000</v>
       </c>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="87"/>
-      <c r="Q3" s="87"/>
-      <c r="R3" s="87"/>
-      <c r="S3" s="87"/>
-      <c r="T3" s="87"/>
-      <c r="U3" s="87"/>
-      <c r="V3" s="87"/>
-      <c r="W3" s="87"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
+      <c r="N3" s="101"/>
+      <c r="O3" s="101"/>
+      <c r="P3" s="101"/>
+      <c r="Q3" s="101"/>
+      <c r="R3" s="101"/>
+      <c r="S3" s="101"/>
+      <c r="T3" s="101"/>
+      <c r="U3" s="101"/>
+      <c r="V3" s="101"/>
+      <c r="W3" s="101"/>
       <c r="X3" s="12"/>
       <c r="Y3" s="15" t="s">
         <v>25</v>
@@ -6881,26 +6881,26 @@
       <c r="C4" s="11">
         <v>10</v>
       </c>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
-      <c r="N4" s="87"/>
-      <c r="O4" s="87"/>
-      <c r="P4" s="87"/>
-      <c r="Q4" s="87"/>
-      <c r="R4" s="87"/>
-      <c r="S4" s="87"/>
-      <c r="T4" s="87"/>
-      <c r="U4" s="87"/>
-      <c r="V4" s="87"/>
-      <c r="W4" s="87"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
+      <c r="N4" s="101"/>
+      <c r="O4" s="101"/>
+      <c r="P4" s="101"/>
+      <c r="Q4" s="101"/>
+      <c r="R4" s="101"/>
+      <c r="S4" s="101"/>
+      <c r="T4" s="101"/>
+      <c r="U4" s="101"/>
+      <c r="V4" s="101"/>
+      <c r="W4" s="101"/>
       <c r="X4" s="12"/>
       <c r="Y4" s="15"/>
     </row>
@@ -6937,29 +6937,29 @@
         <f>$C$4*C8</f>
         <v>1000000</v>
       </c>
-      <c r="D6" s="86" t="str">
+      <c r="D6" s="102" t="str">
         <f>"2025 - 2035 : "&amp;$C7*100&amp;"% " &amp; B7</f>
         <v>2025 - 2035 : 30% BTC 10Y CAGR</v>
       </c>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="86"/>
-      <c r="N6" s="86"/>
-      <c r="O6" s="86"/>
-      <c r="P6" s="86"/>
-      <c r="Q6" s="86"/>
-      <c r="R6" s="86"/>
-      <c r="S6" s="86"/>
-      <c r="T6" s="86"/>
-      <c r="U6" s="86"/>
-      <c r="V6" s="86"/>
-      <c r="W6" s="86"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102"/>
+      <c r="N6" s="102"/>
+      <c r="O6" s="102"/>
+      <c r="P6" s="102"/>
+      <c r="Q6" s="102"/>
+      <c r="R6" s="102"/>
+      <c r="S6" s="102"/>
+      <c r="T6" s="102"/>
+      <c r="U6" s="102"/>
+      <c r="V6" s="102"/>
+      <c r="W6" s="102"/>
       <c r="X6" s="2"/>
       <c r="Y6" s="23"/>
     </row>
@@ -6972,46 +6972,46 @@
       <c r="C7" s="16">
         <v>0.3</v>
       </c>
-      <c r="D7" s="83" t="s">
+      <c r="D7" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83" t="s">
+      <c r="E7" s="103"/>
+      <c r="F7" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83" t="s">
+      <c r="G7" s="103"/>
+      <c r="H7" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="83"/>
-      <c r="J7" s="83" t="s">
+      <c r="I7" s="103"/>
+      <c r="J7" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="83"/>
-      <c r="L7" s="83" t="s">
+      <c r="K7" s="103"/>
+      <c r="L7" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="83"/>
-      <c r="N7" s="83" t="s">
+      <c r="M7" s="103"/>
+      <c r="N7" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="O7" s="83"/>
-      <c r="P7" s="83" t="s">
+      <c r="O7" s="103"/>
+      <c r="P7" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="Q7" s="83"/>
-      <c r="R7" s="83" t="s">
+      <c r="Q7" s="103"/>
+      <c r="R7" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="S7" s="83"/>
-      <c r="T7" s="83" t="s">
+      <c r="S7" s="103"/>
+      <c r="T7" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="U7" s="83"/>
-      <c r="V7" s="83" t="s">
+      <c r="U7" s="103"/>
+      <c r="V7" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="W7" s="83"/>
+      <c r="W7" s="103"/>
       <c r="X7" s="2"/>
       <c r="Y7" s="17"/>
     </row>
@@ -7024,56 +7024,56 @@
       <c r="C8" s="7">
         <v>100000</v>
       </c>
-      <c r="D8" s="93">
+      <c r="D8" s="104">
         <f>C8*C7+C8</f>
         <v>130000</v>
       </c>
-      <c r="E8" s="93"/>
-      <c r="F8" s="93">
+      <c r="E8" s="104"/>
+      <c r="F8" s="104">
         <f>D8*C7+D8</f>
         <v>169000</v>
       </c>
-      <c r="G8" s="93"/>
-      <c r="H8" s="93">
+      <c r="G8" s="104"/>
+      <c r="H8" s="104">
         <f>F8*C7+F8</f>
         <v>219700</v>
       </c>
-      <c r="I8" s="93"/>
-      <c r="J8" s="93">
+      <c r="I8" s="104"/>
+      <c r="J8" s="104">
         <f>H8*C7+H8</f>
         <v>285610</v>
       </c>
-      <c r="K8" s="93"/>
-      <c r="L8" s="93">
+      <c r="K8" s="104"/>
+      <c r="L8" s="104">
         <f>J8*C7+J8</f>
         <v>371293</v>
       </c>
-      <c r="M8" s="93"/>
-      <c r="N8" s="93">
+      <c r="M8" s="104"/>
+      <c r="N8" s="104">
         <f>L8*C7+L8</f>
         <v>482680.9</v>
       </c>
-      <c r="O8" s="93"/>
-      <c r="P8" s="93">
+      <c r="O8" s="104"/>
+      <c r="P8" s="104">
         <f>N8*C7+N8</f>
         <v>627485.17000000004</v>
       </c>
-      <c r="Q8" s="93"/>
-      <c r="R8" s="93">
+      <c r="Q8" s="104"/>
+      <c r="R8" s="104">
         <f>P8*C7+P8</f>
         <v>815730.72100000002</v>
       </c>
-      <c r="S8" s="93"/>
-      <c r="T8" s="93">
+      <c r="S8" s="104"/>
+      <c r="T8" s="104">
         <f>R8*C7+R8</f>
         <v>1060449.9373000001</v>
       </c>
-      <c r="U8" s="93"/>
-      <c r="V8" s="93">
+      <c r="U8" s="104"/>
+      <c r="V8" s="104">
         <f>T8*C7+T8</f>
         <v>1378584.9184900001</v>
       </c>
-      <c r="W8" s="93"/>
+      <c r="W8" s="104"/>
       <c r="X8" s="2"/>
     </row>
     <row r="9" spans="1:25" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -7086,152 +7086,152 @@
         <f>C8*$C$3</f>
         <v>2100000000000</v>
       </c>
-      <c r="D9" s="94">
+      <c r="D9" s="105">
         <f>D8*$C$3</f>
         <v>2730000000000</v>
       </c>
-      <c r="E9" s="94"/>
-      <c r="F9" s="94">
+      <c r="E9" s="105"/>
+      <c r="F9" s="105">
         <f>F8*$C$3</f>
         <v>3549000000000</v>
       </c>
-      <c r="G9" s="94"/>
-      <c r="H9" s="94">
+      <c r="G9" s="105"/>
+      <c r="H9" s="105">
         <f>H8*$C$3</f>
         <v>4613700000000</v>
       </c>
-      <c r="I9" s="94"/>
-      <c r="J9" s="94">
+      <c r="I9" s="105"/>
+      <c r="J9" s="105">
         <f>J8*$C$3</f>
         <v>5997810000000</v>
       </c>
-      <c r="K9" s="94"/>
-      <c r="L9" s="94">
+      <c r="K9" s="105"/>
+      <c r="L9" s="105">
         <f>L8*$C$3</f>
         <v>7797153000000</v>
       </c>
-      <c r="M9" s="94"/>
-      <c r="N9" s="94">
+      <c r="M9" s="105"/>
+      <c r="N9" s="105">
         <f>N8*$C$3</f>
         <v>10136298900000</v>
       </c>
-      <c r="O9" s="94"/>
-      <c r="P9" s="94">
+      <c r="O9" s="105"/>
+      <c r="P9" s="105">
         <f>P8*$C$3</f>
         <v>13177188570000</v>
       </c>
-      <c r="Q9" s="94"/>
-      <c r="R9" s="94">
+      <c r="Q9" s="105"/>
+      <c r="R9" s="105">
         <f>R8*$C$3</f>
         <v>17130345141000</v>
       </c>
-      <c r="S9" s="94"/>
-      <c r="T9" s="94">
+      <c r="S9" s="105"/>
+      <c r="T9" s="105">
         <f>T8*$C$3</f>
         <v>22269448683300.004</v>
       </c>
-      <c r="U9" s="94"/>
-      <c r="V9" s="94">
+      <c r="U9" s="105"/>
+      <c r="V9" s="105">
         <f>V8*$C$3</f>
         <v>28950283288290</v>
       </c>
-      <c r="W9" s="94"/>
+      <c r="W9" s="105"/>
       <c r="X9" s="2"/>
     </row>
     <row r="10" spans="1:25" ht="15.85" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A10" s="4"/>
-      <c r="B10" s="97" t="s">
+      <c r="B10" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="99" t="s">
+      <c r="C10" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="95" t="s">
+      <c r="D10" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="95" t="s">
+      <c r="E10" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="95" t="s">
+      <c r="F10" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="95" t="s">
+      <c r="G10" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="95" t="s">
+      <c r="H10" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="95" t="s">
+      <c r="I10" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="95" t="s">
+      <c r="J10" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="95" t="s">
+      <c r="K10" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="L10" s="95" t="s">
+      <c r="L10" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="M10" s="95" t="s">
+      <c r="M10" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="N10" s="95" t="s">
+      <c r="N10" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="O10" s="95" t="s">
+      <c r="O10" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="P10" s="95" t="s">
+      <c r="P10" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="Q10" s="95" t="s">
+      <c r="Q10" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="R10" s="95" t="s">
+      <c r="R10" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="S10" s="95" t="s">
+      <c r="S10" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="T10" s="95" t="s">
+      <c r="T10" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="U10" s="95" t="s">
+      <c r="U10" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="V10" s="95" t="s">
+      <c r="V10" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="W10" s="95" t="s">
+      <c r="W10" s="106" t="s">
         <v>15</v>
       </c>
       <c r="X10" s="2"/>
     </row>
     <row r="11" spans="1:25" ht="15.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="4"/>
-      <c r="B11" s="98"/>
-      <c r="C11" s="100"/>
-      <c r="D11" s="96"/>
-      <c r="E11" s="96"/>
-      <c r="F11" s="96"/>
-      <c r="G11" s="96"/>
-      <c r="H11" s="96"/>
-      <c r="I11" s="96"/>
-      <c r="J11" s="96"/>
-      <c r="K11" s="96"/>
-      <c r="L11" s="96"/>
-      <c r="M11" s="96"/>
-      <c r="N11" s="96"/>
-      <c r="O11" s="96"/>
-      <c r="P11" s="96"/>
-      <c r="Q11" s="96"/>
-      <c r="R11" s="96"/>
-      <c r="S11" s="96"/>
-      <c r="T11" s="96"/>
-      <c r="U11" s="96"/>
-      <c r="V11" s="96"/>
-      <c r="W11" s="96"/>
+      <c r="B11" s="109"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="107"/>
+      <c r="F11" s="107"/>
+      <c r="G11" s="107"/>
+      <c r="H11" s="107"/>
+      <c r="I11" s="107"/>
+      <c r="J11" s="107"/>
+      <c r="K11" s="107"/>
+      <c r="L11" s="107"/>
+      <c r="M11" s="107"/>
+      <c r="N11" s="107"/>
+      <c r="O11" s="107"/>
+      <c r="P11" s="107"/>
+      <c r="Q11" s="107"/>
+      <c r="R11" s="107"/>
+      <c r="S11" s="107"/>
+      <c r="T11" s="107"/>
+      <c r="U11" s="107"/>
+      <c r="V11" s="107"/>
+      <c r="W11" s="107"/>
       <c r="X11" s="2"/>
     </row>
     <row r="12" spans="1:25" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -7598,34 +7598,34 @@
     </row>
     <row r="16" spans="1:25" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="4"/>
-      <c r="B16" s="84" t="s">
+      <c r="B16" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="84"/>
-      <c r="D16" s="89" t="s">
+      <c r="C16" s="113"/>
+      <c r="D16" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="89"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="89"/>
-      <c r="I16" s="89"/>
-      <c r="J16" s="89"/>
-      <c r="K16" s="89"/>
-      <c r="L16" s="89"/>
-      <c r="M16" s="89"/>
-      <c r="N16" s="89" t="s">
+      <c r="E16" s="114"/>
+      <c r="F16" s="114"/>
+      <c r="G16" s="114"/>
+      <c r="H16" s="114"/>
+      <c r="I16" s="114"/>
+      <c r="J16" s="114"/>
+      <c r="K16" s="114"/>
+      <c r="L16" s="114"/>
+      <c r="M16" s="114"/>
+      <c r="N16" s="114" t="s">
         <v>42</v>
       </c>
-      <c r="O16" s="89"/>
-      <c r="P16" s="89"/>
-      <c r="Q16" s="89"/>
-      <c r="R16" s="89"/>
-      <c r="S16" s="89"/>
-      <c r="T16" s="89"/>
-      <c r="U16" s="89"/>
-      <c r="V16" s="89"/>
-      <c r="W16" s="89"/>
+      <c r="O16" s="114"/>
+      <c r="P16" s="114"/>
+      <c r="Q16" s="114"/>
+      <c r="R16" s="114"/>
+      <c r="S16" s="114"/>
+      <c r="T16" s="114"/>
+      <c r="U16" s="114"/>
+      <c r="V16" s="114"/>
+      <c r="W16" s="114"/>
       <c r="X16" s="12"/>
       <c r="Y16" s="8" t="s">
         <v>27</v>
@@ -7633,57 +7633,57 @@
     </row>
     <row r="17" spans="1:25" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="4"/>
-      <c r="B17" s="84"/>
-      <c r="C17" s="84"/>
-      <c r="D17" s="83" t="s">
+      <c r="B17" s="113"/>
+      <c r="C17" s="113"/>
+      <c r="D17" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="83"/>
-      <c r="F17" s="83" t="s">
+      <c r="E17" s="103"/>
+      <c r="F17" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="83"/>
-      <c r="H17" s="83" t="s">
+      <c r="G17" s="103"/>
+      <c r="H17" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="I17" s="83"/>
-      <c r="J17" s="83" t="s">
+      <c r="I17" s="103"/>
+      <c r="J17" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="K17" s="83"/>
-      <c r="L17" s="83" t="s">
+      <c r="K17" s="103"/>
+      <c r="L17" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="M17" s="83"/>
-      <c r="N17" s="83" t="s">
+      <c r="M17" s="103"/>
+      <c r="N17" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="O17" s="83"/>
-      <c r="P17" s="83" t="s">
+      <c r="O17" s="103"/>
+      <c r="P17" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="Q17" s="83"/>
-      <c r="R17" s="83" t="s">
+      <c r="Q17" s="103"/>
+      <c r="R17" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="S17" s="83"/>
-      <c r="T17" s="83" t="s">
+      <c r="S17" s="103"/>
+      <c r="T17" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="U17" s="83"/>
-      <c r="V17" s="83" t="s">
+      <c r="U17" s="103"/>
+      <c r="V17" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="W17" s="83"/>
+      <c r="W17" s="103"/>
       <c r="X17" s="12"/>
-      <c r="Y17" s="85" t="s">
+      <c r="Y17" s="112" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="4"/>
-      <c r="B18" s="84"/>
-      <c r="C18" s="84"/>
+      <c r="B18" s="113"/>
+      <c r="C18" s="113"/>
       <c r="D18" s="5" t="s">
         <v>14</v>
       </c>
@@ -7745,14 +7745,14 @@
         <v>15</v>
       </c>
       <c r="X18" s="12"/>
-      <c r="Y18" s="85"/>
+      <c r="Y18" s="112"/>
     </row>
     <row r="19" spans="1:25" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="4"/>
-      <c r="B19" s="91" t="s">
+      <c r="B19" s="116" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="92"/>
+      <c r="C19" s="117"/>
       <c r="D19" s="69" t="str">
         <f>TEXT(ROUND(L12/$C$4/5*100, 2), "0.00") &amp; "%"</f>
         <v>2.92%</v>
@@ -7841,10 +7841,10 @@
     </row>
     <row r="20" spans="1:25" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" s="4"/>
-      <c r="B20" s="88" t="s">
+      <c r="B20" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="88"/>
+      <c r="C20" s="115"/>
       <c r="D20" s="69" t="str">
         <f>TEXT(ROUND(L13/$C$4/5*100, 2), "0.00") &amp; "%"</f>
         <v>4.38%</v>
@@ -7933,10 +7933,10 @@
     </row>
     <row r="21" spans="1:25" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="4"/>
-      <c r="B21" s="88" t="s">
+      <c r="B21" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="88"/>
+      <c r="C21" s="115"/>
       <c r="D21" s="69" t="str">
         <f>TEXT(ROUND(L14/$C$4/5*100, 2), "0.00") &amp; "%"</f>
         <v>7.30%</v>
@@ -8025,10 +8025,10 @@
     </row>
     <row r="22" spans="1:25" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="4"/>
-      <c r="B22" s="88" t="s">
+      <c r="B22" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="88"/>
+      <c r="C22" s="115"/>
       <c r="D22" s="69" t="str">
         <f>TEXT(ROUND(L15/$C$4/5*100, 2), "0.00") &amp; "%"</f>
         <v>14.62%</v>
@@ -8143,29 +8143,29 @@
         <f>$C$4*C26</f>
         <v>13785849.184900001</v>
       </c>
-      <c r="D24" s="86" t="str">
+      <c r="D24" s="102" t="str">
         <f>"2035 - 2045 : "&amp;$C25*100&amp;"% " &amp; B25</f>
         <v>2035 - 2045 : 20% BTC 10Y CAGR</v>
       </c>
-      <c r="E24" s="86"/>
-      <c r="F24" s="86"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="86"/>
-      <c r="I24" s="86"/>
-      <c r="J24" s="86"/>
-      <c r="K24" s="86"/>
-      <c r="L24" s="86"/>
-      <c r="M24" s="86"/>
-      <c r="N24" s="86"/>
-      <c r="O24" s="86"/>
-      <c r="P24" s="86"/>
-      <c r="Q24" s="86"/>
-      <c r="R24" s="86"/>
-      <c r="S24" s="86"/>
-      <c r="T24" s="86"/>
-      <c r="U24" s="86"/>
-      <c r="V24" s="86"/>
-      <c r="W24" s="86"/>
+      <c r="E24" s="102"/>
+      <c r="F24" s="102"/>
+      <c r="G24" s="102"/>
+      <c r="H24" s="102"/>
+      <c r="I24" s="102"/>
+      <c r="J24" s="102"/>
+      <c r="K24" s="102"/>
+      <c r="L24" s="102"/>
+      <c r="M24" s="102"/>
+      <c r="N24" s="102"/>
+      <c r="O24" s="102"/>
+      <c r="P24" s="102"/>
+      <c r="Q24" s="102"/>
+      <c r="R24" s="102"/>
+      <c r="S24" s="102"/>
+      <c r="T24" s="102"/>
+      <c r="U24" s="102"/>
+      <c r="V24" s="102"/>
+      <c r="W24" s="102"/>
       <c r="X24" s="2"/>
     </row>
     <row r="25" spans="1:25" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -8177,46 +8177,46 @@
       <c r="C25" s="16">
         <v>0.2</v>
       </c>
-      <c r="D25" s="83" t="s">
+      <c r="D25" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="83"/>
-      <c r="F25" s="83" t="s">
+      <c r="E25" s="103"/>
+      <c r="F25" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="G25" s="83"/>
-      <c r="H25" s="83" t="s">
+      <c r="G25" s="103"/>
+      <c r="H25" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="I25" s="83"/>
-      <c r="J25" s="83" t="s">
+      <c r="I25" s="103"/>
+      <c r="J25" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="K25" s="83"/>
-      <c r="L25" s="83" t="s">
+      <c r="K25" s="103"/>
+      <c r="L25" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="M25" s="83"/>
-      <c r="N25" s="83" t="s">
+      <c r="M25" s="103"/>
+      <c r="N25" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="O25" s="83"/>
-      <c r="P25" s="83" t="s">
+      <c r="O25" s="103"/>
+      <c r="P25" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="Q25" s="83"/>
-      <c r="R25" s="83" t="s">
+      <c r="Q25" s="103"/>
+      <c r="R25" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="S25" s="83"/>
-      <c r="T25" s="83" t="s">
+      <c r="S25" s="103"/>
+      <c r="T25" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="U25" s="83"/>
-      <c r="V25" s="83" t="s">
+      <c r="U25" s="103"/>
+      <c r="V25" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="W25" s="83"/>
+      <c r="W25" s="103"/>
       <c r="X25" s="2"/>
     </row>
     <row r="26" spans="1:25" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -8229,56 +8229,56 @@
         <f>V8</f>
         <v>1378584.9184900001</v>
       </c>
-      <c r="D26" s="93">
+      <c r="D26" s="104">
         <f>C26*C25+C26</f>
         <v>1654301.902188</v>
       </c>
-      <c r="E26" s="93"/>
-      <c r="F26" s="93">
+      <c r="E26" s="104"/>
+      <c r="F26" s="104">
         <f>D26*C25+D26</f>
         <v>1985162.2826256</v>
       </c>
-      <c r="G26" s="93"/>
-      <c r="H26" s="93">
+      <c r="G26" s="104"/>
+      <c r="H26" s="104">
         <f>F26*$C25+F26</f>
         <v>2382194.7391507202</v>
       </c>
-      <c r="I26" s="93"/>
-      <c r="J26" s="93">
+      <c r="I26" s="104"/>
+      <c r="J26" s="104">
         <f>H26*$C25+H26</f>
         <v>2858633.686980864</v>
       </c>
-      <c r="K26" s="93"/>
-      <c r="L26" s="93">
+      <c r="K26" s="104"/>
+      <c r="L26" s="104">
         <f>J26*$C25+J26</f>
         <v>3430360.4243770367</v>
       </c>
-      <c r="M26" s="93"/>
-      <c r="N26" s="93">
+      <c r="M26" s="104"/>
+      <c r="N26" s="104">
         <f>L26*$C25+L26</f>
         <v>4116432.5092524439</v>
       </c>
-      <c r="O26" s="93"/>
-      <c r="P26" s="93">
+      <c r="O26" s="104"/>
+      <c r="P26" s="104">
         <f>N26*$C25+N26</f>
         <v>4939719.0111029325</v>
       </c>
-      <c r="Q26" s="93"/>
-      <c r="R26" s="93">
+      <c r="Q26" s="104"/>
+      <c r="R26" s="104">
         <f>P26*$C25+P26</f>
         <v>5927662.8133235192</v>
       </c>
-      <c r="S26" s="93"/>
-      <c r="T26" s="93">
+      <c r="S26" s="104"/>
+      <c r="T26" s="104">
         <f>R26*$C25+R26</f>
         <v>7113195.3759882227</v>
       </c>
-      <c r="U26" s="93"/>
-      <c r="V26" s="93">
+      <c r="U26" s="104"/>
+      <c r="V26" s="104">
         <f>T26*$C25+T26</f>
         <v>8535834.4511858672</v>
       </c>
-      <c r="W26" s="93"/>
+      <c r="W26" s="104"/>
       <c r="X26" s="2"/>
     </row>
     <row r="27" spans="1:25" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -8291,152 +8291,152 @@
         <f>C26*21000000</f>
         <v>28950283288290</v>
       </c>
-      <c r="D27" s="94">
+      <c r="D27" s="105">
         <f>D26*21000000</f>
         <v>34740339945948</v>
       </c>
-      <c r="E27" s="94"/>
-      <c r="F27" s="94">
+      <c r="E27" s="105"/>
+      <c r="F27" s="105">
         <f>F26*21000000</f>
         <v>41688407935137.602</v>
       </c>
-      <c r="G27" s="94"/>
-      <c r="H27" s="94">
+      <c r="G27" s="105"/>
+      <c r="H27" s="105">
         <f>H26*21000000</f>
         <v>50026089522165.125</v>
       </c>
-      <c r="I27" s="94"/>
-      <c r="J27" s="94">
+      <c r="I27" s="105"/>
+      <c r="J27" s="105">
         <f>J26*21000000</f>
         <v>60031307426598.148</v>
       </c>
-      <c r="K27" s="94"/>
-      <c r="L27" s="94">
+      <c r="K27" s="105"/>
+      <c r="L27" s="105">
         <f>L26*21000000</f>
         <v>72037568911917.766</v>
       </c>
-      <c r="M27" s="94"/>
-      <c r="N27" s="94">
+      <c r="M27" s="105"/>
+      <c r="N27" s="105">
         <f>N26*21000000</f>
         <v>86445082694301.328</v>
       </c>
-      <c r="O27" s="94"/>
-      <c r="P27" s="94">
+      <c r="O27" s="105"/>
+      <c r="P27" s="105">
         <f>P26*21000000</f>
         <v>103734099233161.58</v>
       </c>
-      <c r="Q27" s="94"/>
-      <c r="R27" s="94">
+      <c r="Q27" s="105"/>
+      <c r="R27" s="105">
         <f>R26*21000000</f>
         <v>124480919079793.91</v>
       </c>
-      <c r="S27" s="94"/>
-      <c r="T27" s="94">
+      <c r="S27" s="105"/>
+      <c r="T27" s="105">
         <f>T26*21000000</f>
         <v>149377102895752.69</v>
       </c>
-      <c r="U27" s="94"/>
-      <c r="V27" s="94">
+      <c r="U27" s="105"/>
+      <c r="V27" s="105">
         <f>V26*21000000</f>
         <v>179252523474903.22</v>
       </c>
-      <c r="W27" s="94"/>
+      <c r="W27" s="105"/>
       <c r="X27" s="2"/>
     </row>
     <row r="28" spans="1:25" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A28" s="4"/>
-      <c r="B28" s="97" t="s">
+      <c r="B28" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="99" t="s">
+      <c r="C28" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="95" t="s">
+      <c r="D28" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="95" t="s">
+      <c r="E28" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="95" t="s">
+      <c r="F28" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="G28" s="95" t="s">
+      <c r="G28" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="H28" s="95" t="s">
+      <c r="H28" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="I28" s="95" t="s">
+      <c r="I28" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="J28" s="95" t="s">
+      <c r="J28" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="K28" s="95" t="s">
+      <c r="K28" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="L28" s="95" t="s">
+      <c r="L28" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="M28" s="95" t="s">
+      <c r="M28" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="N28" s="95" t="s">
+      <c r="N28" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="O28" s="95" t="s">
+      <c r="O28" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="P28" s="95" t="s">
+      <c r="P28" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="Q28" s="95" t="s">
+      <c r="Q28" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="R28" s="95" t="s">
+      <c r="R28" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="S28" s="95" t="s">
+      <c r="S28" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="T28" s="95" t="s">
+      <c r="T28" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="U28" s="95" t="s">
+      <c r="U28" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="V28" s="95" t="s">
+      <c r="V28" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="W28" s="95" t="s">
+      <c r="W28" s="106" t="s">
         <v>15</v>
       </c>
       <c r="X28" s="2"/>
     </row>
     <row r="29" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="4"/>
-      <c r="B29" s="98"/>
-      <c r="C29" s="100"/>
-      <c r="D29" s="96"/>
-      <c r="E29" s="96"/>
-      <c r="F29" s="96"/>
-      <c r="G29" s="96"/>
-      <c r="H29" s="96"/>
-      <c r="I29" s="96"/>
-      <c r="J29" s="96"/>
-      <c r="K29" s="96"/>
-      <c r="L29" s="96"/>
-      <c r="M29" s="96"/>
-      <c r="N29" s="96"/>
-      <c r="O29" s="96"/>
-      <c r="P29" s="96"/>
-      <c r="Q29" s="96"/>
-      <c r="R29" s="96"/>
-      <c r="S29" s="96"/>
-      <c r="T29" s="96"/>
-      <c r="U29" s="96"/>
-      <c r="V29" s="96"/>
-      <c r="W29" s="96"/>
+      <c r="B29" s="109"/>
+      <c r="C29" s="111"/>
+      <c r="D29" s="107"/>
+      <c r="E29" s="107"/>
+      <c r="F29" s="107"/>
+      <c r="G29" s="107"/>
+      <c r="H29" s="107"/>
+      <c r="I29" s="107"/>
+      <c r="J29" s="107"/>
+      <c r="K29" s="107"/>
+      <c r="L29" s="107"/>
+      <c r="M29" s="107"/>
+      <c r="N29" s="107"/>
+      <c r="O29" s="107"/>
+      <c r="P29" s="107"/>
+      <c r="Q29" s="107"/>
+      <c r="R29" s="107"/>
+      <c r="S29" s="107"/>
+      <c r="T29" s="107"/>
+      <c r="U29" s="107"/>
+      <c r="V29" s="107"/>
+      <c r="W29" s="107"/>
       <c r="X29" s="2"/>
     </row>
     <row r="30" spans="1:25" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -8802,34 +8802,34 @@
     </row>
     <row r="34" spans="1:25" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="4"/>
-      <c r="B34" s="84" t="s">
+      <c r="B34" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="84"/>
-      <c r="D34" s="89" t="s">
+      <c r="C34" s="113"/>
+      <c r="D34" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="E34" s="89"/>
-      <c r="F34" s="89"/>
-      <c r="G34" s="89"/>
-      <c r="H34" s="89"/>
-      <c r="I34" s="89"/>
-      <c r="J34" s="89"/>
-      <c r="K34" s="89"/>
-      <c r="L34" s="89"/>
-      <c r="M34" s="89"/>
-      <c r="N34" s="89" t="s">
+      <c r="E34" s="114"/>
+      <c r="F34" s="114"/>
+      <c r="G34" s="114"/>
+      <c r="H34" s="114"/>
+      <c r="I34" s="114"/>
+      <c r="J34" s="114"/>
+      <c r="K34" s="114"/>
+      <c r="L34" s="114"/>
+      <c r="M34" s="114"/>
+      <c r="N34" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="O34" s="89"/>
-      <c r="P34" s="89"/>
-      <c r="Q34" s="89"/>
-      <c r="R34" s="89"/>
-      <c r="S34" s="89"/>
-      <c r="T34" s="89"/>
-      <c r="U34" s="89"/>
-      <c r="V34" s="89"/>
-      <c r="W34" s="89"/>
+      <c r="O34" s="114"/>
+      <c r="P34" s="114"/>
+      <c r="Q34" s="114"/>
+      <c r="R34" s="114"/>
+      <c r="S34" s="114"/>
+      <c r="T34" s="114"/>
+      <c r="U34" s="114"/>
+      <c r="V34" s="114"/>
+      <c r="W34" s="114"/>
       <c r="X34" s="2"/>
       <c r="Y34" s="8" t="s">
         <v>28</v>
@@ -8837,57 +8837,57 @@
     </row>
     <row r="35" spans="1:25" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A35" s="4"/>
-      <c r="B35" s="84"/>
-      <c r="C35" s="84"/>
-      <c r="D35" s="83" t="s">
+      <c r="B35" s="113"/>
+      <c r="C35" s="113"/>
+      <c r="D35" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="E35" s="83"/>
-      <c r="F35" s="83" t="s">
+      <c r="E35" s="103"/>
+      <c r="F35" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="G35" s="83"/>
-      <c r="H35" s="83" t="s">
+      <c r="G35" s="103"/>
+      <c r="H35" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="I35" s="83"/>
-      <c r="J35" s="83" t="s">
+      <c r="I35" s="103"/>
+      <c r="J35" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="K35" s="83"/>
-      <c r="L35" s="83" t="s">
+      <c r="K35" s="103"/>
+      <c r="L35" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="M35" s="83"/>
-      <c r="N35" s="83" t="s">
+      <c r="M35" s="103"/>
+      <c r="N35" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="O35" s="83"/>
-      <c r="P35" s="83" t="s">
+      <c r="O35" s="103"/>
+      <c r="P35" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="Q35" s="83"/>
-      <c r="R35" s="83" t="s">
+      <c r="Q35" s="103"/>
+      <c r="R35" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="S35" s="83"/>
-      <c r="T35" s="83" t="s">
+      <c r="S35" s="103"/>
+      <c r="T35" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="U35" s="83"/>
-      <c r="V35" s="83" t="s">
+      <c r="U35" s="103"/>
+      <c r="V35" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="W35" s="83"/>
+      <c r="W35" s="103"/>
       <c r="X35" s="2"/>
-      <c r="Y35" s="85" t="s">
+      <c r="Y35" s="112" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:25" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A36" s="4"/>
-      <c r="B36" s="84"/>
-      <c r="C36" s="84"/>
+      <c r="B36" s="113"/>
+      <c r="C36" s="113"/>
       <c r="D36" s="5" t="s">
         <v>14</v>
       </c>
@@ -8949,14 +8949,14 @@
         <v>15</v>
       </c>
       <c r="X36" s="2"/>
-      <c r="Y36" s="85"/>
+      <c r="Y36" s="112"/>
     </row>
     <row r="37" spans="1:25" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A37" s="4"/>
-      <c r="B37" s="88" t="s">
+      <c r="B37" s="115" t="s">
         <v>56</v>
       </c>
-      <c r="C37" s="88"/>
+      <c r="C37" s="115"/>
       <c r="D37" s="69" t="str">
         <f>TEXT(ROUND(L30/$C$4/5*100, 2), "0.00") &amp; "%"</f>
         <v>2.40%</v>
@@ -9045,10 +9045,10 @@
     </row>
     <row r="38" spans="1:25" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A38" s="4"/>
-      <c r="B38" s="88" t="s">
+      <c r="B38" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="88"/>
+      <c r="C38" s="115"/>
       <c r="D38" s="69" t="str">
         <f>TEXT(ROUND(L31/$C$4/5*100, 2), "0.00") &amp; "%"</f>
         <v>3.58%</v>
@@ -9136,10 +9136,10 @@
       </c>
     </row>
     <row r="39" spans="1:25" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B39" s="88" t="s">
+      <c r="B39" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="88"/>
+      <c r="C39" s="115"/>
       <c r="D39" s="69" t="str">
         <f>TEXT(ROUND(L32/$C$4/5*100, 2), "0.00") &amp; "%"</f>
         <v>5.98%</v>
@@ -9227,10 +9227,10 @@
     </row>
     <row r="40" spans="1:25" s="3" customFormat="1" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A40" s="1"/>
-      <c r="B40" s="88" t="s">
+      <c r="B40" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="C40" s="88"/>
+      <c r="C40" s="115"/>
       <c r="D40" s="69" t="str">
         <f>TEXT(ROUND(L33/$C$4/5*100, 2), "0.00") &amp; "%"</f>
         <v>11.96%</v>
@@ -9470,7 +9470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2104347-2659-465C-A5EF-CD136DAD624F}">
   <dimension ref="A1:Y60"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:W4"/>
     </sheetView>
   </sheetViews>
@@ -9518,28 +9518,28 @@
       <c r="C2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="87" t="s">
+      <c r="D2" s="101" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
-      <c r="N2" s="87"/>
-      <c r="O2" s="87"/>
-      <c r="P2" s="87"/>
-      <c r="Q2" s="87"/>
-      <c r="R2" s="87"/>
-      <c r="S2" s="87"/>
-      <c r="T2" s="87"/>
-      <c r="U2" s="87"/>
-      <c r="V2" s="87"/>
-      <c r="W2" s="87"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="101"/>
+      <c r="O2" s="101"/>
+      <c r="P2" s="101"/>
+      <c r="Q2" s="101"/>
+      <c r="R2" s="101"/>
+      <c r="S2" s="101"/>
+      <c r="T2" s="101"/>
+      <c r="U2" s="101"/>
+      <c r="V2" s="101"/>
+      <c r="W2" s="101"/>
       <c r="X2" s="12"/>
       <c r="Y2" s="13">
         <v>45891</v>
@@ -9554,26 +9554,26 @@
       <c r="C3" s="14">
         <v>21000000</v>
       </c>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="87"/>
-      <c r="Q3" s="87"/>
-      <c r="R3" s="87"/>
-      <c r="S3" s="87"/>
-      <c r="T3" s="87"/>
-      <c r="U3" s="87"/>
-      <c r="V3" s="87"/>
-      <c r="W3" s="87"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
+      <c r="N3" s="101"/>
+      <c r="O3" s="101"/>
+      <c r="P3" s="101"/>
+      <c r="Q3" s="101"/>
+      <c r="R3" s="101"/>
+      <c r="S3" s="101"/>
+      <c r="T3" s="101"/>
+      <c r="U3" s="101"/>
+      <c r="V3" s="101"/>
+      <c r="W3" s="101"/>
       <c r="X3" s="12"/>
       <c r="Y3" s="15" t="s">
         <v>25</v>
@@ -9587,26 +9587,26 @@
       <c r="C4" s="11">
         <v>10</v>
       </c>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
-      <c r="N4" s="87"/>
-      <c r="O4" s="87"/>
-      <c r="P4" s="87"/>
-      <c r="Q4" s="87"/>
-      <c r="R4" s="87"/>
-      <c r="S4" s="87"/>
-      <c r="T4" s="87"/>
-      <c r="U4" s="87"/>
-      <c r="V4" s="87"/>
-      <c r="W4" s="87"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
+      <c r="N4" s="101"/>
+      <c r="O4" s="101"/>
+      <c r="P4" s="101"/>
+      <c r="Q4" s="101"/>
+      <c r="R4" s="101"/>
+      <c r="S4" s="101"/>
+      <c r="T4" s="101"/>
+      <c r="U4" s="101"/>
+      <c r="V4" s="101"/>
+      <c r="W4" s="101"/>
       <c r="X4" s="12"/>
       <c r="Y4" s="15"/>
     </row>
@@ -9643,29 +9643,29 @@
         <f>$C$4*C8</f>
         <v>1000000</v>
       </c>
-      <c r="D6" s="86" t="str">
+      <c r="D6" s="102" t="str">
         <f>"2025 - 2035 : "&amp;$C7*100&amp;"% " &amp; B7</f>
         <v>2025 - 2035 : 30% BTC 10Y CAGR</v>
       </c>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="86"/>
-      <c r="N6" s="86"/>
-      <c r="O6" s="86"/>
-      <c r="P6" s="86"/>
-      <c r="Q6" s="86"/>
-      <c r="R6" s="86"/>
-      <c r="S6" s="86"/>
-      <c r="T6" s="86"/>
-      <c r="U6" s="86"/>
-      <c r="V6" s="86"/>
-      <c r="W6" s="86"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102"/>
+      <c r="N6" s="102"/>
+      <c r="O6" s="102"/>
+      <c r="P6" s="102"/>
+      <c r="Q6" s="102"/>
+      <c r="R6" s="102"/>
+      <c r="S6" s="102"/>
+      <c r="T6" s="102"/>
+      <c r="U6" s="102"/>
+      <c r="V6" s="102"/>
+      <c r="W6" s="102"/>
       <c r="X6" s="2"/>
       <c r="Y6" s="23"/>
     </row>
@@ -9678,46 +9678,46 @@
       <c r="C7" s="16">
         <v>0.3</v>
       </c>
-      <c r="D7" s="83" t="s">
+      <c r="D7" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83" t="s">
+      <c r="E7" s="103"/>
+      <c r="F7" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83" t="s">
+      <c r="G7" s="103"/>
+      <c r="H7" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="83"/>
-      <c r="J7" s="83" t="s">
+      <c r="I7" s="103"/>
+      <c r="J7" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="83"/>
-      <c r="L7" s="83" t="s">
+      <c r="K7" s="103"/>
+      <c r="L7" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="83"/>
-      <c r="N7" s="83" t="s">
+      <c r="M7" s="103"/>
+      <c r="N7" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="O7" s="83"/>
-      <c r="P7" s="83" t="s">
+      <c r="O7" s="103"/>
+      <c r="P7" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="Q7" s="83"/>
-      <c r="R7" s="83" t="s">
+      <c r="Q7" s="103"/>
+      <c r="R7" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="S7" s="83"/>
-      <c r="T7" s="83" t="s">
+      <c r="S7" s="103"/>
+      <c r="T7" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="U7" s="83"/>
-      <c r="V7" s="83" t="s">
+      <c r="U7" s="103"/>
+      <c r="V7" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="W7" s="83"/>
+      <c r="W7" s="103"/>
       <c r="X7" s="2"/>
       <c r="Y7" s="17"/>
     </row>
@@ -9730,56 +9730,56 @@
       <c r="C8" s="7">
         <v>100000</v>
       </c>
-      <c r="D8" s="93">
+      <c r="D8" s="104">
         <f>C8*C7+C8</f>
         <v>130000</v>
       </c>
-      <c r="E8" s="93"/>
-      <c r="F8" s="93">
+      <c r="E8" s="104"/>
+      <c r="F8" s="104">
         <f>D8*C7+D8</f>
         <v>169000</v>
       </c>
-      <c r="G8" s="93"/>
-      <c r="H8" s="93">
+      <c r="G8" s="104"/>
+      <c r="H8" s="104">
         <f>F8*C7+F8</f>
         <v>219700</v>
       </c>
-      <c r="I8" s="93"/>
-      <c r="J8" s="93">
+      <c r="I8" s="104"/>
+      <c r="J8" s="104">
         <f>H8*C7+H8</f>
         <v>285610</v>
       </c>
-      <c r="K8" s="93"/>
-      <c r="L8" s="93">
+      <c r="K8" s="104"/>
+      <c r="L8" s="104">
         <f>J8*C7+J8</f>
         <v>371293</v>
       </c>
-      <c r="M8" s="93"/>
-      <c r="N8" s="93">
+      <c r="M8" s="104"/>
+      <c r="N8" s="104">
         <f>L8*C7+L8</f>
         <v>482680.9</v>
       </c>
-      <c r="O8" s="93"/>
-      <c r="P8" s="93">
+      <c r="O8" s="104"/>
+      <c r="P8" s="104">
         <f>N8*C7+N8</f>
         <v>627485.17000000004</v>
       </c>
-      <c r="Q8" s="93"/>
-      <c r="R8" s="93">
+      <c r="Q8" s="104"/>
+      <c r="R8" s="104">
         <f>P8*C7+P8</f>
         <v>815730.72100000002</v>
       </c>
-      <c r="S8" s="93"/>
-      <c r="T8" s="93">
+      <c r="S8" s="104"/>
+      <c r="T8" s="104">
         <f>R8*C7+R8</f>
         <v>1060449.9373000001</v>
       </c>
-      <c r="U8" s="93"/>
-      <c r="V8" s="93">
+      <c r="U8" s="104"/>
+      <c r="V8" s="104">
         <f>T8*C7+T8</f>
         <v>1378584.9184900001</v>
       </c>
-      <c r="W8" s="93"/>
+      <c r="W8" s="104"/>
       <c r="X8" s="2"/>
     </row>
     <row r="9" spans="1:25" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -9792,152 +9792,152 @@
         <f>C8*$C$3</f>
         <v>2100000000000</v>
       </c>
-      <c r="D9" s="94">
+      <c r="D9" s="105">
         <f>D8*$C$3</f>
         <v>2730000000000</v>
       </c>
-      <c r="E9" s="94"/>
-      <c r="F9" s="94">
+      <c r="E9" s="105"/>
+      <c r="F9" s="105">
         <f>F8*$C$3</f>
         <v>3549000000000</v>
       </c>
-      <c r="G9" s="94"/>
-      <c r="H9" s="94">
+      <c r="G9" s="105"/>
+      <c r="H9" s="105">
         <f>H8*$C$3</f>
         <v>4613700000000</v>
       </c>
-      <c r="I9" s="94"/>
-      <c r="J9" s="94">
+      <c r="I9" s="105"/>
+      <c r="J9" s="105">
         <f>J8*$C$3</f>
         <v>5997810000000</v>
       </c>
-      <c r="K9" s="94"/>
-      <c r="L9" s="94">
+      <c r="K9" s="105"/>
+      <c r="L9" s="105">
         <f>L8*$C$3</f>
         <v>7797153000000</v>
       </c>
-      <c r="M9" s="94"/>
-      <c r="N9" s="94">
+      <c r="M9" s="105"/>
+      <c r="N9" s="105">
         <f>N8*$C$3</f>
         <v>10136298900000</v>
       </c>
-      <c r="O9" s="94"/>
-      <c r="P9" s="94">
+      <c r="O9" s="105"/>
+      <c r="P9" s="105">
         <f>P8*$C$3</f>
         <v>13177188570000</v>
       </c>
-      <c r="Q9" s="94"/>
-      <c r="R9" s="94">
+      <c r="Q9" s="105"/>
+      <c r="R9" s="105">
         <f>R8*$C$3</f>
         <v>17130345141000</v>
       </c>
-      <c r="S9" s="94"/>
-      <c r="T9" s="94">
+      <c r="S9" s="105"/>
+      <c r="T9" s="105">
         <f>T8*$C$3</f>
         <v>22269448683300.004</v>
       </c>
-      <c r="U9" s="94"/>
-      <c r="V9" s="94">
+      <c r="U9" s="105"/>
+      <c r="V9" s="105">
         <f>V8*$C$3</f>
         <v>28950283288290</v>
       </c>
-      <c r="W9" s="94"/>
+      <c r="W9" s="105"/>
       <c r="X9" s="2"/>
     </row>
     <row r="10" spans="1:25" ht="15.85" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A10" s="4"/>
-      <c r="B10" s="97" t="s">
+      <c r="B10" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="99" t="s">
+      <c r="C10" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="95" t="s">
+      <c r="D10" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="95" t="s">
+      <c r="E10" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="95" t="s">
+      <c r="F10" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="95" t="s">
+      <c r="G10" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="95" t="s">
+      <c r="H10" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="95" t="s">
+      <c r="I10" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="95" t="s">
+      <c r="J10" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="95" t="s">
+      <c r="K10" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="L10" s="95" t="s">
+      <c r="L10" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="M10" s="95" t="s">
+      <c r="M10" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="N10" s="95" t="s">
+      <c r="N10" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="O10" s="95" t="s">
+      <c r="O10" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="P10" s="95" t="s">
+      <c r="P10" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="Q10" s="95" t="s">
+      <c r="Q10" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="R10" s="95" t="s">
+      <c r="R10" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="S10" s="95" t="s">
+      <c r="S10" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="T10" s="95" t="s">
+      <c r="T10" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="U10" s="95" t="s">
+      <c r="U10" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="V10" s="95" t="s">
+      <c r="V10" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="W10" s="95" t="s">
+      <c r="W10" s="106" t="s">
         <v>15</v>
       </c>
       <c r="X10" s="2"/>
     </row>
     <row r="11" spans="1:25" ht="15.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="4"/>
-      <c r="B11" s="98"/>
-      <c r="C11" s="100"/>
-      <c r="D11" s="96"/>
-      <c r="E11" s="96"/>
-      <c r="F11" s="96"/>
-      <c r="G11" s="96"/>
-      <c r="H11" s="96"/>
-      <c r="I11" s="96"/>
-      <c r="J11" s="96"/>
-      <c r="K11" s="96"/>
-      <c r="L11" s="96"/>
-      <c r="M11" s="96"/>
-      <c r="N11" s="96"/>
-      <c r="O11" s="96"/>
-      <c r="P11" s="96"/>
-      <c r="Q11" s="96"/>
-      <c r="R11" s="96"/>
-      <c r="S11" s="96"/>
-      <c r="T11" s="96"/>
-      <c r="U11" s="96"/>
-      <c r="V11" s="96"/>
-      <c r="W11" s="96"/>
+      <c r="B11" s="109"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="107"/>
+      <c r="F11" s="107"/>
+      <c r="G11" s="107"/>
+      <c r="H11" s="107"/>
+      <c r="I11" s="107"/>
+      <c r="J11" s="107"/>
+      <c r="K11" s="107"/>
+      <c r="L11" s="107"/>
+      <c r="M11" s="107"/>
+      <c r="N11" s="107"/>
+      <c r="O11" s="107"/>
+      <c r="P11" s="107"/>
+      <c r="Q11" s="107"/>
+      <c r="R11" s="107"/>
+      <c r="S11" s="107"/>
+      <c r="T11" s="107"/>
+      <c r="U11" s="107"/>
+      <c r="V11" s="107"/>
+      <c r="W11" s="107"/>
       <c r="X11" s="2"/>
     </row>
     <row r="12" spans="1:25" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -10304,34 +10304,34 @@
     </row>
     <row r="16" spans="1:25" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="4"/>
-      <c r="B16" s="84" t="s">
+      <c r="B16" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="84"/>
-      <c r="D16" s="89" t="s">
+      <c r="C16" s="113"/>
+      <c r="D16" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="89"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="89"/>
-      <c r="I16" s="89"/>
-      <c r="J16" s="89"/>
-      <c r="K16" s="89"/>
-      <c r="L16" s="89"/>
-      <c r="M16" s="89"/>
-      <c r="N16" s="89" t="s">
+      <c r="E16" s="114"/>
+      <c r="F16" s="114"/>
+      <c r="G16" s="114"/>
+      <c r="H16" s="114"/>
+      <c r="I16" s="114"/>
+      <c r="J16" s="114"/>
+      <c r="K16" s="114"/>
+      <c r="L16" s="114"/>
+      <c r="M16" s="114"/>
+      <c r="N16" s="114" t="s">
         <v>42</v>
       </c>
-      <c r="O16" s="89"/>
-      <c r="P16" s="89"/>
-      <c r="Q16" s="89"/>
-      <c r="R16" s="89"/>
-      <c r="S16" s="89"/>
-      <c r="T16" s="89"/>
-      <c r="U16" s="89"/>
-      <c r="V16" s="89"/>
-      <c r="W16" s="89"/>
+      <c r="O16" s="114"/>
+      <c r="P16" s="114"/>
+      <c r="Q16" s="114"/>
+      <c r="R16" s="114"/>
+      <c r="S16" s="114"/>
+      <c r="T16" s="114"/>
+      <c r="U16" s="114"/>
+      <c r="V16" s="114"/>
+      <c r="W16" s="114"/>
       <c r="X16" s="12"/>
       <c r="Y16" s="8" t="s">
         <v>27</v>
@@ -10339,57 +10339,57 @@
     </row>
     <row r="17" spans="1:25" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="4"/>
-      <c r="B17" s="84"/>
-      <c r="C17" s="84"/>
-      <c r="D17" s="83" t="s">
+      <c r="B17" s="113"/>
+      <c r="C17" s="113"/>
+      <c r="D17" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="83"/>
-      <c r="F17" s="83" t="s">
+      <c r="E17" s="103"/>
+      <c r="F17" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="83"/>
-      <c r="H17" s="83" t="s">
+      <c r="G17" s="103"/>
+      <c r="H17" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="I17" s="83"/>
-      <c r="J17" s="83" t="s">
+      <c r="I17" s="103"/>
+      <c r="J17" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="K17" s="83"/>
-      <c r="L17" s="83" t="s">
+      <c r="K17" s="103"/>
+      <c r="L17" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="M17" s="83"/>
-      <c r="N17" s="83" t="s">
+      <c r="M17" s="103"/>
+      <c r="N17" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="O17" s="83"/>
-      <c r="P17" s="83" t="s">
+      <c r="O17" s="103"/>
+      <c r="P17" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="Q17" s="83"/>
-      <c r="R17" s="83" t="s">
+      <c r="Q17" s="103"/>
+      <c r="R17" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="S17" s="83"/>
-      <c r="T17" s="83" t="s">
+      <c r="S17" s="103"/>
+      <c r="T17" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="U17" s="83"/>
-      <c r="V17" s="83" t="s">
+      <c r="U17" s="103"/>
+      <c r="V17" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="W17" s="83"/>
+      <c r="W17" s="103"/>
       <c r="X17" s="12"/>
-      <c r="Y17" s="85" t="s">
+      <c r="Y17" s="112" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="4"/>
-      <c r="B18" s="84"/>
-      <c r="C18" s="84"/>
+      <c r="B18" s="113"/>
+      <c r="C18" s="113"/>
       <c r="D18" s="5" t="s">
         <v>14</v>
       </c>
@@ -10451,14 +10451,14 @@
         <v>15</v>
       </c>
       <c r="X18" s="12"/>
-      <c r="Y18" s="85"/>
+      <c r="Y18" s="112"/>
     </row>
     <row r="19" spans="1:25" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="4"/>
-      <c r="B19" s="88" t="s">
+      <c r="B19" s="115" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="88"/>
+      <c r="C19" s="115"/>
       <c r="D19" s="69" t="str">
         <f>TEXT(ROUND(L12/$C$4/5*100, 2), "0.00") &amp; "%"</f>
         <v>2.92%</v>
@@ -10547,10 +10547,10 @@
     </row>
     <row r="20" spans="1:25" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" s="4"/>
-      <c r="B20" s="88" t="s">
+      <c r="B20" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="88"/>
+      <c r="C20" s="115"/>
       <c r="D20" s="69" t="str">
         <f>TEXT(ROUND(L13/$C$4/5*100, 2), "0.00") &amp; "%"</f>
         <v>4.38%</v>
@@ -10639,10 +10639,10 @@
     </row>
     <row r="21" spans="1:25" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="4"/>
-      <c r="B21" s="88" t="s">
+      <c r="B21" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="88"/>
+      <c r="C21" s="115"/>
       <c r="D21" s="69" t="str">
         <f>TEXT(ROUND(L14/$C$4/5*100, 2), "0.00") &amp; "%"</f>
         <v>7.30%</v>
@@ -10731,10 +10731,10 @@
     </row>
     <row r="22" spans="1:25" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="4"/>
-      <c r="B22" s="88" t="s">
+      <c r="B22" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="88"/>
+      <c r="C22" s="115"/>
       <c r="D22" s="69" t="str">
         <f>TEXT(ROUND(L15/$C$4/5*100, 2), "0.00") &amp; "%"</f>
         <v>14.62%</v>
@@ -10849,29 +10849,29 @@
         <f>$C$4*C26</f>
         <v>13785849.184900001</v>
       </c>
-      <c r="D24" s="86" t="str">
+      <c r="D24" s="102" t="str">
         <f>"2035 - 2045 : "&amp;$C25*100&amp;"% " &amp; B25</f>
         <v>2035 - 2045 : 30% BTC 10Y CAGR</v>
       </c>
-      <c r="E24" s="86"/>
-      <c r="F24" s="86"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="86"/>
-      <c r="I24" s="86"/>
-      <c r="J24" s="86"/>
-      <c r="K24" s="86"/>
-      <c r="L24" s="86"/>
-      <c r="M24" s="86"/>
-      <c r="N24" s="86"/>
-      <c r="O24" s="86"/>
-      <c r="P24" s="86"/>
-      <c r="Q24" s="86"/>
-      <c r="R24" s="86"/>
-      <c r="S24" s="86"/>
-      <c r="T24" s="86"/>
-      <c r="U24" s="86"/>
-      <c r="V24" s="86"/>
-      <c r="W24" s="86"/>
+      <c r="E24" s="102"/>
+      <c r="F24" s="102"/>
+      <c r="G24" s="102"/>
+      <c r="H24" s="102"/>
+      <c r="I24" s="102"/>
+      <c r="J24" s="102"/>
+      <c r="K24" s="102"/>
+      <c r="L24" s="102"/>
+      <c r="M24" s="102"/>
+      <c r="N24" s="102"/>
+      <c r="O24" s="102"/>
+      <c r="P24" s="102"/>
+      <c r="Q24" s="102"/>
+      <c r="R24" s="102"/>
+      <c r="S24" s="102"/>
+      <c r="T24" s="102"/>
+      <c r="U24" s="102"/>
+      <c r="V24" s="102"/>
+      <c r="W24" s="102"/>
       <c r="X24" s="2"/>
     </row>
     <row r="25" spans="1:25" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -10883,46 +10883,46 @@
       <c r="C25" s="16">
         <v>0.3</v>
       </c>
-      <c r="D25" s="83" t="s">
+      <c r="D25" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="83"/>
-      <c r="F25" s="83" t="s">
+      <c r="E25" s="103"/>
+      <c r="F25" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="G25" s="83"/>
-      <c r="H25" s="83" t="s">
+      <c r="G25" s="103"/>
+      <c r="H25" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="I25" s="83"/>
-      <c r="J25" s="83" t="s">
+      <c r="I25" s="103"/>
+      <c r="J25" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="K25" s="83"/>
-      <c r="L25" s="83" t="s">
+      <c r="K25" s="103"/>
+      <c r="L25" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="M25" s="83"/>
-      <c r="N25" s="83" t="s">
+      <c r="M25" s="103"/>
+      <c r="N25" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="O25" s="83"/>
-      <c r="P25" s="83" t="s">
+      <c r="O25" s="103"/>
+      <c r="P25" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="Q25" s="83"/>
-      <c r="R25" s="83" t="s">
+      <c r="Q25" s="103"/>
+      <c r="R25" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="S25" s="83"/>
-      <c r="T25" s="83" t="s">
+      <c r="S25" s="103"/>
+      <c r="T25" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="U25" s="83"/>
-      <c r="V25" s="83" t="s">
+      <c r="U25" s="103"/>
+      <c r="V25" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="W25" s="83"/>
+      <c r="W25" s="103"/>
       <c r="X25" s="2"/>
     </row>
     <row r="26" spans="1:25" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -10935,56 +10935,56 @@
         <f>V8</f>
         <v>1378584.9184900001</v>
       </c>
-      <c r="D26" s="93">
+      <c r="D26" s="104">
         <f>C26*C25+C26</f>
         <v>1792160.3940370001</v>
       </c>
-      <c r="E26" s="93"/>
-      <c r="F26" s="93">
+      <c r="E26" s="104"/>
+      <c r="F26" s="104">
         <f>D26*C25+D26</f>
         <v>2329808.5122481002</v>
       </c>
-      <c r="G26" s="93"/>
-      <c r="H26" s="93">
+      <c r="G26" s="104"/>
+      <c r="H26" s="104">
         <f>F26*$C25+F26</f>
         <v>3028751.0659225304</v>
       </c>
-      <c r="I26" s="93"/>
-      <c r="J26" s="93">
+      <c r="I26" s="104"/>
+      <c r="J26" s="104">
         <f>H26*$C25+H26</f>
         <v>3937376.3856992894</v>
       </c>
-      <c r="K26" s="93"/>
-      <c r="L26" s="93">
+      <c r="K26" s="104"/>
+      <c r="L26" s="104">
         <f>J26*$C25+J26</f>
         <v>5118589.301409076</v>
       </c>
-      <c r="M26" s="93"/>
-      <c r="N26" s="93">
+      <c r="M26" s="104"/>
+      <c r="N26" s="104">
         <f>L26*$C25+L26</f>
         <v>6654166.0918317987</v>
       </c>
-      <c r="O26" s="93"/>
-      <c r="P26" s="93">
+      <c r="O26" s="104"/>
+      <c r="P26" s="104">
         <f>N26*$C25+N26</f>
         <v>8650415.9193813391</v>
       </c>
-      <c r="Q26" s="93"/>
-      <c r="R26" s="93">
+      <c r="Q26" s="104"/>
+      <c r="R26" s="104">
         <f>P26*$C25+P26</f>
         <v>11245540.69519574</v>
       </c>
-      <c r="S26" s="93"/>
-      <c r="T26" s="93">
+      <c r="S26" s="104"/>
+      <c r="T26" s="104">
         <f>R26*$C25+R26</f>
         <v>14619202.903754462</v>
       </c>
-      <c r="U26" s="93"/>
-      <c r="V26" s="93">
+      <c r="U26" s="104"/>
+      <c r="V26" s="104">
         <f>T26*$C25+T26</f>
         <v>19004963.7748808</v>
       </c>
-      <c r="W26" s="93"/>
+      <c r="W26" s="104"/>
       <c r="X26" s="2"/>
     </row>
     <row r="27" spans="1:25" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -10997,152 +10997,152 @@
         <f>C26*21000000</f>
         <v>28950283288290</v>
       </c>
-      <c r="D27" s="94">
+      <c r="D27" s="105">
         <f>D26*21000000</f>
         <v>37635368274777</v>
       </c>
-      <c r="E27" s="94"/>
-      <c r="F27" s="94">
+      <c r="E27" s="105"/>
+      <c r="F27" s="105">
         <f>F26*21000000</f>
         <v>48925978757210.102</v>
       </c>
-      <c r="G27" s="94"/>
-      <c r="H27" s="94">
+      <c r="G27" s="105"/>
+      <c r="H27" s="105">
         <f>H26*21000000</f>
         <v>63603772384373.141</v>
       </c>
-      <c r="I27" s="94"/>
-      <c r="J27" s="94">
+      <c r="I27" s="105"/>
+      <c r="J27" s="105">
         <f>J26*21000000</f>
         <v>82684904099685.078</v>
       </c>
-      <c r="K27" s="94"/>
-      <c r="L27" s="94">
+      <c r="K27" s="105"/>
+      <c r="L27" s="105">
         <f>L26*21000000</f>
         <v>107490375329590.59</v>
       </c>
-      <c r="M27" s="94"/>
-      <c r="N27" s="94">
+      <c r="M27" s="105"/>
+      <c r="N27" s="105">
         <f>N26*21000000</f>
         <v>139737487928467.77</v>
       </c>
-      <c r="O27" s="94"/>
-      <c r="P27" s="94">
+      <c r="O27" s="105"/>
+      <c r="P27" s="105">
         <f>P26*21000000</f>
         <v>181658734307008.13</v>
       </c>
-      <c r="Q27" s="94"/>
-      <c r="R27" s="94">
+      <c r="Q27" s="105"/>
+      <c r="R27" s="105">
         <f>R26*21000000</f>
         <v>236156354599110.53</v>
       </c>
-      <c r="S27" s="94"/>
-      <c r="T27" s="94">
+      <c r="S27" s="105"/>
+      <c r="T27" s="105">
         <f>T26*21000000</f>
         <v>307003260978843.69</v>
       </c>
-      <c r="U27" s="94"/>
-      <c r="V27" s="94">
+      <c r="U27" s="105"/>
+      <c r="V27" s="105">
         <f>V26*21000000</f>
         <v>399104239272496.81</v>
       </c>
-      <c r="W27" s="94"/>
+      <c r="W27" s="105"/>
       <c r="X27" s="2"/>
     </row>
     <row r="28" spans="1:25" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A28" s="4"/>
-      <c r="B28" s="97" t="s">
+      <c r="B28" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="99" t="s">
+      <c r="C28" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="95" t="s">
+      <c r="D28" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="95" t="s">
+      <c r="E28" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="95" t="s">
+      <c r="F28" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="G28" s="95" t="s">
+      <c r="G28" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="H28" s="95" t="s">
+      <c r="H28" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="I28" s="95" t="s">
+      <c r="I28" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="J28" s="95" t="s">
+      <c r="J28" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="K28" s="95" t="s">
+      <c r="K28" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="L28" s="95" t="s">
+      <c r="L28" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="M28" s="95" t="s">
+      <c r="M28" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="N28" s="95" t="s">
+      <c r="N28" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="O28" s="95" t="s">
+      <c r="O28" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="P28" s="95" t="s">
+      <c r="P28" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="Q28" s="95" t="s">
+      <c r="Q28" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="R28" s="95" t="s">
+      <c r="R28" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="S28" s="95" t="s">
+      <c r="S28" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="T28" s="95" t="s">
+      <c r="T28" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="U28" s="95" t="s">
+      <c r="U28" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="V28" s="95" t="s">
+      <c r="V28" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="W28" s="95" t="s">
+      <c r="W28" s="106" t="s">
         <v>15</v>
       </c>
       <c r="X28" s="2"/>
     </row>
     <row r="29" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="4"/>
-      <c r="B29" s="98"/>
-      <c r="C29" s="100"/>
-      <c r="D29" s="96"/>
-      <c r="E29" s="96"/>
-      <c r="F29" s="96"/>
-      <c r="G29" s="96"/>
-      <c r="H29" s="96"/>
-      <c r="I29" s="96"/>
-      <c r="J29" s="96"/>
-      <c r="K29" s="96"/>
-      <c r="L29" s="96"/>
-      <c r="M29" s="96"/>
-      <c r="N29" s="96"/>
-      <c r="O29" s="96"/>
-      <c r="P29" s="96"/>
-      <c r="Q29" s="96"/>
-      <c r="R29" s="96"/>
-      <c r="S29" s="96"/>
-      <c r="T29" s="96"/>
-      <c r="U29" s="96"/>
-      <c r="V29" s="96"/>
-      <c r="W29" s="96"/>
+      <c r="B29" s="109"/>
+      <c r="C29" s="111"/>
+      <c r="D29" s="107"/>
+      <c r="E29" s="107"/>
+      <c r="F29" s="107"/>
+      <c r="G29" s="107"/>
+      <c r="H29" s="107"/>
+      <c r="I29" s="107"/>
+      <c r="J29" s="107"/>
+      <c r="K29" s="107"/>
+      <c r="L29" s="107"/>
+      <c r="M29" s="107"/>
+      <c r="N29" s="107"/>
+      <c r="O29" s="107"/>
+      <c r="P29" s="107"/>
+      <c r="Q29" s="107"/>
+      <c r="R29" s="107"/>
+      <c r="S29" s="107"/>
+      <c r="T29" s="107"/>
+      <c r="U29" s="107"/>
+      <c r="V29" s="107"/>
+      <c r="W29" s="107"/>
       <c r="X29" s="2"/>
     </row>
     <row r="30" spans="1:25" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -11508,34 +11508,34 @@
     </row>
     <row r="34" spans="1:25" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="4"/>
-      <c r="B34" s="84" t="s">
+      <c r="B34" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="84"/>
-      <c r="D34" s="89" t="s">
+      <c r="C34" s="113"/>
+      <c r="D34" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="E34" s="89"/>
-      <c r="F34" s="89"/>
-      <c r="G34" s="89"/>
-      <c r="H34" s="89"/>
-      <c r="I34" s="89"/>
-      <c r="J34" s="89"/>
-      <c r="K34" s="89"/>
-      <c r="L34" s="89"/>
-      <c r="M34" s="89"/>
-      <c r="N34" s="89" t="s">
+      <c r="E34" s="114"/>
+      <c r="F34" s="114"/>
+      <c r="G34" s="114"/>
+      <c r="H34" s="114"/>
+      <c r="I34" s="114"/>
+      <c r="J34" s="114"/>
+      <c r="K34" s="114"/>
+      <c r="L34" s="114"/>
+      <c r="M34" s="114"/>
+      <c r="N34" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="O34" s="89"/>
-      <c r="P34" s="89"/>
-      <c r="Q34" s="89"/>
-      <c r="R34" s="89"/>
-      <c r="S34" s="89"/>
-      <c r="T34" s="89"/>
-      <c r="U34" s="89"/>
-      <c r="V34" s="89"/>
-      <c r="W34" s="89"/>
+      <c r="O34" s="114"/>
+      <c r="P34" s="114"/>
+      <c r="Q34" s="114"/>
+      <c r="R34" s="114"/>
+      <c r="S34" s="114"/>
+      <c r="T34" s="114"/>
+      <c r="U34" s="114"/>
+      <c r="V34" s="114"/>
+      <c r="W34" s="114"/>
       <c r="X34" s="2"/>
       <c r="Y34" s="8" t="s">
         <v>28</v>
@@ -11543,57 +11543,57 @@
     </row>
     <row r="35" spans="1:25" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A35" s="4"/>
-      <c r="B35" s="84"/>
-      <c r="C35" s="84"/>
-      <c r="D35" s="83" t="s">
+      <c r="B35" s="113"/>
+      <c r="C35" s="113"/>
+      <c r="D35" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="E35" s="83"/>
-      <c r="F35" s="83" t="s">
+      <c r="E35" s="103"/>
+      <c r="F35" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="G35" s="83"/>
-      <c r="H35" s="83" t="s">
+      <c r="G35" s="103"/>
+      <c r="H35" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="I35" s="83"/>
-      <c r="J35" s="83" t="s">
+      <c r="I35" s="103"/>
+      <c r="J35" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="K35" s="83"/>
-      <c r="L35" s="83" t="s">
+      <c r="K35" s="103"/>
+      <c r="L35" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="M35" s="83"/>
-      <c r="N35" s="83" t="s">
+      <c r="M35" s="103"/>
+      <c r="N35" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="O35" s="83"/>
-      <c r="P35" s="83" t="s">
+      <c r="O35" s="103"/>
+      <c r="P35" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="Q35" s="83"/>
-      <c r="R35" s="83" t="s">
+      <c r="Q35" s="103"/>
+      <c r="R35" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="S35" s="83"/>
-      <c r="T35" s="83" t="s">
+      <c r="S35" s="103"/>
+      <c r="T35" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="U35" s="83"/>
-      <c r="V35" s="83" t="s">
+      <c r="U35" s="103"/>
+      <c r="V35" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="W35" s="83"/>
+      <c r="W35" s="103"/>
       <c r="X35" s="2"/>
-      <c r="Y35" s="85" t="s">
+      <c r="Y35" s="112" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:25" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A36" s="4"/>
-      <c r="B36" s="84"/>
-      <c r="C36" s="84"/>
+      <c r="B36" s="113"/>
+      <c r="C36" s="113"/>
       <c r="D36" s="5" t="s">
         <v>14</v>
       </c>
@@ -11655,14 +11655,14 @@
         <v>15</v>
       </c>
       <c r="X36" s="2"/>
-      <c r="Y36" s="85"/>
+      <c r="Y36" s="112"/>
     </row>
     <row r="37" spans="1:25" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A37" s="4"/>
-      <c r="B37" s="88" t="s">
+      <c r="B37" s="115" t="s">
         <v>56</v>
       </c>
-      <c r="C37" s="88"/>
+      <c r="C37" s="115"/>
       <c r="D37" s="69" t="str">
         <f>TEXT(ROUND(L30/$C$4/5*100, 2), "0.00") &amp; "%"</f>
         <v>2.92%</v>
@@ -11751,10 +11751,10 @@
     </row>
     <row r="38" spans="1:25" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A38" s="4"/>
-      <c r="B38" s="88" t="s">
+      <c r="B38" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="88"/>
+      <c r="C38" s="115"/>
       <c r="D38" s="69" t="str">
         <f>TEXT(ROUND(L31/$C$4/5*100, 2), "0.00") &amp; "%"</f>
         <v>4.38%</v>
@@ -11842,10 +11842,10 @@
       </c>
     </row>
     <row r="39" spans="1:25" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B39" s="88" t="s">
+      <c r="B39" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="88"/>
+      <c r="C39" s="115"/>
       <c r="D39" s="69" t="str">
         <f>TEXT(ROUND(L32/$C$4/5*100, 2), "0.00") &amp; "%"</f>
         <v>7.30%</v>
@@ -11933,10 +11933,10 @@
     </row>
     <row r="40" spans="1:25" s="3" customFormat="1" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A40" s="1"/>
-      <c r="B40" s="88" t="s">
+      <c r="B40" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="C40" s="88"/>
+      <c r="C40" s="115"/>
       <c r="D40" s="69" t="str">
         <f>TEXT(ROUND(L33/$C$4/5*100, 2), "0.00") &amp; "%"</f>
         <v>14.62%</v>
@@ -12085,6 +12085,15 @@
     <mergeCell ref="N34:W34"/>
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="F35:G35"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="S28:S29"/>
+    <mergeCell ref="T28:T29"/>
+    <mergeCell ref="U28:U29"/>
+    <mergeCell ref="V28:V29"/>
     <mergeCell ref="M28:M29"/>
     <mergeCell ref="N28:N29"/>
     <mergeCell ref="O28:O29"/>
@@ -12097,23 +12106,6 @@
     <mergeCell ref="J28:J29"/>
     <mergeCell ref="K28:K29"/>
     <mergeCell ref="L28:L29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="S28:S29"/>
-    <mergeCell ref="T28:T29"/>
-    <mergeCell ref="U28:U29"/>
-    <mergeCell ref="V28:V29"/>
-    <mergeCell ref="V26:W26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P27:Q27"/>
     <mergeCell ref="R27:S27"/>
     <mergeCell ref="T27:U27"/>
     <mergeCell ref="V27:W27"/>
@@ -12142,6 +12134,14 @@
     <mergeCell ref="R25:S25"/>
     <mergeCell ref="T25:U25"/>
     <mergeCell ref="V25:W25"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P27:Q27"/>
     <mergeCell ref="N17:O17"/>
     <mergeCell ref="P17:Q17"/>
     <mergeCell ref="R17:S17"/>
@@ -12220,8 +12220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0085EA7-8FF9-48C2-BA33-21228DD254FC}">
   <dimension ref="A1:Y41"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:W4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.85" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -12268,28 +12268,28 @@
       <c r="C2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="87" t="s">
+      <c r="D2" s="101" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
-      <c r="N2" s="87"/>
-      <c r="O2" s="87"/>
-      <c r="P2" s="87"/>
-      <c r="Q2" s="87"/>
-      <c r="R2" s="87"/>
-      <c r="S2" s="87"/>
-      <c r="T2" s="87"/>
-      <c r="U2" s="87"/>
-      <c r="V2" s="87"/>
-      <c r="W2" s="87"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="101"/>
+      <c r="O2" s="101"/>
+      <c r="P2" s="101"/>
+      <c r="Q2" s="101"/>
+      <c r="R2" s="101"/>
+      <c r="S2" s="101"/>
+      <c r="T2" s="101"/>
+      <c r="U2" s="101"/>
+      <c r="V2" s="101"/>
+      <c r="W2" s="101"/>
       <c r="X2" s="12"/>
       <c r="Y2" s="13">
         <v>45891</v>
@@ -12304,26 +12304,26 @@
       <c r="C3" s="14">
         <v>21000000</v>
       </c>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="87"/>
-      <c r="Q3" s="87"/>
-      <c r="R3" s="87"/>
-      <c r="S3" s="87"/>
-      <c r="T3" s="87"/>
-      <c r="U3" s="87"/>
-      <c r="V3" s="87"/>
-      <c r="W3" s="87"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
+      <c r="N3" s="101"/>
+      <c r="O3" s="101"/>
+      <c r="P3" s="101"/>
+      <c r="Q3" s="101"/>
+      <c r="R3" s="101"/>
+      <c r="S3" s="101"/>
+      <c r="T3" s="101"/>
+      <c r="U3" s="101"/>
+      <c r="V3" s="101"/>
+      <c r="W3" s="101"/>
       <c r="X3" s="12"/>
       <c r="Y3" s="15" t="s">
         <v>25</v>
@@ -12337,26 +12337,26 @@
       <c r="C4" s="11">
         <v>10</v>
       </c>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
-      <c r="N4" s="87"/>
-      <c r="O4" s="87"/>
-      <c r="P4" s="87"/>
-      <c r="Q4" s="87"/>
-      <c r="R4" s="87"/>
-      <c r="S4" s="87"/>
-      <c r="T4" s="87"/>
-      <c r="U4" s="87"/>
-      <c r="V4" s="87"/>
-      <c r="W4" s="87"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
+      <c r="N4" s="101"/>
+      <c r="O4" s="101"/>
+      <c r="P4" s="101"/>
+      <c r="Q4" s="101"/>
+      <c r="R4" s="101"/>
+      <c r="S4" s="101"/>
+      <c r="T4" s="101"/>
+      <c r="U4" s="101"/>
+      <c r="V4" s="101"/>
+      <c r="W4" s="101"/>
       <c r="X4" s="12"/>
       <c r="Y4" s="15"/>
     </row>
@@ -12393,29 +12393,29 @@
         <f>$C$4*C8</f>
         <v>1000000</v>
       </c>
-      <c r="D6" s="86" t="str">
+      <c r="D6" s="102" t="str">
         <f>"2025 - 2035 : "&amp;$C7*100&amp;"% " &amp; B7</f>
         <v>2025 - 2035 : 35% BTC 10Y CAGR</v>
       </c>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="86"/>
-      <c r="N6" s="86"/>
-      <c r="O6" s="86"/>
-      <c r="P6" s="86"/>
-      <c r="Q6" s="86"/>
-      <c r="R6" s="86"/>
-      <c r="S6" s="86"/>
-      <c r="T6" s="86"/>
-      <c r="U6" s="86"/>
-      <c r="V6" s="86"/>
-      <c r="W6" s="86"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102"/>
+      <c r="N6" s="102"/>
+      <c r="O6" s="102"/>
+      <c r="P6" s="102"/>
+      <c r="Q6" s="102"/>
+      <c r="R6" s="102"/>
+      <c r="S6" s="102"/>
+      <c r="T6" s="102"/>
+      <c r="U6" s="102"/>
+      <c r="V6" s="102"/>
+      <c r="W6" s="102"/>
       <c r="X6" s="2"/>
       <c r="Y6" s="23"/>
     </row>
@@ -12428,46 +12428,46 @@
       <c r="C7" s="16">
         <v>0.35</v>
       </c>
-      <c r="D7" s="83" t="s">
+      <c r="D7" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83" t="s">
+      <c r="E7" s="103"/>
+      <c r="F7" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83" t="s">
+      <c r="G7" s="103"/>
+      <c r="H7" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="83"/>
-      <c r="J7" s="83" t="s">
+      <c r="I7" s="103"/>
+      <c r="J7" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="83"/>
-      <c r="L7" s="83" t="s">
+      <c r="K7" s="103"/>
+      <c r="L7" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="83"/>
-      <c r="N7" s="83" t="s">
+      <c r="M7" s="103"/>
+      <c r="N7" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="O7" s="83"/>
-      <c r="P7" s="83" t="s">
+      <c r="O7" s="103"/>
+      <c r="P7" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="Q7" s="83"/>
-      <c r="R7" s="83" t="s">
+      <c r="Q7" s="103"/>
+      <c r="R7" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="S7" s="83"/>
-      <c r="T7" s="83" t="s">
+      <c r="S7" s="103"/>
+      <c r="T7" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="U7" s="83"/>
-      <c r="V7" s="83" t="s">
+      <c r="U7" s="103"/>
+      <c r="V7" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="W7" s="83"/>
+      <c r="W7" s="103"/>
       <c r="X7" s="2"/>
       <c r="Y7" s="17"/>
     </row>
@@ -12480,56 +12480,56 @@
       <c r="C8" s="7">
         <v>100000</v>
       </c>
-      <c r="D8" s="93">
+      <c r="D8" s="104">
         <f>C8*C7+C8</f>
         <v>135000</v>
       </c>
-      <c r="E8" s="93"/>
-      <c r="F8" s="93">
+      <c r="E8" s="104"/>
+      <c r="F8" s="104">
         <f>D8*C7+D8</f>
         <v>182250</v>
       </c>
-      <c r="G8" s="93"/>
-      <c r="H8" s="93">
+      <c r="G8" s="104"/>
+      <c r="H8" s="104">
         <f>F8*C7+F8</f>
         <v>246037.5</v>
       </c>
-      <c r="I8" s="93"/>
-      <c r="J8" s="93">
+      <c r="I8" s="104"/>
+      <c r="J8" s="104">
         <f>H8*C7+H8</f>
         <v>332150.625</v>
       </c>
-      <c r="K8" s="93"/>
-      <c r="L8" s="93">
+      <c r="K8" s="104"/>
+      <c r="L8" s="104">
         <f>J8*C7+J8</f>
         <v>448403.34375</v>
       </c>
-      <c r="M8" s="93"/>
-      <c r="N8" s="93">
+      <c r="M8" s="104"/>
+      <c r="N8" s="104">
         <f>L8*C7+L8</f>
         <v>605344.51406249998</v>
       </c>
-      <c r="O8" s="93"/>
-      <c r="P8" s="93">
+      <c r="O8" s="104"/>
+      <c r="P8" s="104">
         <f>N8*C7+N8</f>
         <v>817215.09398437501</v>
       </c>
-      <c r="Q8" s="93"/>
-      <c r="R8" s="93">
+      <c r="Q8" s="104"/>
+      <c r="R8" s="104">
         <f>P8*C7+P8</f>
         <v>1103240.3768789063</v>
       </c>
-      <c r="S8" s="93"/>
-      <c r="T8" s="93">
+      <c r="S8" s="104"/>
+      <c r="T8" s="104">
         <f>R8*C7+R8</f>
         <v>1489374.5087865235</v>
       </c>
-      <c r="U8" s="93"/>
-      <c r="V8" s="93">
+      <c r="U8" s="104"/>
+      <c r="V8" s="104">
         <f>T8*C7+T8</f>
         <v>2010655.5868618067</v>
       </c>
-      <c r="W8" s="93"/>
+      <c r="W8" s="104"/>
       <c r="X8" s="2"/>
     </row>
     <row r="9" spans="1:25" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -12542,152 +12542,152 @@
         <f>C8*$C$3</f>
         <v>2100000000000</v>
       </c>
-      <c r="D9" s="94">
+      <c r="D9" s="105">
         <f>D8*$C$3</f>
         <v>2835000000000</v>
       </c>
-      <c r="E9" s="94"/>
-      <c r="F9" s="94">
+      <c r="E9" s="105"/>
+      <c r="F9" s="105">
         <f>F8*$C$3</f>
         <v>3827250000000</v>
       </c>
-      <c r="G9" s="94"/>
-      <c r="H9" s="94">
+      <c r="G9" s="105"/>
+      <c r="H9" s="105">
         <f>H8*$C$3</f>
         <v>5166787500000</v>
       </c>
-      <c r="I9" s="94"/>
-      <c r="J9" s="94">
+      <c r="I9" s="105"/>
+      <c r="J9" s="105">
         <f>J8*$C$3</f>
         <v>6975163125000</v>
       </c>
-      <c r="K9" s="94"/>
-      <c r="L9" s="94">
+      <c r="K9" s="105"/>
+      <c r="L9" s="105">
         <f>L8*$C$3</f>
         <v>9416470218750</v>
       </c>
-      <c r="M9" s="94"/>
-      <c r="N9" s="94">
+      <c r="M9" s="105"/>
+      <c r="N9" s="105">
         <f>N8*$C$3</f>
         <v>12712234795312.5</v>
       </c>
-      <c r="O9" s="94"/>
-      <c r="P9" s="94">
+      <c r="O9" s="105"/>
+      <c r="P9" s="105">
         <f>P8*$C$3</f>
         <v>17161516973671.875</v>
       </c>
-      <c r="Q9" s="94"/>
-      <c r="R9" s="94">
+      <c r="Q9" s="105"/>
+      <c r="R9" s="105">
         <f>R8*$C$3</f>
         <v>23168047914457.031</v>
       </c>
-      <c r="S9" s="94"/>
-      <c r="T9" s="94">
+      <c r="S9" s="105"/>
+      <c r="T9" s="105">
         <f>T8*$C$3</f>
         <v>31276864684516.992</v>
       </c>
-      <c r="U9" s="94"/>
-      <c r="V9" s="94">
+      <c r="U9" s="105"/>
+      <c r="V9" s="105">
         <f>V8*$C$3</f>
         <v>42223767324097.938</v>
       </c>
-      <c r="W9" s="94"/>
+      <c r="W9" s="105"/>
       <c r="X9" s="2"/>
     </row>
     <row r="10" spans="1:25" ht="15.85" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A10" s="4"/>
-      <c r="B10" s="97" t="s">
+      <c r="B10" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="99" t="s">
+      <c r="C10" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="95" t="s">
+      <c r="D10" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="95" t="s">
+      <c r="E10" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="95" t="s">
+      <c r="F10" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="95" t="s">
+      <c r="G10" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="95" t="s">
+      <c r="H10" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="95" t="s">
+      <c r="I10" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="95" t="s">
+      <c r="J10" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="95" t="s">
+      <c r="K10" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="L10" s="95" t="s">
+      <c r="L10" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="M10" s="95" t="s">
+      <c r="M10" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="N10" s="95" t="s">
+      <c r="N10" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="O10" s="95" t="s">
+      <c r="O10" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="P10" s="95" t="s">
+      <c r="P10" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="Q10" s="95" t="s">
+      <c r="Q10" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="R10" s="95" t="s">
+      <c r="R10" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="S10" s="95" t="s">
+      <c r="S10" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="T10" s="95" t="s">
+      <c r="T10" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="U10" s="95" t="s">
+      <c r="U10" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="V10" s="95" t="s">
+      <c r="V10" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="W10" s="95" t="s">
+      <c r="W10" s="106" t="s">
         <v>15</v>
       </c>
       <c r="X10" s="2"/>
     </row>
     <row r="11" spans="1:25" ht="15.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="4"/>
-      <c r="B11" s="98"/>
-      <c r="C11" s="100"/>
-      <c r="D11" s="96"/>
-      <c r="E11" s="96"/>
-      <c r="F11" s="96"/>
-      <c r="G11" s="96"/>
-      <c r="H11" s="96"/>
-      <c r="I11" s="96"/>
-      <c r="J11" s="96"/>
-      <c r="K11" s="96"/>
-      <c r="L11" s="96"/>
-      <c r="M11" s="96"/>
-      <c r="N11" s="96"/>
-      <c r="O11" s="96"/>
-      <c r="P11" s="96"/>
-      <c r="Q11" s="96"/>
-      <c r="R11" s="96"/>
-      <c r="S11" s="96"/>
-      <c r="T11" s="96"/>
-      <c r="U11" s="96"/>
-      <c r="V11" s="96"/>
-      <c r="W11" s="96"/>
+      <c r="B11" s="109"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="107"/>
+      <c r="F11" s="107"/>
+      <c r="G11" s="107"/>
+      <c r="H11" s="107"/>
+      <c r="I11" s="107"/>
+      <c r="J11" s="107"/>
+      <c r="K11" s="107"/>
+      <c r="L11" s="107"/>
+      <c r="M11" s="107"/>
+      <c r="N11" s="107"/>
+      <c r="O11" s="107"/>
+      <c r="P11" s="107"/>
+      <c r="Q11" s="107"/>
+      <c r="R11" s="107"/>
+      <c r="S11" s="107"/>
+      <c r="T11" s="107"/>
+      <c r="U11" s="107"/>
+      <c r="V11" s="107"/>
+      <c r="W11" s="107"/>
       <c r="X11" s="2"/>
     </row>
     <row r="12" spans="1:25" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -13054,34 +13054,34 @@
     </row>
     <row r="16" spans="1:25" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="4"/>
-      <c r="B16" s="84" t="s">
+      <c r="B16" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="84"/>
-      <c r="D16" s="89" t="s">
+      <c r="C16" s="113"/>
+      <c r="D16" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="89"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="89"/>
-      <c r="I16" s="89"/>
-      <c r="J16" s="89"/>
-      <c r="K16" s="89"/>
-      <c r="L16" s="89"/>
-      <c r="M16" s="89"/>
-      <c r="N16" s="89" t="s">
+      <c r="E16" s="114"/>
+      <c r="F16" s="114"/>
+      <c r="G16" s="114"/>
+      <c r="H16" s="114"/>
+      <c r="I16" s="114"/>
+      <c r="J16" s="114"/>
+      <c r="K16" s="114"/>
+      <c r="L16" s="114"/>
+      <c r="M16" s="114"/>
+      <c r="N16" s="114" t="s">
         <v>42</v>
       </c>
-      <c r="O16" s="89"/>
-      <c r="P16" s="89"/>
-      <c r="Q16" s="89"/>
-      <c r="R16" s="89"/>
-      <c r="S16" s="89"/>
-      <c r="T16" s="89"/>
-      <c r="U16" s="89"/>
-      <c r="V16" s="89"/>
-      <c r="W16" s="89"/>
+      <c r="O16" s="114"/>
+      <c r="P16" s="114"/>
+      <c r="Q16" s="114"/>
+      <c r="R16" s="114"/>
+      <c r="S16" s="114"/>
+      <c r="T16" s="114"/>
+      <c r="U16" s="114"/>
+      <c r="V16" s="114"/>
+      <c r="W16" s="114"/>
       <c r="X16" s="12"/>
       <c r="Y16" s="8" t="s">
         <v>27</v>
@@ -13089,57 +13089,57 @@
     </row>
     <row r="17" spans="1:25" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="4"/>
-      <c r="B17" s="84"/>
-      <c r="C17" s="84"/>
-      <c r="D17" s="83" t="s">
+      <c r="B17" s="113"/>
+      <c r="C17" s="113"/>
+      <c r="D17" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="83"/>
-      <c r="F17" s="83" t="s">
+      <c r="E17" s="103"/>
+      <c r="F17" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="83"/>
-      <c r="H17" s="83" t="s">
+      <c r="G17" s="103"/>
+      <c r="H17" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="I17" s="83"/>
-      <c r="J17" s="83" t="s">
+      <c r="I17" s="103"/>
+      <c r="J17" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="K17" s="83"/>
-      <c r="L17" s="83" t="s">
+      <c r="K17" s="103"/>
+      <c r="L17" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="M17" s="83"/>
-      <c r="N17" s="83" t="s">
+      <c r="M17" s="103"/>
+      <c r="N17" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="O17" s="83"/>
-      <c r="P17" s="83" t="s">
+      <c r="O17" s="103"/>
+      <c r="P17" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="Q17" s="83"/>
-      <c r="R17" s="83" t="s">
+      <c r="Q17" s="103"/>
+      <c r="R17" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="S17" s="83"/>
-      <c r="T17" s="83" t="s">
+      <c r="S17" s="103"/>
+      <c r="T17" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="U17" s="83"/>
-      <c r="V17" s="83" t="s">
+      <c r="U17" s="103"/>
+      <c r="V17" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="W17" s="83"/>
+      <c r="W17" s="103"/>
       <c r="X17" s="12"/>
-      <c r="Y17" s="85" t="s">
+      <c r="Y17" s="112" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="4"/>
-      <c r="B18" s="84"/>
-      <c r="C18" s="84"/>
+      <c r="B18" s="113"/>
+      <c r="C18" s="113"/>
       <c r="D18" s="5" t="s">
         <v>14</v>
       </c>
@@ -13201,14 +13201,14 @@
         <v>15</v>
       </c>
       <c r="X18" s="12"/>
-      <c r="Y18" s="85"/>
+      <c r="Y18" s="112"/>
     </row>
     <row r="19" spans="1:25" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="4"/>
-      <c r="B19" s="88" t="s">
+      <c r="B19" s="115" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="88"/>
+      <c r="C19" s="115"/>
       <c r="D19" s="69" t="str">
         <f>TEXT(ROUND(L12/$C$4/5*100, 2), "0.00") &amp; "%"</f>
         <v>3.10%</v>
@@ -13297,10 +13297,10 @@
     </row>
     <row r="20" spans="1:25" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" s="4"/>
-      <c r="B20" s="88" t="s">
+      <c r="B20" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="88"/>
+      <c r="C20" s="115"/>
       <c r="D20" s="69" t="str">
         <f>TEXT(ROUND(L13/$C$4/5*100, 2), "0.00") &amp; "%"</f>
         <v>4.66%</v>
@@ -13389,10 +13389,10 @@
     </row>
     <row r="21" spans="1:25" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="4"/>
-      <c r="B21" s="88" t="s">
+      <c r="B21" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="88"/>
+      <c r="C21" s="115"/>
       <c r="D21" s="69" t="str">
         <f>TEXT(ROUND(L14/$C$4/5*100, 2), "0.00") &amp; "%"</f>
         <v>7.76%</v>
@@ -13481,10 +13481,10 @@
     </row>
     <row r="22" spans="1:25" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="4"/>
-      <c r="B22" s="88" t="s">
+      <c r="B22" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="88"/>
+      <c r="C22" s="115"/>
       <c r="D22" s="69" t="str">
         <f>TEXT(ROUND(L15/$C$4/5*100, 2), "0.00") &amp; "%"</f>
         <v>15.54%</v>
@@ -13599,29 +13599,29 @@
         <f>$C$4*C26</f>
         <v>20106555.868618067</v>
       </c>
-      <c r="D24" s="86" t="str">
+      <c r="D24" s="102" t="str">
         <f>"2035 - 2045 : "&amp;$C25*100&amp;"% " &amp; B25</f>
         <v>2035 - 2045 : 25% BTC 10Y CAGR</v>
       </c>
-      <c r="E24" s="86"/>
-      <c r="F24" s="86"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="86"/>
-      <c r="I24" s="86"/>
-      <c r="J24" s="86"/>
-      <c r="K24" s="86"/>
-      <c r="L24" s="86"/>
-      <c r="M24" s="86"/>
-      <c r="N24" s="86"/>
-      <c r="O24" s="86"/>
-      <c r="P24" s="86"/>
-      <c r="Q24" s="86"/>
-      <c r="R24" s="86"/>
-      <c r="S24" s="86"/>
-      <c r="T24" s="86"/>
-      <c r="U24" s="86"/>
-      <c r="V24" s="86"/>
-      <c r="W24" s="86"/>
+      <c r="E24" s="102"/>
+      <c r="F24" s="102"/>
+      <c r="G24" s="102"/>
+      <c r="H24" s="102"/>
+      <c r="I24" s="102"/>
+      <c r="J24" s="102"/>
+      <c r="K24" s="102"/>
+      <c r="L24" s="102"/>
+      <c r="M24" s="102"/>
+      <c r="N24" s="102"/>
+      <c r="O24" s="102"/>
+      <c r="P24" s="102"/>
+      <c r="Q24" s="102"/>
+      <c r="R24" s="102"/>
+      <c r="S24" s="102"/>
+      <c r="T24" s="102"/>
+      <c r="U24" s="102"/>
+      <c r="V24" s="102"/>
+      <c r="W24" s="102"/>
       <c r="X24" s="2"/>
     </row>
     <row r="25" spans="1:25" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -13633,46 +13633,46 @@
       <c r="C25" s="16">
         <v>0.25</v>
       </c>
-      <c r="D25" s="83" t="s">
+      <c r="D25" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="83"/>
-      <c r="F25" s="83" t="s">
+      <c r="E25" s="103"/>
+      <c r="F25" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="G25" s="83"/>
-      <c r="H25" s="83" t="s">
+      <c r="G25" s="103"/>
+      <c r="H25" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="I25" s="83"/>
-      <c r="J25" s="83" t="s">
+      <c r="I25" s="103"/>
+      <c r="J25" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="K25" s="83"/>
-      <c r="L25" s="83" t="s">
+      <c r="K25" s="103"/>
+      <c r="L25" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="M25" s="83"/>
-      <c r="N25" s="83" t="s">
+      <c r="M25" s="103"/>
+      <c r="N25" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="O25" s="83"/>
-      <c r="P25" s="83" t="s">
+      <c r="O25" s="103"/>
+      <c r="P25" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="Q25" s="83"/>
-      <c r="R25" s="83" t="s">
+      <c r="Q25" s="103"/>
+      <c r="R25" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="S25" s="83"/>
-      <c r="T25" s="83" t="s">
+      <c r="S25" s="103"/>
+      <c r="T25" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="U25" s="83"/>
-      <c r="V25" s="83" t="s">
+      <c r="U25" s="103"/>
+      <c r="V25" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="W25" s="83"/>
+      <c r="W25" s="103"/>
       <c r="X25" s="2"/>
     </row>
     <row r="26" spans="1:25" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -13685,56 +13685,56 @@
         <f>V8</f>
         <v>2010655.5868618067</v>
       </c>
-      <c r="D26" s="93">
+      <c r="D26" s="104">
         <f>C26*C25+C26</f>
         <v>2513319.4835772584</v>
       </c>
-      <c r="E26" s="93"/>
-      <c r="F26" s="93">
+      <c r="E26" s="104"/>
+      <c r="F26" s="104">
         <f>D26*C25+D26</f>
         <v>3141649.3544715731</v>
       </c>
-      <c r="G26" s="93"/>
-      <c r="H26" s="93">
+      <c r="G26" s="104"/>
+      <c r="H26" s="104">
         <f>F26*$C25+F26</f>
         <v>3927061.6930894665</v>
       </c>
-      <c r="I26" s="93"/>
-      <c r="J26" s="93">
+      <c r="I26" s="104"/>
+      <c r="J26" s="104">
         <f>H26*$C25+H26</f>
         <v>4908827.1163618332</v>
       </c>
-      <c r="K26" s="93"/>
-      <c r="L26" s="93">
+      <c r="K26" s="104"/>
+      <c r="L26" s="104">
         <f>J26*$C25+J26</f>
         <v>6136033.8954522917</v>
       </c>
-      <c r="M26" s="93"/>
-      <c r="N26" s="93">
+      <c r="M26" s="104"/>
+      <c r="N26" s="104">
         <f>L26*$C25+L26</f>
         <v>7670042.3693153644</v>
       </c>
-      <c r="O26" s="93"/>
-      <c r="P26" s="93">
+      <c r="O26" s="104"/>
+      <c r="P26" s="104">
         <f>N26*$C25+N26</f>
         <v>9587552.9616442062</v>
       </c>
-      <c r="Q26" s="93"/>
-      <c r="R26" s="93">
+      <c r="Q26" s="104"/>
+      <c r="R26" s="104">
         <f>P26*$C25+P26</f>
         <v>11984441.202055257</v>
       </c>
-      <c r="S26" s="93"/>
-      <c r="T26" s="93">
+      <c r="S26" s="104"/>
+      <c r="T26" s="104">
         <f>R26*$C25+R26</f>
         <v>14980551.502569072</v>
       </c>
-      <c r="U26" s="93"/>
-      <c r="V26" s="93">
+      <c r="U26" s="104"/>
+      <c r="V26" s="104">
         <f>T26*$C25+T26</f>
         <v>18725689.378211342</v>
       </c>
-      <c r="W26" s="93"/>
+      <c r="W26" s="104"/>
       <c r="X26" s="2"/>
     </row>
     <row r="27" spans="1:25" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -13747,152 +13747,152 @@
         <f>C26*21000000</f>
         <v>42223767324097.938</v>
       </c>
-      <c r="D27" s="94">
+      <c r="D27" s="105">
         <f>D26*21000000</f>
         <v>52779709155122.43</v>
       </c>
-      <c r="E27" s="94"/>
-      <c r="F27" s="94">
+      <c r="E27" s="105"/>
+      <c r="F27" s="105">
         <f>F26*21000000</f>
         <v>65974636443903.039</v>
       </c>
-      <c r="G27" s="94"/>
-      <c r="H27" s="94">
+      <c r="G27" s="105"/>
+      <c r="H27" s="105">
         <f>H26*21000000</f>
         <v>82468295554878.797</v>
       </c>
-      <c r="I27" s="94"/>
-      <c r="J27" s="94">
+      <c r="I27" s="105"/>
+      <c r="J27" s="105">
         <f>J26*21000000</f>
         <v>103085369443598.5</v>
       </c>
-      <c r="K27" s="94"/>
-      <c r="L27" s="94">
+      <c r="K27" s="105"/>
+      <c r="L27" s="105">
         <f>L26*21000000</f>
         <v>128856711804498.13</v>
       </c>
-      <c r="M27" s="94"/>
-      <c r="N27" s="94">
+      <c r="M27" s="105"/>
+      <c r="N27" s="105">
         <f>N26*21000000</f>
         <v>161070889755622.66</v>
       </c>
-      <c r="O27" s="94"/>
-      <c r="P27" s="94">
+      <c r="O27" s="105"/>
+      <c r="P27" s="105">
         <f>P26*21000000</f>
         <v>201338612194528.34</v>
       </c>
-      <c r="Q27" s="94"/>
-      <c r="R27" s="94">
+      <c r="Q27" s="105"/>
+      <c r="R27" s="105">
         <f>R26*21000000</f>
         <v>251673265243160.41</v>
       </c>
-      <c r="S27" s="94"/>
-      <c r="T27" s="94">
+      <c r="S27" s="105"/>
+      <c r="T27" s="105">
         <f>T26*21000000</f>
         <v>314591581553950.5</v>
       </c>
-      <c r="U27" s="94"/>
-      <c r="V27" s="94">
+      <c r="U27" s="105"/>
+      <c r="V27" s="105">
         <f>V26*21000000</f>
         <v>393239476942438.19</v>
       </c>
-      <c r="W27" s="94"/>
+      <c r="W27" s="105"/>
       <c r="X27" s="2"/>
     </row>
     <row r="28" spans="1:25" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A28" s="4"/>
-      <c r="B28" s="97" t="s">
+      <c r="B28" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="99" t="s">
+      <c r="C28" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="95" t="s">
+      <c r="D28" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="95" t="s">
+      <c r="E28" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="95" t="s">
+      <c r="F28" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="G28" s="95" t="s">
+      <c r="G28" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="H28" s="95" t="s">
+      <c r="H28" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="I28" s="95" t="s">
+      <c r="I28" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="J28" s="95" t="s">
+      <c r="J28" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="K28" s="95" t="s">
+      <c r="K28" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="L28" s="95" t="s">
+      <c r="L28" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="M28" s="95" t="s">
+      <c r="M28" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="N28" s="95" t="s">
+      <c r="N28" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="O28" s="95" t="s">
+      <c r="O28" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="P28" s="95" t="s">
+      <c r="P28" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="Q28" s="95" t="s">
+      <c r="Q28" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="R28" s="95" t="s">
+      <c r="R28" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="S28" s="95" t="s">
+      <c r="S28" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="T28" s="95" t="s">
+      <c r="T28" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="U28" s="95" t="s">
+      <c r="U28" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="V28" s="95" t="s">
+      <c r="V28" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="W28" s="95" t="s">
+      <c r="W28" s="106" t="s">
         <v>15</v>
       </c>
       <c r="X28" s="2"/>
     </row>
     <row r="29" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="4"/>
-      <c r="B29" s="98"/>
-      <c r="C29" s="100"/>
-      <c r="D29" s="96"/>
-      <c r="E29" s="96"/>
-      <c r="F29" s="96"/>
-      <c r="G29" s="96"/>
-      <c r="H29" s="96"/>
-      <c r="I29" s="96"/>
-      <c r="J29" s="96"/>
-      <c r="K29" s="96"/>
-      <c r="L29" s="96"/>
-      <c r="M29" s="96"/>
-      <c r="N29" s="96"/>
-      <c r="O29" s="96"/>
-      <c r="P29" s="96"/>
-      <c r="Q29" s="96"/>
-      <c r="R29" s="96"/>
-      <c r="S29" s="96"/>
-      <c r="T29" s="96"/>
-      <c r="U29" s="96"/>
-      <c r="V29" s="96"/>
-      <c r="W29" s="96"/>
+      <c r="B29" s="109"/>
+      <c r="C29" s="111"/>
+      <c r="D29" s="107"/>
+      <c r="E29" s="107"/>
+      <c r="F29" s="107"/>
+      <c r="G29" s="107"/>
+      <c r="H29" s="107"/>
+      <c r="I29" s="107"/>
+      <c r="J29" s="107"/>
+      <c r="K29" s="107"/>
+      <c r="L29" s="107"/>
+      <c r="M29" s="107"/>
+      <c r="N29" s="107"/>
+      <c r="O29" s="107"/>
+      <c r="P29" s="107"/>
+      <c r="Q29" s="107"/>
+      <c r="R29" s="107"/>
+      <c r="S29" s="107"/>
+      <c r="T29" s="107"/>
+      <c r="U29" s="107"/>
+      <c r="V29" s="107"/>
+      <c r="W29" s="107"/>
       <c r="X29" s="2"/>
     </row>
     <row r="30" spans="1:25" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -14258,34 +14258,34 @@
     </row>
     <row r="34" spans="1:25" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="4"/>
-      <c r="B34" s="84" t="s">
+      <c r="B34" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="84"/>
-      <c r="D34" s="89" t="s">
+      <c r="C34" s="113"/>
+      <c r="D34" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="E34" s="89"/>
-      <c r="F34" s="89"/>
-      <c r="G34" s="89"/>
-      <c r="H34" s="89"/>
-      <c r="I34" s="89"/>
-      <c r="J34" s="89"/>
-      <c r="K34" s="89"/>
-      <c r="L34" s="89"/>
-      <c r="M34" s="89"/>
-      <c r="N34" s="89" t="s">
+      <c r="E34" s="114"/>
+      <c r="F34" s="114"/>
+      <c r="G34" s="114"/>
+      <c r="H34" s="114"/>
+      <c r="I34" s="114"/>
+      <c r="J34" s="114"/>
+      <c r="K34" s="114"/>
+      <c r="L34" s="114"/>
+      <c r="M34" s="114"/>
+      <c r="N34" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="O34" s="89"/>
-      <c r="P34" s="89"/>
-      <c r="Q34" s="89"/>
-      <c r="R34" s="89"/>
-      <c r="S34" s="89"/>
-      <c r="T34" s="89"/>
-      <c r="U34" s="89"/>
-      <c r="V34" s="89"/>
-      <c r="W34" s="89"/>
+      <c r="O34" s="114"/>
+      <c r="P34" s="114"/>
+      <c r="Q34" s="114"/>
+      <c r="R34" s="114"/>
+      <c r="S34" s="114"/>
+      <c r="T34" s="114"/>
+      <c r="U34" s="114"/>
+      <c r="V34" s="114"/>
+      <c r="W34" s="114"/>
       <c r="X34" s="2"/>
       <c r="Y34" s="8" t="s">
         <v>28</v>
@@ -14293,57 +14293,57 @@
     </row>
     <row r="35" spans="1:25" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A35" s="4"/>
-      <c r="B35" s="84"/>
-      <c r="C35" s="84"/>
-      <c r="D35" s="83" t="s">
+      <c r="B35" s="113"/>
+      <c r="C35" s="113"/>
+      <c r="D35" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="E35" s="83"/>
-      <c r="F35" s="83" t="s">
+      <c r="E35" s="103"/>
+      <c r="F35" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="G35" s="83"/>
-      <c r="H35" s="83" t="s">
+      <c r="G35" s="103"/>
+      <c r="H35" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="I35" s="83"/>
-      <c r="J35" s="83" t="s">
+      <c r="I35" s="103"/>
+      <c r="J35" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="K35" s="83"/>
-      <c r="L35" s="83" t="s">
+      <c r="K35" s="103"/>
+      <c r="L35" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="M35" s="83"/>
-      <c r="N35" s="83" t="s">
+      <c r="M35" s="103"/>
+      <c r="N35" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="O35" s="83"/>
-      <c r="P35" s="83" t="s">
+      <c r="O35" s="103"/>
+      <c r="P35" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="Q35" s="83"/>
-      <c r="R35" s="83" t="s">
+      <c r="Q35" s="103"/>
+      <c r="R35" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="S35" s="83"/>
-      <c r="T35" s="83" t="s">
+      <c r="S35" s="103"/>
+      <c r="T35" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="U35" s="83"/>
-      <c r="V35" s="83" t="s">
+      <c r="U35" s="103"/>
+      <c r="V35" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="W35" s="83"/>
+      <c r="W35" s="103"/>
       <c r="X35" s="2"/>
-      <c r="Y35" s="85" t="s">
+      <c r="Y35" s="112" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:25" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A36" s="4"/>
-      <c r="B36" s="84"/>
-      <c r="C36" s="84"/>
+      <c r="B36" s="113"/>
+      <c r="C36" s="113"/>
       <c r="D36" s="5" t="s">
         <v>14</v>
       </c>
@@ -14405,14 +14405,14 @@
         <v>15</v>
       </c>
       <c r="X36" s="2"/>
-      <c r="Y36" s="85"/>
+      <c r="Y36" s="112"/>
     </row>
     <row r="37" spans="1:25" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A37" s="4"/>
-      <c r="B37" s="88" t="s">
+      <c r="B37" s="115" t="s">
         <v>56</v>
       </c>
-      <c r="C37" s="88"/>
+      <c r="C37" s="115"/>
       <c r="D37" s="69" t="str">
         <f>TEXT(ROUND(L30/$C$4/5*100, 2), "0.00") &amp; "%"</f>
         <v>2.68%</v>
@@ -14501,10 +14501,10 @@
     </row>
     <row r="38" spans="1:25" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A38" s="4"/>
-      <c r="B38" s="88" t="s">
+      <c r="B38" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="88"/>
+      <c r="C38" s="115"/>
       <c r="D38" s="69" t="str">
         <f>TEXT(ROUND(L31/$C$4/5*100, 2), "0.00") &amp; "%"</f>
         <v>4.04%</v>
@@ -14592,10 +14592,10 @@
       </c>
     </row>
     <row r="39" spans="1:25" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B39" s="88" t="s">
+      <c r="B39" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="88"/>
+      <c r="C39" s="115"/>
       <c r="D39" s="69" t="str">
         <f>TEXT(ROUND(L32/$C$4/5*100, 2), "0.00") &amp; "%"</f>
         <v>6.72%</v>
@@ -14683,10 +14683,10 @@
     </row>
     <row r="40" spans="1:25" s="3" customFormat="1" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A40" s="1"/>
-      <c r="B40" s="88" t="s">
+      <c r="B40" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="C40" s="88"/>
+      <c r="C40" s="115"/>
       <c r="D40" s="69" t="str">
         <f>TEXT(ROUND(L33/$C$4/5*100, 2), "0.00") &amp; "%"</f>
         <v>13.44%</v>
@@ -14973,28 +14973,28 @@
       <c r="C2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="87" t="s">
+      <c r="D2" s="101" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
-      <c r="N2" s="87"/>
-      <c r="O2" s="87"/>
-      <c r="P2" s="87"/>
-      <c r="Q2" s="87"/>
-      <c r="R2" s="87"/>
-      <c r="S2" s="87"/>
-      <c r="T2" s="87"/>
-      <c r="U2" s="87"/>
-      <c r="V2" s="87"/>
-      <c r="W2" s="87"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="101"/>
+      <c r="O2" s="101"/>
+      <c r="P2" s="101"/>
+      <c r="Q2" s="101"/>
+      <c r="R2" s="101"/>
+      <c r="S2" s="101"/>
+      <c r="T2" s="101"/>
+      <c r="U2" s="101"/>
+      <c r="V2" s="101"/>
+      <c r="W2" s="101"/>
       <c r="X2" s="12"/>
       <c r="Y2" s="13">
         <v>45891</v>
@@ -15009,26 +15009,26 @@
       <c r="C3" s="14">
         <v>21000000</v>
       </c>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="87"/>
-      <c r="Q3" s="87"/>
-      <c r="R3" s="87"/>
-      <c r="S3" s="87"/>
-      <c r="T3" s="87"/>
-      <c r="U3" s="87"/>
-      <c r="V3" s="87"/>
-      <c r="W3" s="87"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
+      <c r="N3" s="101"/>
+      <c r="O3" s="101"/>
+      <c r="P3" s="101"/>
+      <c r="Q3" s="101"/>
+      <c r="R3" s="101"/>
+      <c r="S3" s="101"/>
+      <c r="T3" s="101"/>
+      <c r="U3" s="101"/>
+      <c r="V3" s="101"/>
+      <c r="W3" s="101"/>
       <c r="X3" s="12"/>
       <c r="Y3" s="15" t="s">
         <v>25</v>
@@ -15042,26 +15042,26 @@
       <c r="C4" s="11">
         <v>10</v>
       </c>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
-      <c r="N4" s="87"/>
-      <c r="O4" s="87"/>
-      <c r="P4" s="87"/>
-      <c r="Q4" s="87"/>
-      <c r="R4" s="87"/>
-      <c r="S4" s="87"/>
-      <c r="T4" s="87"/>
-      <c r="U4" s="87"/>
-      <c r="V4" s="87"/>
-      <c r="W4" s="87"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
+      <c r="N4" s="101"/>
+      <c r="O4" s="101"/>
+      <c r="P4" s="101"/>
+      <c r="Q4" s="101"/>
+      <c r="R4" s="101"/>
+      <c r="S4" s="101"/>
+      <c r="T4" s="101"/>
+      <c r="U4" s="101"/>
+      <c r="V4" s="101"/>
+      <c r="W4" s="101"/>
       <c r="X4" s="12"/>
       <c r="Y4" s="15"/>
     </row>
@@ -15098,29 +15098,29 @@
         <f>$C$4*C8</f>
         <v>1000000</v>
       </c>
-      <c r="D6" s="86" t="str">
+      <c r="D6" s="102" t="str">
         <f>"2025 - 2035 : "&amp;$C7*100&amp;"% " &amp; B7</f>
         <v>2025 - 2035 : 40% BTC 10Y CAGR</v>
       </c>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="86"/>
-      <c r="N6" s="86"/>
-      <c r="O6" s="86"/>
-      <c r="P6" s="86"/>
-      <c r="Q6" s="86"/>
-      <c r="R6" s="86"/>
-      <c r="S6" s="86"/>
-      <c r="T6" s="86"/>
-      <c r="U6" s="86"/>
-      <c r="V6" s="86"/>
-      <c r="W6" s="86"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102"/>
+      <c r="N6" s="102"/>
+      <c r="O6" s="102"/>
+      <c r="P6" s="102"/>
+      <c r="Q6" s="102"/>
+      <c r="R6" s="102"/>
+      <c r="S6" s="102"/>
+      <c r="T6" s="102"/>
+      <c r="U6" s="102"/>
+      <c r="V6" s="102"/>
+      <c r="W6" s="102"/>
       <c r="X6" s="2"/>
       <c r="Y6" s="23"/>
     </row>
@@ -15133,46 +15133,46 @@
       <c r="C7" s="16">
         <v>0.4</v>
       </c>
-      <c r="D7" s="83" t="s">
+      <c r="D7" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83" t="s">
+      <c r="E7" s="103"/>
+      <c r="F7" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83" t="s">
+      <c r="G7" s="103"/>
+      <c r="H7" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="83"/>
-      <c r="J7" s="83" t="s">
+      <c r="I7" s="103"/>
+      <c r="J7" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="83"/>
-      <c r="L7" s="83" t="s">
+      <c r="K7" s="103"/>
+      <c r="L7" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="83"/>
-      <c r="N7" s="83" t="s">
+      <c r="M7" s="103"/>
+      <c r="N7" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="O7" s="83"/>
-      <c r="P7" s="83" t="s">
+      <c r="O7" s="103"/>
+      <c r="P7" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="Q7" s="83"/>
-      <c r="R7" s="83" t="s">
+      <c r="Q7" s="103"/>
+      <c r="R7" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="S7" s="83"/>
-      <c r="T7" s="83" t="s">
+      <c r="S7" s="103"/>
+      <c r="T7" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="U7" s="83"/>
-      <c r="V7" s="83" t="s">
+      <c r="U7" s="103"/>
+      <c r="V7" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="W7" s="83"/>
+      <c r="W7" s="103"/>
       <c r="X7" s="2"/>
       <c r="Y7" s="17"/>
     </row>
@@ -15185,56 +15185,56 @@
       <c r="C8" s="7">
         <v>100000</v>
       </c>
-      <c r="D8" s="93">
+      <c r="D8" s="104">
         <f>C8*C7+C8</f>
         <v>140000</v>
       </c>
-      <c r="E8" s="93"/>
-      <c r="F8" s="93">
+      <c r="E8" s="104"/>
+      <c r="F8" s="104">
         <f>D8*C7+D8</f>
         <v>196000</v>
       </c>
-      <c r="G8" s="93"/>
-      <c r="H8" s="93">
+      <c r="G8" s="104"/>
+      <c r="H8" s="104">
         <f>F8*C7+F8</f>
         <v>274400</v>
       </c>
-      <c r="I8" s="93"/>
-      <c r="J8" s="93">
+      <c r="I8" s="104"/>
+      <c r="J8" s="104">
         <f>H8*C7+H8</f>
         <v>384160</v>
       </c>
-      <c r="K8" s="93"/>
-      <c r="L8" s="93">
+      <c r="K8" s="104"/>
+      <c r="L8" s="104">
         <f>J8*C7+J8</f>
         <v>537824</v>
       </c>
-      <c r="M8" s="93"/>
-      <c r="N8" s="93">
+      <c r="M8" s="104"/>
+      <c r="N8" s="104">
         <f>L8*C7+L8</f>
         <v>752953.6</v>
       </c>
-      <c r="O8" s="93"/>
-      <c r="P8" s="93">
+      <c r="O8" s="104"/>
+      <c r="P8" s="104">
         <f>N8*C7+N8</f>
         <v>1054135.04</v>
       </c>
-      <c r="Q8" s="93"/>
-      <c r="R8" s="93">
+      <c r="Q8" s="104"/>
+      <c r="R8" s="104">
         <f>P8*C7+P8</f>
         <v>1475789.0560000001</v>
       </c>
-      <c r="S8" s="93"/>
-      <c r="T8" s="93">
+      <c r="S8" s="104"/>
+      <c r="T8" s="104">
         <f>R8*C7+R8</f>
         <v>2066104.6784000001</v>
       </c>
-      <c r="U8" s="93"/>
-      <c r="V8" s="93">
+      <c r="U8" s="104"/>
+      <c r="V8" s="104">
         <f>T8*C7+T8</f>
         <v>2892546.5497600003</v>
       </c>
-      <c r="W8" s="93"/>
+      <c r="W8" s="104"/>
       <c r="X8" s="2"/>
     </row>
     <row r="9" spans="1:25" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -15247,152 +15247,152 @@
         <f>C8*$C$3</f>
         <v>2100000000000</v>
       </c>
-      <c r="D9" s="94">
+      <c r="D9" s="105">
         <f>D8*$C$3</f>
         <v>2940000000000</v>
       </c>
-      <c r="E9" s="94"/>
-      <c r="F9" s="94">
+      <c r="E9" s="105"/>
+      <c r="F9" s="105">
         <f>F8*$C$3</f>
         <v>4116000000000</v>
       </c>
-      <c r="G9" s="94"/>
-      <c r="H9" s="94">
+      <c r="G9" s="105"/>
+      <c r="H9" s="105">
         <f>H8*$C$3</f>
         <v>5762400000000</v>
       </c>
-      <c r="I9" s="94"/>
-      <c r="J9" s="94">
+      <c r="I9" s="105"/>
+      <c r="J9" s="105">
         <f>J8*$C$3</f>
         <v>8067360000000</v>
       </c>
-      <c r="K9" s="94"/>
-      <c r="L9" s="94">
+      <c r="K9" s="105"/>
+      <c r="L9" s="105">
         <f>L8*$C$3</f>
         <v>11294304000000</v>
       </c>
-      <c r="M9" s="94"/>
-      <c r="N9" s="94">
+      <c r="M9" s="105"/>
+      <c r="N9" s="105">
         <f>N8*$C$3</f>
         <v>15812025600000</v>
       </c>
-      <c r="O9" s="94"/>
-      <c r="P9" s="94">
+      <c r="O9" s="105"/>
+      <c r="P9" s="105">
         <f>P8*$C$3</f>
         <v>22136835840000</v>
       </c>
-      <c r="Q9" s="94"/>
-      <c r="R9" s="94">
+      <c r="Q9" s="105"/>
+      <c r="R9" s="105">
         <f>R8*$C$3</f>
         <v>30991570176000.004</v>
       </c>
-      <c r="S9" s="94"/>
-      <c r="T9" s="94">
+      <c r="S9" s="105"/>
+      <c r="T9" s="105">
         <f>T8*$C$3</f>
         <v>43388198246400</v>
       </c>
-      <c r="U9" s="94"/>
-      <c r="V9" s="94">
+      <c r="U9" s="105"/>
+      <c r="V9" s="105">
         <f>V8*$C$3</f>
         <v>60743477544960.008</v>
       </c>
-      <c r="W9" s="94"/>
+      <c r="W9" s="105"/>
       <c r="X9" s="2"/>
     </row>
     <row r="10" spans="1:25" ht="15.85" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A10" s="4"/>
-      <c r="B10" s="97" t="s">
+      <c r="B10" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="99" t="s">
+      <c r="C10" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="95" t="s">
+      <c r="D10" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="95" t="s">
+      <c r="E10" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="95" t="s">
+      <c r="F10" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="95" t="s">
+      <c r="G10" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="95" t="s">
+      <c r="H10" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="95" t="s">
+      <c r="I10" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="95" t="s">
+      <c r="J10" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="95" t="s">
+      <c r="K10" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="L10" s="95" t="s">
+      <c r="L10" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="M10" s="95" t="s">
+      <c r="M10" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="N10" s="95" t="s">
+      <c r="N10" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="O10" s="95" t="s">
+      <c r="O10" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="P10" s="95" t="s">
+      <c r="P10" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="Q10" s="95" t="s">
+      <c r="Q10" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="R10" s="95" t="s">
+      <c r="R10" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="S10" s="95" t="s">
+      <c r="S10" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="T10" s="95" t="s">
+      <c r="T10" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="U10" s="95" t="s">
+      <c r="U10" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="V10" s="95" t="s">
+      <c r="V10" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="W10" s="95" t="s">
+      <c r="W10" s="106" t="s">
         <v>15</v>
       </c>
       <c r="X10" s="2"/>
     </row>
     <row r="11" spans="1:25" ht="15.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="4"/>
-      <c r="B11" s="98"/>
-      <c r="C11" s="100"/>
-      <c r="D11" s="96"/>
-      <c r="E11" s="96"/>
-      <c r="F11" s="96"/>
-      <c r="G11" s="96"/>
-      <c r="H11" s="96"/>
-      <c r="I11" s="96"/>
-      <c r="J11" s="96"/>
-      <c r="K11" s="96"/>
-      <c r="L11" s="96"/>
-      <c r="M11" s="96"/>
-      <c r="N11" s="96"/>
-      <c r="O11" s="96"/>
-      <c r="P11" s="96"/>
-      <c r="Q11" s="96"/>
-      <c r="R11" s="96"/>
-      <c r="S11" s="96"/>
-      <c r="T11" s="96"/>
-      <c r="U11" s="96"/>
-      <c r="V11" s="96"/>
-      <c r="W11" s="96"/>
+      <c r="B11" s="109"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="107"/>
+      <c r="F11" s="107"/>
+      <c r="G11" s="107"/>
+      <c r="H11" s="107"/>
+      <c r="I11" s="107"/>
+      <c r="J11" s="107"/>
+      <c r="K11" s="107"/>
+      <c r="L11" s="107"/>
+      <c r="M11" s="107"/>
+      <c r="N11" s="107"/>
+      <c r="O11" s="107"/>
+      <c r="P11" s="107"/>
+      <c r="Q11" s="107"/>
+      <c r="R11" s="107"/>
+      <c r="S11" s="107"/>
+      <c r="T11" s="107"/>
+      <c r="U11" s="107"/>
+      <c r="V11" s="107"/>
+      <c r="W11" s="107"/>
       <c r="X11" s="2"/>
     </row>
     <row r="12" spans="1:25" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -15759,34 +15759,34 @@
     </row>
     <row r="16" spans="1:25" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="4"/>
-      <c r="B16" s="84" t="s">
+      <c r="B16" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="84"/>
-      <c r="D16" s="89" t="s">
+      <c r="C16" s="113"/>
+      <c r="D16" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="89"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="89"/>
-      <c r="I16" s="89"/>
-      <c r="J16" s="89"/>
-      <c r="K16" s="89"/>
-      <c r="L16" s="89"/>
-      <c r="M16" s="89"/>
-      <c r="N16" s="89" t="s">
+      <c r="E16" s="114"/>
+      <c r="F16" s="114"/>
+      <c r="G16" s="114"/>
+      <c r="H16" s="114"/>
+      <c r="I16" s="114"/>
+      <c r="J16" s="114"/>
+      <c r="K16" s="114"/>
+      <c r="L16" s="114"/>
+      <c r="M16" s="114"/>
+      <c r="N16" s="114" t="s">
         <v>42</v>
       </c>
-      <c r="O16" s="89"/>
-      <c r="P16" s="89"/>
-      <c r="Q16" s="89"/>
-      <c r="R16" s="89"/>
-      <c r="S16" s="89"/>
-      <c r="T16" s="89"/>
-      <c r="U16" s="89"/>
-      <c r="V16" s="89"/>
-      <c r="W16" s="89"/>
+      <c r="O16" s="114"/>
+      <c r="P16" s="114"/>
+      <c r="Q16" s="114"/>
+      <c r="R16" s="114"/>
+      <c r="S16" s="114"/>
+      <c r="T16" s="114"/>
+      <c r="U16" s="114"/>
+      <c r="V16" s="114"/>
+      <c r="W16" s="114"/>
       <c r="X16" s="12"/>
       <c r="Y16" s="8" t="s">
         <v>27</v>
@@ -15794,57 +15794,57 @@
     </row>
     <row r="17" spans="1:25" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="4"/>
-      <c r="B17" s="84"/>
-      <c r="C17" s="84"/>
-      <c r="D17" s="83" t="s">
+      <c r="B17" s="113"/>
+      <c r="C17" s="113"/>
+      <c r="D17" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="83"/>
-      <c r="F17" s="83" t="s">
+      <c r="E17" s="103"/>
+      <c r="F17" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="83"/>
-      <c r="H17" s="83" t="s">
+      <c r="G17" s="103"/>
+      <c r="H17" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="I17" s="83"/>
-      <c r="J17" s="83" t="s">
+      <c r="I17" s="103"/>
+      <c r="J17" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="K17" s="83"/>
-      <c r="L17" s="83" t="s">
+      <c r="K17" s="103"/>
+      <c r="L17" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="M17" s="83"/>
-      <c r="N17" s="83" t="s">
+      <c r="M17" s="103"/>
+      <c r="N17" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="O17" s="83"/>
-      <c r="P17" s="83" t="s">
+      <c r="O17" s="103"/>
+      <c r="P17" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="Q17" s="83"/>
-      <c r="R17" s="83" t="s">
+      <c r="Q17" s="103"/>
+      <c r="R17" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="S17" s="83"/>
-      <c r="T17" s="83" t="s">
+      <c r="S17" s="103"/>
+      <c r="T17" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="U17" s="83"/>
-      <c r="V17" s="83" t="s">
+      <c r="U17" s="103"/>
+      <c r="V17" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="W17" s="83"/>
+      <c r="W17" s="103"/>
       <c r="X17" s="12"/>
-      <c r="Y17" s="85" t="s">
+      <c r="Y17" s="112" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="4"/>
-      <c r="B18" s="84"/>
-      <c r="C18" s="84"/>
+      <c r="B18" s="113"/>
+      <c r="C18" s="113"/>
       <c r="D18" s="5" t="s">
         <v>14</v>
       </c>
@@ -15906,14 +15906,14 @@
         <v>15</v>
       </c>
       <c r="X18" s="12"/>
-      <c r="Y18" s="85"/>
+      <c r="Y18" s="112"/>
     </row>
     <row r="19" spans="1:25" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="4"/>
-      <c r="B19" s="88" t="s">
+      <c r="B19" s="115" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="88"/>
+      <c r="C19" s="115"/>
       <c r="D19" s="69" t="str">
         <f>TEXT(ROUND(L12/$C$4/5*100, 2), "0.00") &amp; "%"</f>
         <v>3.26%</v>
@@ -16002,10 +16002,10 @@
     </row>
     <row r="20" spans="1:25" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" s="4"/>
-      <c r="B20" s="88" t="s">
+      <c r="B20" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="88"/>
+      <c r="C20" s="115"/>
       <c r="D20" s="69" t="str">
         <f>TEXT(ROUND(L13/$C$4/5*100, 2), "0.00") &amp; "%"</f>
         <v>4.88%</v>
@@ -16094,10 +16094,10 @@
     </row>
     <row r="21" spans="1:25" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="4"/>
-      <c r="B21" s="88" t="s">
+      <c r="B21" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="88"/>
+      <c r="C21" s="115"/>
       <c r="D21" s="69" t="str">
         <f>TEXT(ROUND(L14/$C$4/5*100, 2), "0.00") &amp; "%"</f>
         <v>8.14%</v>
@@ -16186,10 +16186,10 @@
     </row>
     <row r="22" spans="1:25" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="4"/>
-      <c r="B22" s="88" t="s">
+      <c r="B22" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="88"/>
+      <c r="C22" s="115"/>
       <c r="D22" s="69" t="str">
         <f>TEXT(ROUND(L15/$C$4/5*100, 2), "0.00") &amp; "%"</f>
         <v>16.28%</v>
@@ -16304,29 +16304,29 @@
         <f>$C$4*C26</f>
         <v>28925465.497600004</v>
       </c>
-      <c r="D24" s="86" t="str">
+      <c r="D24" s="102" t="str">
         <f>"2035 - 2045 : "&amp;$C25*100&amp;"% " &amp; B25</f>
         <v>2035 - 2045 : 30% BTC 10Y CAGR</v>
       </c>
-      <c r="E24" s="86"/>
-      <c r="F24" s="86"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="86"/>
-      <c r="I24" s="86"/>
-      <c r="J24" s="86"/>
-      <c r="K24" s="86"/>
-      <c r="L24" s="86"/>
-      <c r="M24" s="86"/>
-      <c r="N24" s="86"/>
-      <c r="O24" s="86"/>
-      <c r="P24" s="86"/>
-      <c r="Q24" s="86"/>
-      <c r="R24" s="86"/>
-      <c r="S24" s="86"/>
-      <c r="T24" s="86"/>
-      <c r="U24" s="86"/>
-      <c r="V24" s="86"/>
-      <c r="W24" s="86"/>
+      <c r="E24" s="102"/>
+      <c r="F24" s="102"/>
+      <c r="G24" s="102"/>
+      <c r="H24" s="102"/>
+      <c r="I24" s="102"/>
+      <c r="J24" s="102"/>
+      <c r="K24" s="102"/>
+      <c r="L24" s="102"/>
+      <c r="M24" s="102"/>
+      <c r="N24" s="102"/>
+      <c r="O24" s="102"/>
+      <c r="P24" s="102"/>
+      <c r="Q24" s="102"/>
+      <c r="R24" s="102"/>
+      <c r="S24" s="102"/>
+      <c r="T24" s="102"/>
+      <c r="U24" s="102"/>
+      <c r="V24" s="102"/>
+      <c r="W24" s="102"/>
       <c r="X24" s="2"/>
     </row>
     <row r="25" spans="1:25" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -16338,46 +16338,46 @@
       <c r="C25" s="16">
         <v>0.3</v>
       </c>
-      <c r="D25" s="83" t="s">
+      <c r="D25" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="83"/>
-      <c r="F25" s="83" t="s">
+      <c r="E25" s="103"/>
+      <c r="F25" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="G25" s="83"/>
-      <c r="H25" s="83" t="s">
+      <c r="G25" s="103"/>
+      <c r="H25" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="I25" s="83"/>
-      <c r="J25" s="83" t="s">
+      <c r="I25" s="103"/>
+      <c r="J25" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="K25" s="83"/>
-      <c r="L25" s="83" t="s">
+      <c r="K25" s="103"/>
+      <c r="L25" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="M25" s="83"/>
-      <c r="N25" s="83" t="s">
+      <c r="M25" s="103"/>
+      <c r="N25" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="O25" s="83"/>
-      <c r="P25" s="83" t="s">
+      <c r="O25" s="103"/>
+      <c r="P25" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="Q25" s="83"/>
-      <c r="R25" s="83" t="s">
+      <c r="Q25" s="103"/>
+      <c r="R25" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="S25" s="83"/>
-      <c r="T25" s="83" t="s">
+      <c r="S25" s="103"/>
+      <c r="T25" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="U25" s="83"/>
-      <c r="V25" s="83" t="s">
+      <c r="U25" s="103"/>
+      <c r="V25" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="W25" s="83"/>
+      <c r="W25" s="103"/>
       <c r="X25" s="2"/>
     </row>
     <row r="26" spans="1:25" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -16390,56 +16390,56 @@
         <f>V8</f>
         <v>2892546.5497600003</v>
       </c>
-      <c r="D26" s="93">
+      <c r="D26" s="104">
         <f>C26*C25+C26</f>
         <v>3760310.5146880005</v>
       </c>
-      <c r="E26" s="93"/>
-      <c r="F26" s="93">
+      <c r="E26" s="104"/>
+      <c r="F26" s="104">
         <f>D26*C25+D26</f>
         <v>4888403.6690944005</v>
       </c>
-      <c r="G26" s="93"/>
-      <c r="H26" s="93">
+      <c r="G26" s="104"/>
+      <c r="H26" s="104">
         <f>F26*$C25+F26</f>
         <v>6354924.7698227204</v>
       </c>
-      <c r="I26" s="93"/>
-      <c r="J26" s="93">
+      <c r="I26" s="104"/>
+      <c r="J26" s="104">
         <f>H26*$C25+H26</f>
         <v>8261402.2007695362</v>
       </c>
-      <c r="K26" s="93"/>
-      <c r="L26" s="93">
+      <c r="K26" s="104"/>
+      <c r="L26" s="104">
         <f>J26*$C25+J26</f>
         <v>10739822.861000396</v>
       </c>
-      <c r="M26" s="93"/>
-      <c r="N26" s="93">
+      <c r="M26" s="104"/>
+      <c r="N26" s="104">
         <f>L26*$C25+L26</f>
         <v>13961769.719300516</v>
       </c>
-      <c r="O26" s="93"/>
-      <c r="P26" s="93">
+      <c r="O26" s="104"/>
+      <c r="P26" s="104">
         <f>N26*$C25+N26</f>
         <v>18150300.635090671</v>
       </c>
-      <c r="Q26" s="93"/>
-      <c r="R26" s="93">
+      <c r="Q26" s="104"/>
+      <c r="R26" s="104">
         <f>P26*$C25+P26</f>
         <v>23595390.825617872</v>
       </c>
-      <c r="S26" s="93"/>
-      <c r="T26" s="93">
+      <c r="S26" s="104"/>
+      <c r="T26" s="104">
         <f>R26*$C25+R26</f>
         <v>30674008.073303234</v>
       </c>
-      <c r="U26" s="93"/>
-      <c r="V26" s="93">
+      <c r="U26" s="104"/>
+      <c r="V26" s="104">
         <f>T26*$C25+T26</f>
         <v>39876210.495294206</v>
       </c>
-      <c r="W26" s="93"/>
+      <c r="W26" s="104"/>
       <c r="X26" s="2"/>
     </row>
     <row r="27" spans="1:25" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -16452,152 +16452,152 @@
         <f>C26*21000000</f>
         <v>60743477544960.008</v>
       </c>
-      <c r="D27" s="94">
+      <c r="D27" s="105">
         <f>D26*21000000</f>
         <v>78966520808448.016</v>
       </c>
-      <c r="E27" s="94"/>
-      <c r="F27" s="94">
+      <c r="E27" s="105"/>
+      <c r="F27" s="105">
         <f>F26*21000000</f>
         <v>102656477050982.41</v>
       </c>
-      <c r="G27" s="94"/>
-      <c r="H27" s="94">
+      <c r="G27" s="105"/>
+      <c r="H27" s="105">
         <f>H26*21000000</f>
         <v>133453420166277.13</v>
       </c>
-      <c r="I27" s="94"/>
-      <c r="J27" s="94">
+      <c r="I27" s="105"/>
+      <c r="J27" s="105">
         <f>J26*21000000</f>
         <v>173489446216160.25</v>
       </c>
-      <c r="K27" s="94"/>
-      <c r="L27" s="94">
+      <c r="K27" s="105"/>
+      <c r="L27" s="105">
         <f>L26*21000000</f>
         <v>225536280081008.31</v>
       </c>
-      <c r="M27" s="94"/>
-      <c r="N27" s="94">
+      <c r="M27" s="105"/>
+      <c r="N27" s="105">
         <f>N26*21000000</f>
         <v>293197164105310.81</v>
       </c>
-      <c r="O27" s="94"/>
-      <c r="P27" s="94">
+      <c r="O27" s="105"/>
+      <c r="P27" s="105">
         <f>P26*21000000</f>
         <v>381156313336904.13</v>
       </c>
-      <c r="Q27" s="94"/>
-      <c r="R27" s="94">
+      <c r="Q27" s="105"/>
+      <c r="R27" s="105">
         <f>R26*21000000</f>
         <v>495503207337975.31</v>
       </c>
-      <c r="S27" s="94"/>
-      <c r="T27" s="94">
+      <c r="S27" s="105"/>
+      <c r="T27" s="105">
         <f>T26*21000000</f>
         <v>644154169539367.88</v>
       </c>
-      <c r="U27" s="94"/>
-      <c r="V27" s="94">
+      <c r="U27" s="105"/>
+      <c r="V27" s="105">
         <f>V26*21000000</f>
         <v>837400420401178.38</v>
       </c>
-      <c r="W27" s="94"/>
+      <c r="W27" s="105"/>
       <c r="X27" s="2"/>
     </row>
     <row r="28" spans="1:25" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A28" s="4"/>
-      <c r="B28" s="97" t="s">
+      <c r="B28" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="99" t="s">
+      <c r="C28" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="95" t="s">
+      <c r="D28" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="95" t="s">
+      <c r="E28" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="95" t="s">
+      <c r="F28" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="G28" s="95" t="s">
+      <c r="G28" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="H28" s="95" t="s">
+      <c r="H28" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="I28" s="95" t="s">
+      <c r="I28" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="J28" s="95" t="s">
+      <c r="J28" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="K28" s="95" t="s">
+      <c r="K28" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="L28" s="95" t="s">
+      <c r="L28" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="M28" s="95" t="s">
+      <c r="M28" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="N28" s="95" t="s">
+      <c r="N28" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="O28" s="95" t="s">
+      <c r="O28" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="P28" s="95" t="s">
+      <c r="P28" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="Q28" s="95" t="s">
+      <c r="Q28" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="R28" s="95" t="s">
+      <c r="R28" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="S28" s="95" t="s">
+      <c r="S28" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="T28" s="95" t="s">
+      <c r="T28" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="U28" s="95" t="s">
+      <c r="U28" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="V28" s="95" t="s">
+      <c r="V28" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="W28" s="95" t="s">
+      <c r="W28" s="106" t="s">
         <v>15</v>
       </c>
       <c r="X28" s="2"/>
     </row>
     <row r="29" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="4"/>
-      <c r="B29" s="98"/>
-      <c r="C29" s="100"/>
-      <c r="D29" s="96"/>
-      <c r="E29" s="96"/>
-      <c r="F29" s="96"/>
-      <c r="G29" s="96"/>
-      <c r="H29" s="96"/>
-      <c r="I29" s="96"/>
-      <c r="J29" s="96"/>
-      <c r="K29" s="96"/>
-      <c r="L29" s="96"/>
-      <c r="M29" s="96"/>
-      <c r="N29" s="96"/>
-      <c r="O29" s="96"/>
-      <c r="P29" s="96"/>
-      <c r="Q29" s="96"/>
-      <c r="R29" s="96"/>
-      <c r="S29" s="96"/>
-      <c r="T29" s="96"/>
-      <c r="U29" s="96"/>
-      <c r="V29" s="96"/>
-      <c r="W29" s="96"/>
+      <c r="B29" s="109"/>
+      <c r="C29" s="111"/>
+      <c r="D29" s="107"/>
+      <c r="E29" s="107"/>
+      <c r="F29" s="107"/>
+      <c r="G29" s="107"/>
+      <c r="H29" s="107"/>
+      <c r="I29" s="107"/>
+      <c r="J29" s="107"/>
+      <c r="K29" s="107"/>
+      <c r="L29" s="107"/>
+      <c r="M29" s="107"/>
+      <c r="N29" s="107"/>
+      <c r="O29" s="107"/>
+      <c r="P29" s="107"/>
+      <c r="Q29" s="107"/>
+      <c r="R29" s="107"/>
+      <c r="S29" s="107"/>
+      <c r="T29" s="107"/>
+      <c r="U29" s="107"/>
+      <c r="V29" s="107"/>
+      <c r="W29" s="107"/>
       <c r="X29" s="2"/>
     </row>
     <row r="30" spans="1:25" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -16963,34 +16963,34 @@
     </row>
     <row r="34" spans="1:25" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="4"/>
-      <c r="B34" s="84" t="s">
+      <c r="B34" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="84"/>
-      <c r="D34" s="89" t="s">
+      <c r="C34" s="113"/>
+      <c r="D34" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="E34" s="89"/>
-      <c r="F34" s="89"/>
-      <c r="G34" s="89"/>
-      <c r="H34" s="89"/>
-      <c r="I34" s="89"/>
-      <c r="J34" s="89"/>
-      <c r="K34" s="89"/>
-      <c r="L34" s="89"/>
-      <c r="M34" s="89"/>
-      <c r="N34" s="89" t="s">
+      <c r="E34" s="114"/>
+      <c r="F34" s="114"/>
+      <c r="G34" s="114"/>
+      <c r="H34" s="114"/>
+      <c r="I34" s="114"/>
+      <c r="J34" s="114"/>
+      <c r="K34" s="114"/>
+      <c r="L34" s="114"/>
+      <c r="M34" s="114"/>
+      <c r="N34" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="O34" s="89"/>
-      <c r="P34" s="89"/>
-      <c r="Q34" s="89"/>
-      <c r="R34" s="89"/>
-      <c r="S34" s="89"/>
-      <c r="T34" s="89"/>
-      <c r="U34" s="89"/>
-      <c r="V34" s="89"/>
-      <c r="W34" s="89"/>
+      <c r="O34" s="114"/>
+      <c r="P34" s="114"/>
+      <c r="Q34" s="114"/>
+      <c r="R34" s="114"/>
+      <c r="S34" s="114"/>
+      <c r="T34" s="114"/>
+      <c r="U34" s="114"/>
+      <c r="V34" s="114"/>
+      <c r="W34" s="114"/>
       <c r="X34" s="2"/>
       <c r="Y34" s="8" t="s">
         <v>28</v>
@@ -16998,57 +16998,57 @@
     </row>
     <row r="35" spans="1:25" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A35" s="4"/>
-      <c r="B35" s="84"/>
-      <c r="C35" s="84"/>
-      <c r="D35" s="83" t="s">
+      <c r="B35" s="113"/>
+      <c r="C35" s="113"/>
+      <c r="D35" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="E35" s="83"/>
-      <c r="F35" s="83" t="s">
+      <c r="E35" s="103"/>
+      <c r="F35" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="G35" s="83"/>
-      <c r="H35" s="83" t="s">
+      <c r="G35" s="103"/>
+      <c r="H35" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="I35" s="83"/>
-      <c r="J35" s="83" t="s">
+      <c r="I35" s="103"/>
+      <c r="J35" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="K35" s="83"/>
-      <c r="L35" s="83" t="s">
+      <c r="K35" s="103"/>
+      <c r="L35" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="M35" s="83"/>
-      <c r="N35" s="83" t="s">
+      <c r="M35" s="103"/>
+      <c r="N35" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="O35" s="83"/>
-      <c r="P35" s="83" t="s">
+      <c r="O35" s="103"/>
+      <c r="P35" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="Q35" s="83"/>
-      <c r="R35" s="83" t="s">
+      <c r="Q35" s="103"/>
+      <c r="R35" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="S35" s="83"/>
-      <c r="T35" s="83" t="s">
+      <c r="S35" s="103"/>
+      <c r="T35" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="U35" s="83"/>
-      <c r="V35" s="83" t="s">
+      <c r="U35" s="103"/>
+      <c r="V35" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="W35" s="83"/>
+      <c r="W35" s="103"/>
       <c r="X35" s="2"/>
-      <c r="Y35" s="85" t="s">
+      <c r="Y35" s="112" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:25" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A36" s="4"/>
-      <c r="B36" s="84"/>
-      <c r="C36" s="84"/>
+      <c r="B36" s="113"/>
+      <c r="C36" s="113"/>
       <c r="D36" s="5" t="s">
         <v>14</v>
       </c>
@@ -17110,14 +17110,14 @@
         <v>15</v>
       </c>
       <c r="X36" s="2"/>
-      <c r="Y36" s="85"/>
+      <c r="Y36" s="112"/>
     </row>
     <row r="37" spans="1:25" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A37" s="4"/>
-      <c r="B37" s="88" t="s">
+      <c r="B37" s="115" t="s">
         <v>56</v>
       </c>
-      <c r="C37" s="88"/>
+      <c r="C37" s="115"/>
       <c r="D37" s="69" t="str">
         <f>TEXT(ROUND(L30/$C$4/5*100, 2), "0.00") &amp; "%"</f>
         <v>2.92%</v>
@@ -17206,10 +17206,10 @@
     </row>
     <row r="38" spans="1:25" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A38" s="4"/>
-      <c r="B38" s="88" t="s">
+      <c r="B38" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="88"/>
+      <c r="C38" s="115"/>
       <c r="D38" s="69" t="str">
         <f>TEXT(ROUND(L31/$C$4/5*100, 2), "0.00") &amp; "%"</f>
         <v>4.38%</v>
@@ -17297,10 +17297,10 @@
       </c>
     </row>
     <row r="39" spans="1:25" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B39" s="88" t="s">
+      <c r="B39" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="88"/>
+      <c r="C39" s="115"/>
       <c r="D39" s="69" t="str">
         <f>TEXT(ROUND(L32/$C$4/5*100, 2), "0.00") &amp; "%"</f>
         <v>7.30%</v>
@@ -17388,10 +17388,10 @@
     </row>
     <row r="40" spans="1:25" s="3" customFormat="1" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A40" s="1"/>
-      <c r="B40" s="88" t="s">
+      <c r="B40" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="C40" s="88"/>
+      <c r="C40" s="115"/>
       <c r="D40" s="69" t="str">
         <f>TEXT(ROUND(L33/$C$4/5*100, 2), "0.00") &amp; "%"</f>
         <v>14.62%</v>
@@ -17662,20 +17662,20 @@
     </row>
     <row r="2" spans="1:16" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="4"/>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="101" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
       <c r="N2" s="2"/>
       <c r="O2" s="13">
         <v>45894</v>
@@ -17683,18 +17683,18 @@
     </row>
     <row r="3" spans="1:16" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="4"/>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
       <c r="N3" s="2"/>
       <c r="O3" s="15" t="s">
         <v>25</v>
@@ -17702,18 +17702,18 @@
     </row>
     <row r="4" spans="1:16" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="4"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
       <c r="N4" s="2"/>
       <c r="O4" s="15"/>
     </row>
@@ -17743,19 +17743,19 @@
         <f>C7*100000</f>
         <v>10000000</v>
       </c>
-      <c r="D6" s="86" t="str">
+      <c r="D6" s="102" t="str">
         <f>"2025 - 2035 : "&amp;$C8*100&amp;"% " &amp; B8</f>
         <v>2025 - 2035 : 80% LQWD 10Y CAGR</v>
       </c>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="86"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102"/>
       <c r="N6" s="12"/>
       <c r="O6" s="80">
         <v>100000</v>
@@ -17770,18 +17770,18 @@
       <c r="C7" s="11">
         <v>100</v>
       </c>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="86"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="86"/>
-      <c r="L7" s="86"/>
-      <c r="M7" s="86"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
       <c r="N7" s="12"/>
-      <c r="O7" s="90" t="s">
+      <c r="O7" s="118" t="s">
         <v>51</v>
       </c>
       <c r="P7" s="2"/>
@@ -17825,7 +17825,7 @@
         <v>13</v>
       </c>
       <c r="N8" s="12"/>
-      <c r="O8" s="90"/>
+      <c r="O8" s="118"/>
       <c r="P8" s="2"/>
     </row>
     <row r="9" spans="1:16" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -17877,7 +17877,7 @@
         <v>446.30840332799994</v>
       </c>
       <c r="N9" s="12"/>
-      <c r="O9" s="90"/>
+      <c r="O9" s="118"/>
       <c r="P9" s="2"/>
     </row>
     <row r="10" spans="1:16" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -17930,7 +17930,7 @@
         <v>16251286416.591253</v>
       </c>
       <c r="N10" s="12"/>
-      <c r="O10" s="90"/>
+      <c r="O10" s="118"/>
       <c r="P10" s="2"/>
     </row>
     <row r="11" spans="1:16" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -17983,7 +17983,7 @@
         <v>181157.62693225042</v>
       </c>
       <c r="N11" s="12"/>
-      <c r="O11" s="90"/>
+      <c r="O11" s="118"/>
       <c r="P11" s="2"/>
     </row>
     <row r="12" spans="1:16" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -18035,45 +18035,45 @@
         <v>36412683.013382331</v>
       </c>
       <c r="N12" s="12"/>
-      <c r="O12" s="90"/>
+      <c r="O12" s="118"/>
       <c r="P12" s="2"/>
     </row>
     <row r="13" spans="1:16" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="4"/>
-      <c r="B13" s="84" t="s">
+      <c r="B13" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="85" t="s">
+      <c r="C13" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="95" t="s">
+      <c r="D13" s="106" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="95" t="s">
+      <c r="E13" s="106" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="95" t="s">
+      <c r="F13" s="106" t="s">
         <v>58</v>
       </c>
-      <c r="G13" s="95" t="s">
+      <c r="G13" s="106" t="s">
         <v>58</v>
       </c>
-      <c r="H13" s="95" t="s">
+      <c r="H13" s="106" t="s">
         <v>58</v>
       </c>
-      <c r="I13" s="95" t="s">
+      <c r="I13" s="106" t="s">
         <v>58</v>
       </c>
-      <c r="J13" s="95" t="s">
+      <c r="J13" s="106" t="s">
         <v>58</v>
       </c>
-      <c r="K13" s="95" t="s">
+      <c r="K13" s="106" t="s">
         <v>58</v>
       </c>
-      <c r="L13" s="95" t="s">
+      <c r="L13" s="106" t="s">
         <v>58</v>
       </c>
-      <c r="M13" s="95" t="s">
+      <c r="M13" s="106" t="s">
         <v>58</v>
       </c>
       <c r="N13" s="2"/>
@@ -18081,18 +18081,18 @@
     </row>
     <row r="14" spans="1:16" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="4"/>
-      <c r="B14" s="84"/>
-      <c r="C14" s="85"/>
-      <c r="D14" s="96"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="96"/>
-      <c r="G14" s="96"/>
-      <c r="H14" s="96"/>
-      <c r="I14" s="96"/>
-      <c r="J14" s="96"/>
-      <c r="K14" s="96"/>
-      <c r="L14" s="96"/>
-      <c r="M14" s="96"/>
+      <c r="B14" s="113"/>
+      <c r="C14" s="112"/>
+      <c r="D14" s="107"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="107"/>
+      <c r="G14" s="107"/>
+      <c r="H14" s="107"/>
+      <c r="I14" s="107"/>
+      <c r="J14" s="107"/>
+      <c r="K14" s="107"/>
+      <c r="L14" s="107"/>
+      <c r="M14" s="107"/>
       <c r="N14" s="2"/>
     </row>
     <row r="15" spans="1:16" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -18303,20 +18303,20 @@
         <v>40</v>
       </c>
       <c r="C19" s="120"/>
-      <c r="D19" s="89" t="s">
+      <c r="D19" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="89"/>
-      <c r="F19" s="89"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="89"/>
-      <c r="I19" s="89" t="s">
+      <c r="E19" s="114"/>
+      <c r="F19" s="114"/>
+      <c r="G19" s="114"/>
+      <c r="H19" s="114"/>
+      <c r="I19" s="114" t="s">
         <v>42</v>
       </c>
-      <c r="J19" s="89"/>
-      <c r="K19" s="89"/>
-      <c r="L19" s="89"/>
-      <c r="M19" s="89"/>
+      <c r="J19" s="114"/>
+      <c r="K19" s="114"/>
+      <c r="L19" s="114"/>
+      <c r="M19" s="114"/>
       <c r="N19" s="12"/>
       <c r="O19" s="8" t="s">
         <v>27</v>
@@ -18363,10 +18363,10 @@
     </row>
     <row r="21" spans="1:16" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="4"/>
-      <c r="B21" s="88" t="s">
+      <c r="B21" s="115" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="88"/>
+      <c r="C21" s="115"/>
       <c r="D21" s="75" t="str">
         <f>TEXT(ROUND(H15/$C$6/5*100, 2), "0.00") &amp; "%"</f>
         <v>2.50%</v>
@@ -18415,10 +18415,10 @@
     </row>
     <row r="22" spans="1:16" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="4"/>
-      <c r="B22" s="88" t="s">
+      <c r="B22" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="88"/>
+      <c r="C22" s="115"/>
       <c r="D22" s="75" t="str">
         <f>TEXT(ROUND(H16/$C$6/5*100, 2), "0.00") &amp; "%"</f>
         <v>5.84%</v>
@@ -18467,10 +18467,10 @@
     </row>
     <row r="23" spans="1:16" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23" s="4"/>
-      <c r="B23" s="88" t="s">
+      <c r="B23" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="88"/>
+      <c r="C23" s="115"/>
       <c r="D23" s="75" t="str">
         <f>TEXT(ROUND(H17/$C$6/5*100, 2), "0.00") &amp; "%"</f>
         <v>0.00%</v>
@@ -18519,10 +18519,10 @@
     </row>
     <row r="24" spans="1:16" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="4"/>
-      <c r="B24" s="88" t="s">
+      <c r="B24" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="88"/>
+      <c r="C24" s="115"/>
       <c r="D24" s="75" t="str">
         <f>TEXT(ROUND(H18/$C$6/5*100, 2), "0.00") &amp; "%"</f>
         <v>8.35%</v>
@@ -18568,10 +18568,10 @@
     </row>
     <row r="25" spans="1:16" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="4"/>
-      <c r="B25" s="91" t="s">
+      <c r="B25" s="116" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="92"/>
+      <c r="C25" s="117"/>
       <c r="D25" s="77"/>
       <c r="E25" s="14">
         <f>H12</f>
@@ -18633,19 +18633,19 @@
         <f>C28*1300000</f>
         <v>130000000</v>
       </c>
-      <c r="D27" s="86" t="str">
+      <c r="D27" s="102" t="str">
         <f>"2035 - 2045 : "&amp;$C29*100&amp;"% " &amp; B29</f>
         <v>2035 - 2045 : 60% LQWD 10Y CAGR</v>
       </c>
-      <c r="E27" s="86"/>
-      <c r="F27" s="86"/>
-      <c r="G27" s="86"/>
-      <c r="H27" s="86"/>
-      <c r="I27" s="86"/>
-      <c r="J27" s="86"/>
-      <c r="K27" s="86"/>
-      <c r="L27" s="86"/>
-      <c r="M27" s="86"/>
+      <c r="E27" s="102"/>
+      <c r="F27" s="102"/>
+      <c r="G27" s="102"/>
+      <c r="H27" s="102"/>
+      <c r="I27" s="102"/>
+      <c r="J27" s="102"/>
+      <c r="K27" s="102"/>
+      <c r="L27" s="102"/>
+      <c r="M27" s="102"/>
       <c r="N27" s="12"/>
       <c r="O27" s="80">
         <v>1300000</v>
@@ -18660,18 +18660,18 @@
       <c r="C28" s="11">
         <v>100</v>
       </c>
-      <c r="D28" s="86"/>
-      <c r="E28" s="86"/>
-      <c r="F28" s="86"/>
-      <c r="G28" s="86"/>
-      <c r="H28" s="86"/>
-      <c r="I28" s="86"/>
-      <c r="J28" s="86"/>
-      <c r="K28" s="86"/>
-      <c r="L28" s="86"/>
-      <c r="M28" s="86"/>
+      <c r="D28" s="102"/>
+      <c r="E28" s="102"/>
+      <c r="F28" s="102"/>
+      <c r="G28" s="102"/>
+      <c r="H28" s="102"/>
+      <c r="I28" s="102"/>
+      <c r="J28" s="102"/>
+      <c r="K28" s="102"/>
+      <c r="L28" s="102"/>
+      <c r="M28" s="102"/>
       <c r="N28" s="12"/>
-      <c r="O28" s="90" t="s">
+      <c r="O28" s="118" t="s">
         <v>52</v>
       </c>
       <c r="P28" s="2"/>
@@ -18715,7 +18715,7 @@
         <v>13</v>
       </c>
       <c r="N29" s="12"/>
-      <c r="O29" s="90"/>
+      <c r="O29" s="118"/>
       <c r="P29" s="2"/>
     </row>
     <row r="30" spans="1:16" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -18768,7 +18768,7 @@
         <v>49072.127903327659</v>
       </c>
       <c r="N30" s="12"/>
-      <c r="O30" s="90"/>
+      <c r="O30" s="118"/>
       <c r="P30" s="2"/>
     </row>
     <row r="31" spans="1:16" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -18821,7 +18821,7 @@
         <v>1804796939467.5298</v>
       </c>
       <c r="N31" s="12"/>
-      <c r="O31" s="90"/>
+      <c r="O31" s="118"/>
       <c r="P31" s="2"/>
     </row>
     <row r="32" spans="1:16" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -18874,7 +18874,7 @@
         <v>36741.711080349218</v>
       </c>
       <c r="N32" s="12"/>
-      <c r="O32" s="90"/>
+      <c r="O32" s="118"/>
       <c r="P32" s="2"/>
     </row>
     <row r="33" spans="1:16" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -18927,45 +18927,45 @@
         <v>36778452.791429564</v>
       </c>
       <c r="N33" s="12"/>
-      <c r="O33" s="90"/>
+      <c r="O33" s="118"/>
       <c r="P33" s="2"/>
     </row>
     <row r="34" spans="1:16" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="4"/>
-      <c r="B34" s="84" t="s">
+      <c r="B34" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="85" t="s">
+      <c r="C34" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="83" t="s">
+      <c r="D34" s="103" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="83" t="s">
+      <c r="E34" s="103" t="s">
         <v>58</v>
       </c>
-      <c r="F34" s="83" t="s">
+      <c r="F34" s="103" t="s">
         <v>58</v>
       </c>
-      <c r="G34" s="83" t="s">
+      <c r="G34" s="103" t="s">
         <v>58</v>
       </c>
-      <c r="H34" s="83" t="s">
+      <c r="H34" s="103" t="s">
         <v>58</v>
       </c>
-      <c r="I34" s="83" t="s">
+      <c r="I34" s="103" t="s">
         <v>58</v>
       </c>
-      <c r="J34" s="83" t="s">
+      <c r="J34" s="103" t="s">
         <v>58</v>
       </c>
-      <c r="K34" s="83" t="s">
+      <c r="K34" s="103" t="s">
         <v>58</v>
       </c>
-      <c r="L34" s="83" t="s">
+      <c r="L34" s="103" t="s">
         <v>58</v>
       </c>
-      <c r="M34" s="83" t="s">
+      <c r="M34" s="103" t="s">
         <v>58</v>
       </c>
       <c r="N34" s="2"/>
@@ -18973,18 +18973,18 @@
     </row>
     <row r="35" spans="1:16" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A35" s="4"/>
-      <c r="B35" s="84"/>
-      <c r="C35" s="85"/>
-      <c r="D35" s="83"/>
-      <c r="E35" s="83"/>
-      <c r="F35" s="83"/>
-      <c r="G35" s="83"/>
-      <c r="H35" s="83"/>
-      <c r="I35" s="83"/>
-      <c r="J35" s="83"/>
-      <c r="K35" s="83"/>
-      <c r="L35" s="83"/>
-      <c r="M35" s="83"/>
+      <c r="B35" s="113"/>
+      <c r="C35" s="112"/>
+      <c r="D35" s="103"/>
+      <c r="E35" s="103"/>
+      <c r="F35" s="103"/>
+      <c r="G35" s="103"/>
+      <c r="H35" s="103"/>
+      <c r="I35" s="103"/>
+      <c r="J35" s="103"/>
+      <c r="K35" s="103"/>
+      <c r="L35" s="103"/>
+      <c r="M35" s="103"/>
       <c r="N35" s="2"/>
     </row>
     <row r="36" spans="1:16" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -19195,20 +19195,20 @@
         <v>40</v>
       </c>
       <c r="C40" s="120"/>
-      <c r="D40" s="89" t="s">
+      <c r="D40" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="E40" s="89"/>
-      <c r="F40" s="89"/>
-      <c r="G40" s="89"/>
-      <c r="H40" s="89"/>
-      <c r="I40" s="89" t="s">
+      <c r="E40" s="114"/>
+      <c r="F40" s="114"/>
+      <c r="G40" s="114"/>
+      <c r="H40" s="114"/>
+      <c r="I40" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="J40" s="89"/>
-      <c r="K40" s="89"/>
-      <c r="L40" s="89"/>
-      <c r="M40" s="89"/>
+      <c r="J40" s="114"/>
+      <c r="K40" s="114"/>
+      <c r="L40" s="114"/>
+      <c r="M40" s="114"/>
       <c r="N40" s="12"/>
       <c r="O40" s="8" t="s">
         <v>28</v>
@@ -19255,10 +19255,10 @@
     </row>
     <row r="42" spans="1:16" s="3" customFormat="1" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A42" s="4"/>
-      <c r="B42" s="88" t="s">
+      <c r="B42" s="115" t="s">
         <v>56</v>
       </c>
-      <c r="C42" s="88"/>
+      <c r="C42" s="115"/>
       <c r="D42" s="75" t="str">
         <f>TEXT(ROUND(H36/$C$27/5*100, 2), "0.00") &amp; "%"</f>
         <v>7.90%</v>
@@ -19307,10 +19307,10 @@
     </row>
     <row r="43" spans="1:16" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A43" s="4"/>
-      <c r="B43" s="88" t="s">
+      <c r="B43" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="C43" s="88"/>
+      <c r="C43" s="115"/>
       <c r="D43" s="75" t="str">
         <f>TEXT(ROUND(H37/$C$27/5*100, 2), "0.00") &amp; "%"</f>
         <v>18.43%</v>
@@ -19359,10 +19359,10 @@
     </row>
     <row r="44" spans="1:16" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A44" s="4"/>
-      <c r="B44" s="88" t="s">
+      <c r="B44" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="C44" s="88"/>
+      <c r="C44" s="115"/>
       <c r="D44" s="75" t="str">
         <f>TEXT(ROUND(H38/$C$27/5*100, 2), "0.00") &amp; "%"</f>
         <v>0.00%</v>
@@ -19384,7 +19384,7 @@
         <v>0</v>
       </c>
       <c r="I44" s="75" t="str">
-        <f t="shared" ref="I43:I45" si="28">TEXT(ROUND((M38-H38)/$C$27/5*100, 2), "0.00") &amp; "%"</f>
+        <f t="shared" ref="I44:I45" si="28">TEXT(ROUND((M38-H38)/$C$27/5*100, 2), "0.00") &amp; "%"</f>
         <v>0.00%</v>
       </c>
       <c r="J44" s="7">
@@ -19405,16 +19405,16 @@
       </c>
       <c r="N44" s="12"/>
       <c r="O44" s="11" t="str">
-        <f t="shared" ref="O43:O44" si="29">TEXT(ROUND(M38/$C$27/10*100, 2), "0.00") &amp; "%"</f>
+        <f t="shared" ref="O44" si="29">TEXT(ROUND(M38/$C$27/10*100, 2), "0.00") &amp; "%"</f>
         <v>0.00%</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A45" s="4"/>
-      <c r="B45" s="88" t="s">
+      <c r="B45" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="C45" s="88"/>
+      <c r="C45" s="115"/>
       <c r="D45" s="75" t="str">
         <f>TEXT(ROUND(H39/$C$27/5*100, 2), "0.00") &amp; "%"</f>
         <v>26.32%</v>
@@ -19474,8 +19474,6 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B19:C20"/>
-    <mergeCell ref="B40:C41"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B45:C45"/>
@@ -19485,6 +19483,12 @@
     <mergeCell ref="K34:K35"/>
     <mergeCell ref="L34:L35"/>
     <mergeCell ref="M34:M35"/>
+    <mergeCell ref="D6:M7"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="B19:C20"/>
     <mergeCell ref="D40:H40"/>
     <mergeCell ref="I40:M40"/>
     <mergeCell ref="D27:M28"/>
@@ -19497,7 +19501,7 @@
     <mergeCell ref="H34:H35"/>
     <mergeCell ref="I34:I35"/>
     <mergeCell ref="J34:J35"/>
-    <mergeCell ref="D6:M7"/>
+    <mergeCell ref="B40:C41"/>
     <mergeCell ref="B2:M4"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="B21:C21"/>
@@ -19514,10 +19518,6 @@
     <mergeCell ref="H13:H14"/>
     <mergeCell ref="I13:I14"/>
     <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -19560,20 +19560,20 @@
     </row>
     <row r="2" spans="1:16" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="4"/>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="101" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
       <c r="N2" s="2"/>
       <c r="O2" s="13">
         <v>45894</v>
@@ -19581,18 +19581,18 @@
     </row>
     <row r="3" spans="1:16" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="4"/>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
       <c r="N3" s="2"/>
       <c r="O3" s="15" t="s">
         <v>25</v>
@@ -19600,18 +19600,18 @@
     </row>
     <row r="4" spans="1:16" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="4"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
       <c r="N4" s="2"/>
       <c r="O4" s="15"/>
     </row>
@@ -19641,19 +19641,19 @@
         <f>C7*100000</f>
         <v>10000000</v>
       </c>
-      <c r="D6" s="86" t="str">
+      <c r="D6" s="102" t="str">
         <f>"2025 - 2035 : "&amp;$C8*100&amp;"% " &amp; B8</f>
         <v>2025 - 2035 : 60% LQWD 10Y CAGR</v>
       </c>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="86"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102"/>
       <c r="N6" s="12"/>
       <c r="O6" s="80">
         <v>100000</v>
@@ -19668,18 +19668,18 @@
       <c r="C7" s="11">
         <v>100</v>
       </c>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="86"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="86"/>
-      <c r="L7" s="86"/>
-      <c r="M7" s="86"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
       <c r="N7" s="12"/>
-      <c r="O7" s="90" t="s">
+      <c r="O7" s="118" t="s">
         <v>51</v>
       </c>
       <c r="P7" s="2"/>
@@ -19723,7 +19723,7 @@
         <v>13</v>
       </c>
       <c r="N8" s="12"/>
-      <c r="O8" s="90"/>
+      <c r="O8" s="118"/>
       <c r="P8" s="2"/>
     </row>
     <row r="9" spans="1:16" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -19775,7 +19775,7 @@
         <v>137.43895347200001</v>
       </c>
       <c r="N9" s="12"/>
-      <c r="O9" s="90"/>
+      <c r="O9" s="118"/>
       <c r="P9" s="2"/>
     </row>
     <row r="10" spans="1:16" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -19828,7 +19828,7 @@
         <v>5259150998.5263233</v>
       </c>
       <c r="N10" s="12"/>
-      <c r="O10" s="90"/>
+      <c r="O10" s="118"/>
       <c r="P10" s="2"/>
     </row>
     <row r="11" spans="1:16" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -19881,7 +19881,7 @@
         <v>378864.94803829672</v>
       </c>
       <c r="N11" s="12"/>
-      <c r="O11" s="90"/>
+      <c r="O11" s="118"/>
       <c r="P11" s="2"/>
     </row>
     <row r="12" spans="1:16" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -19933,45 +19933,45 @@
         <v>38265359.751867965</v>
       </c>
       <c r="N12" s="12"/>
-      <c r="O12" s="90"/>
+      <c r="O12" s="118"/>
       <c r="P12" s="2"/>
     </row>
     <row r="13" spans="1:16" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="4"/>
-      <c r="B13" s="84" t="s">
+      <c r="B13" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="85" t="s">
+      <c r="C13" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="95" t="s">
+      <c r="D13" s="106" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="95" t="s">
+      <c r="E13" s="106" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="95" t="s">
+      <c r="F13" s="106" t="s">
         <v>58</v>
       </c>
-      <c r="G13" s="95" t="s">
+      <c r="G13" s="106" t="s">
         <v>58</v>
       </c>
-      <c r="H13" s="95" t="s">
+      <c r="H13" s="106" t="s">
         <v>58</v>
       </c>
-      <c r="I13" s="95" t="s">
+      <c r="I13" s="106" t="s">
         <v>58</v>
       </c>
-      <c r="J13" s="95" t="s">
+      <c r="J13" s="106" t="s">
         <v>58</v>
       </c>
-      <c r="K13" s="95" t="s">
+      <c r="K13" s="106" t="s">
         <v>58</v>
       </c>
-      <c r="L13" s="95" t="s">
+      <c r="L13" s="106" t="s">
         <v>58</v>
       </c>
-      <c r="M13" s="95" t="s">
+      <c r="M13" s="106" t="s">
         <v>58</v>
       </c>
       <c r="N13" s="2"/>
@@ -19979,18 +19979,18 @@
     </row>
     <row r="14" spans="1:16" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="4"/>
-      <c r="B14" s="84"/>
-      <c r="C14" s="85"/>
-      <c r="D14" s="96"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="96"/>
-      <c r="G14" s="96"/>
-      <c r="H14" s="96"/>
-      <c r="I14" s="96"/>
-      <c r="J14" s="96"/>
-      <c r="K14" s="96"/>
-      <c r="L14" s="96"/>
-      <c r="M14" s="96"/>
+      <c r="B14" s="113"/>
+      <c r="C14" s="112"/>
+      <c r="D14" s="107"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="107"/>
+      <c r="G14" s="107"/>
+      <c r="H14" s="107"/>
+      <c r="I14" s="107"/>
+      <c r="J14" s="107"/>
+      <c r="K14" s="107"/>
+      <c r="L14" s="107"/>
+      <c r="M14" s="107"/>
       <c r="N14" s="2"/>
     </row>
     <row r="15" spans="1:16" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -20201,20 +20201,20 @@
         <v>40</v>
       </c>
       <c r="C19" s="120"/>
-      <c r="D19" s="89" t="s">
+      <c r="D19" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="89"/>
-      <c r="F19" s="89"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="89"/>
-      <c r="I19" s="89" t="s">
+      <c r="E19" s="114"/>
+      <c r="F19" s="114"/>
+      <c r="G19" s="114"/>
+      <c r="H19" s="114"/>
+      <c r="I19" s="114" t="s">
         <v>42</v>
       </c>
-      <c r="J19" s="89"/>
-      <c r="K19" s="89"/>
-      <c r="L19" s="89"/>
-      <c r="M19" s="89"/>
+      <c r="J19" s="114"/>
+      <c r="K19" s="114"/>
+      <c r="L19" s="114"/>
+      <c r="M19" s="114"/>
       <c r="N19" s="12"/>
       <c r="O19" s="8" t="s">
         <v>27</v>
@@ -20261,10 +20261,10 @@
     </row>
     <row r="21" spans="1:16" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="4"/>
-      <c r="B21" s="88" t="s">
+      <c r="B21" s="115" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="88"/>
+      <c r="C21" s="115"/>
       <c r="D21" s="75" t="str">
         <f>TEXT(ROUND(H15/$C$6/5*100, 2), "0.00") &amp; "%"</f>
         <v>2.83%</v>
@@ -20313,10 +20313,10 @@
     </row>
     <row r="22" spans="1:16" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="4"/>
-      <c r="B22" s="88" t="s">
+      <c r="B22" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="88"/>
+      <c r="C22" s="115"/>
       <c r="D22" s="75" t="str">
         <f>TEXT(ROUND(H16/$C$6/5*100, 2), "0.00") &amp; "%"</f>
         <v>6.61%</v>
@@ -20365,10 +20365,10 @@
     </row>
     <row r="23" spans="1:16" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23" s="4"/>
-      <c r="B23" s="88" t="s">
+      <c r="B23" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="88"/>
+      <c r="C23" s="115"/>
       <c r="D23" s="75" t="str">
         <f>TEXT(ROUND(H17/$C$6/5*100, 2), "0.00") &amp; "%"</f>
         <v>0.00%</v>
@@ -20417,10 +20417,10 @@
     </row>
     <row r="24" spans="1:16" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="4"/>
-      <c r="B24" s="88" t="s">
+      <c r="B24" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="88"/>
+      <c r="C24" s="115"/>
       <c r="D24" s="75" t="str">
         <f>TEXT(ROUND(H18/$C$6/5*100, 2), "0.00") &amp; "%"</f>
         <v>9.45%</v>
@@ -20466,10 +20466,10 @@
     </row>
     <row r="25" spans="1:16" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="4"/>
-      <c r="B25" s="91" t="s">
+      <c r="B25" s="116" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="92"/>
+      <c r="C25" s="117"/>
       <c r="D25" s="77"/>
       <c r="E25" s="14">
         <f>H12</f>
@@ -20531,19 +20531,19 @@
         <f>C28*1300000</f>
         <v>130000000</v>
       </c>
-      <c r="D27" s="86" t="str">
+      <c r="D27" s="102" t="str">
         <f>"2035 - 2045 : "&amp;$C29*100&amp;"% " &amp; B29</f>
         <v>2035 - 2045 : 40% LQWD 10Y CAGR</v>
       </c>
-      <c r="E27" s="86"/>
-      <c r="F27" s="86"/>
-      <c r="G27" s="86"/>
-      <c r="H27" s="86"/>
-      <c r="I27" s="86"/>
-      <c r="J27" s="86"/>
-      <c r="K27" s="86"/>
-      <c r="L27" s="86"/>
-      <c r="M27" s="86"/>
+      <c r="E27" s="102"/>
+      <c r="F27" s="102"/>
+      <c r="G27" s="102"/>
+      <c r="H27" s="102"/>
+      <c r="I27" s="102"/>
+      <c r="J27" s="102"/>
+      <c r="K27" s="102"/>
+      <c r="L27" s="102"/>
+      <c r="M27" s="102"/>
       <c r="N27" s="12"/>
       <c r="O27" s="80">
         <v>1300000</v>
@@ -20558,18 +20558,18 @@
       <c r="C28" s="11">
         <v>100</v>
       </c>
-      <c r="D28" s="86"/>
-      <c r="E28" s="86"/>
-      <c r="F28" s="86"/>
-      <c r="G28" s="86"/>
-      <c r="H28" s="86"/>
-      <c r="I28" s="86"/>
-      <c r="J28" s="86"/>
-      <c r="K28" s="86"/>
-      <c r="L28" s="86"/>
-      <c r="M28" s="86"/>
+      <c r="D28" s="102"/>
+      <c r="E28" s="102"/>
+      <c r="F28" s="102"/>
+      <c r="G28" s="102"/>
+      <c r="H28" s="102"/>
+      <c r="I28" s="102"/>
+      <c r="J28" s="102"/>
+      <c r="K28" s="102"/>
+      <c r="L28" s="102"/>
+      <c r="M28" s="102"/>
       <c r="N28" s="12"/>
-      <c r="O28" s="90" t="s">
+      <c r="O28" s="118" t="s">
         <v>52</v>
       </c>
       <c r="P28" s="2"/>
@@ -20613,7 +20613,7 @@
         <v>13</v>
       </c>
       <c r="N29" s="12"/>
-      <c r="O29" s="90"/>
+      <c r="O29" s="118"/>
       <c r="P29" s="2"/>
     </row>
     <row r="30" spans="1:16" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -20666,7 +20666,7 @@
         <v>3975.4857066805894</v>
       </c>
       <c r="N30" s="12"/>
-      <c r="O30" s="90"/>
+      <c r="O30" s="118"/>
       <c r="P30" s="2"/>
     </row>
     <row r="31" spans="1:16" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -20719,7 +20719,7 @@
         <v>159903001044.22189</v>
       </c>
       <c r="N31" s="12"/>
-      <c r="O31" s="90"/>
+      <c r="O31" s="118"/>
       <c r="P31" s="2"/>
     </row>
     <row r="32" spans="1:16" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -20772,7 +20772,7 @@
         <v>200110.72289635253</v>
       </c>
       <c r="N32" s="12"/>
-      <c r="O32" s="90"/>
+      <c r="O32" s="118"/>
       <c r="P32" s="2"/>
     </row>
     <row r="33" spans="1:16" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -20825,45 +20825,45 @@
         <v>40222255.302166857</v>
       </c>
       <c r="N33" s="12"/>
-      <c r="O33" s="90"/>
+      <c r="O33" s="118"/>
       <c r="P33" s="2"/>
     </row>
     <row r="34" spans="1:16" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="4"/>
-      <c r="B34" s="84" t="s">
+      <c r="B34" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="85" t="s">
+      <c r="C34" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="83" t="s">
+      <c r="D34" s="103" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="83" t="s">
+      <c r="E34" s="103" t="s">
         <v>58</v>
       </c>
-      <c r="F34" s="83" t="s">
+      <c r="F34" s="103" t="s">
         <v>58</v>
       </c>
-      <c r="G34" s="83" t="s">
+      <c r="G34" s="103" t="s">
         <v>58</v>
       </c>
-      <c r="H34" s="83" t="s">
+      <c r="H34" s="103" t="s">
         <v>58</v>
       </c>
-      <c r="I34" s="83" t="s">
+      <c r="I34" s="103" t="s">
         <v>58</v>
       </c>
-      <c r="J34" s="83" t="s">
+      <c r="J34" s="103" t="s">
         <v>58</v>
       </c>
-      <c r="K34" s="83" t="s">
+      <c r="K34" s="103" t="s">
         <v>58</v>
       </c>
-      <c r="L34" s="83" t="s">
+      <c r="L34" s="103" t="s">
         <v>58</v>
       </c>
-      <c r="M34" s="83" t="s">
+      <c r="M34" s="103" t="s">
         <v>58</v>
       </c>
       <c r="N34" s="2"/>
@@ -20871,18 +20871,18 @@
     </row>
     <row r="35" spans="1:16" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A35" s="4"/>
-      <c r="B35" s="84"/>
-      <c r="C35" s="85"/>
-      <c r="D35" s="83"/>
-      <c r="E35" s="83"/>
-      <c r="F35" s="83"/>
-      <c r="G35" s="83"/>
-      <c r="H35" s="83"/>
-      <c r="I35" s="83"/>
-      <c r="J35" s="83"/>
-      <c r="K35" s="83"/>
-      <c r="L35" s="83"/>
-      <c r="M35" s="83"/>
+      <c r="B35" s="113"/>
+      <c r="C35" s="112"/>
+      <c r="D35" s="103"/>
+      <c r="E35" s="103"/>
+      <c r="F35" s="103"/>
+      <c r="G35" s="103"/>
+      <c r="H35" s="103"/>
+      <c r="I35" s="103"/>
+      <c r="J35" s="103"/>
+      <c r="K35" s="103"/>
+      <c r="L35" s="103"/>
+      <c r="M35" s="103"/>
       <c r="N35" s="2"/>
     </row>
     <row r="36" spans="1:16" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -21093,20 +21093,20 @@
         <v>40</v>
       </c>
       <c r="C40" s="120"/>
-      <c r="D40" s="89" t="s">
+      <c r="D40" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="E40" s="89"/>
-      <c r="F40" s="89"/>
-      <c r="G40" s="89"/>
-      <c r="H40" s="89"/>
-      <c r="I40" s="89" t="s">
+      <c r="E40" s="114"/>
+      <c r="F40" s="114"/>
+      <c r="G40" s="114"/>
+      <c r="H40" s="114"/>
+      <c r="I40" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="J40" s="89"/>
-      <c r="K40" s="89"/>
-      <c r="L40" s="89"/>
-      <c r="M40" s="89"/>
+      <c r="J40" s="114"/>
+      <c r="K40" s="114"/>
+      <c r="L40" s="114"/>
+      <c r="M40" s="114"/>
       <c r="N40" s="12"/>
       <c r="O40" s="8" t="s">
         <v>28</v>
@@ -21153,10 +21153,10 @@
     </row>
     <row r="42" spans="1:16" s="3" customFormat="1" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A42" s="4"/>
-      <c r="B42" s="88" t="s">
+      <c r="B42" s="115" t="s">
         <v>56</v>
       </c>
-      <c r="C42" s="88"/>
+      <c r="C42" s="115"/>
       <c r="D42" s="75" t="str">
         <f>TEXT(ROUND(H36/$C$27/5*100, 2), "0.00") &amp; "%"</f>
         <v>6.66%</v>
@@ -21205,10 +21205,10 @@
     </row>
     <row r="43" spans="1:16" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A43" s="4"/>
-      <c r="B43" s="88" t="s">
+      <c r="B43" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="C43" s="88"/>
+      <c r="C43" s="115"/>
       <c r="D43" s="75" t="str">
         <f>TEXT(ROUND(H37/$C$27/5*100, 2), "0.00") &amp; "%"</f>
         <v>15.54%</v>
@@ -21257,10 +21257,10 @@
     </row>
     <row r="44" spans="1:16" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A44" s="4"/>
-      <c r="B44" s="88" t="s">
+      <c r="B44" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="C44" s="88"/>
+      <c r="C44" s="115"/>
       <c r="D44" s="75" t="str">
         <f>TEXT(ROUND(H38/$C$27/5*100, 2), "0.00") &amp; "%"</f>
         <v>0.00%</v>
@@ -21309,10 +21309,10 @@
     </row>
     <row r="45" spans="1:16" ht="15.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A45" s="4"/>
-      <c r="B45" s="88" t="s">
+      <c r="B45" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="C45" s="88"/>
+      <c r="C45" s="115"/>
       <c r="D45" s="75" t="str">
         <f>TEXT(ROUND(H39/$C$27/5*100, 2), "0.00") &amp; "%"</f>
         <v>22.20%</v>
@@ -21372,17 +21372,13 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B40:C41"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="I40:M40"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B40:C41"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="M34:M35"/>
-    <mergeCell ref="D40:H40"/>
-    <mergeCell ref="I40:M40"/>
     <mergeCell ref="D27:M28"/>
     <mergeCell ref="O28:O33"/>
     <mergeCell ref="B34:B35"/>
@@ -21393,21 +21389,24 @@
     <mergeCell ref="G34:G35"/>
     <mergeCell ref="H34:H35"/>
     <mergeCell ref="I34:I35"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="M34:M35"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="I19:M19"/>
+    <mergeCell ref="B2:M4"/>
+    <mergeCell ref="D6:M7"/>
     <mergeCell ref="B19:C20"/>
     <mergeCell ref="I13:I14"/>
     <mergeCell ref="J13:J14"/>
     <mergeCell ref="K13:K14"/>
     <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="D19:H19"/>
-    <mergeCell ref="I19:M19"/>
-    <mergeCell ref="B2:M4"/>
-    <mergeCell ref="D6:M7"/>
     <mergeCell ref="O7:O12"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C13:C14"/>
@@ -21416,6 +21415,7 @@
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="H13:H14"/>
+    <mergeCell ref="M13:M14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
